--- a/CodeQualityAssessor/jasml_0.10.xlsx
+++ b/CodeQualityAssessor/jasml_0.10.xlsx
@@ -975,10 +975,10 @@
         <v>2.0</v>
       </c>
       <c r="F2" t="n">
-        <v>39.0</v>
+        <v>32.0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -987,7 +987,7 @@
         <v>8.0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -1010,10 +1010,10 @@
         <v>2.0</v>
       </c>
       <c r="F3" t="n">
-        <v>39.0</v>
+        <v>32.0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -1022,7 +1022,7 @@
         <v>8.0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -1045,10 +1045,10 @@
         <v>5.0</v>
       </c>
       <c r="F4" t="n">
-        <v>82.0</v>
+        <v>75.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -1057,7 +1057,7 @@
         <v>3.0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -1080,10 +1080,10 @@
         <v>5.0</v>
       </c>
       <c r="F5" t="n">
-        <v>82.0</v>
+        <v>75.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -1092,7 +1092,7 @@
         <v>11.0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
@@ -1115,10 +1115,10 @@
         <v>5.0</v>
       </c>
       <c r="F6" t="n">
-        <v>82.0</v>
+        <v>75.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -1127,7 +1127,7 @@
         <v>6.0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -1150,10 +1150,10 @@
         <v>5.0</v>
       </c>
       <c r="F7" t="n">
-        <v>82.0</v>
+        <v>75.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -1162,7 +1162,7 @@
         <v>10.0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
@@ -1185,10 +1185,10 @@
         <v>5.0</v>
       </c>
       <c r="F8" t="n">
-        <v>82.0</v>
+        <v>75.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -1197,7 +1197,7 @@
         <v>2.0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
@@ -1220,10 +1220,10 @@
         <v>1.0</v>
       </c>
       <c r="F9" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -1232,7 +1232,7 @@
         <v>4.0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
@@ -1255,10 +1255,10 @@
         <v>1.0</v>
       </c>
       <c r="F10" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -1267,7 +1267,7 @@
         <v>3.0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
@@ -1290,10 +1290,10 @@
         <v>1.0</v>
       </c>
       <c r="F11" t="n">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -1302,7 +1302,7 @@
         <v>5.0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -1325,10 +1325,10 @@
         <v>2.0</v>
       </c>
       <c r="F12" t="n">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -1337,7 +1337,7 @@
         <v>5.0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K12" t="s">
         <v>14</v>
@@ -1360,10 +1360,10 @@
         <v>2.0</v>
       </c>
       <c r="F13" t="n">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
@@ -1372,7 +1372,7 @@
         <v>6.0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K13" t="s">
         <v>14</v>
@@ -1395,10 +1395,10 @@
         <v>2.0</v>
       </c>
       <c r="F14" t="n">
-        <v>29.0</v>
+        <v>24.0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -1407,7 +1407,7 @@
         <v>5.0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K14" t="s">
         <v>14</v>
@@ -1430,10 +1430,10 @@
         <v>2.0</v>
       </c>
       <c r="F15" t="n">
-        <v>29.0</v>
+        <v>24.0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
@@ -1442,7 +1442,7 @@
         <v>4.0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K15" t="s">
         <v>14</v>
@@ -1465,10 +1465,10 @@
         <v>2.0</v>
       </c>
       <c r="F16" t="n">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -1477,7 +1477,7 @@
         <v>5.0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K16" t="s">
         <v>14</v>
@@ -1500,10 +1500,10 @@
         <v>2.0</v>
       </c>
       <c r="F17" t="n">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -1512,7 +1512,7 @@
         <v>7.0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K17" t="s">
         <v>14</v>
@@ -1535,10 +1535,10 @@
         <v>1.0</v>
       </c>
       <c r="F18" t="n">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -1547,7 +1547,7 @@
         <v>4.0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K18" t="s">
         <v>14</v>
@@ -1570,10 +1570,10 @@
         <v>1.0</v>
       </c>
       <c r="F19" t="n">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
@@ -1582,7 +1582,7 @@
         <v>3.0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K19" t="s">
         <v>14</v>
@@ -1605,10 +1605,10 @@
         <v>4.0</v>
       </c>
       <c r="F20" t="n">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -1617,7 +1617,7 @@
         <v>3.0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K20" t="s">
         <v>14</v>
@@ -1640,10 +1640,10 @@
         <v>4.0</v>
       </c>
       <c r="F21" t="n">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
       <c r="G21" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -1652,7 +1652,7 @@
         <v>3.0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K21" t="s">
         <v>14</v>
@@ -1675,10 +1675,10 @@
         <v>4.0</v>
       </c>
       <c r="F22" t="n">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -1687,7 +1687,7 @@
         <v>3.0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K22" t="s">
         <v>14</v>
@@ -1710,10 +1710,10 @@
         <v>4.0</v>
       </c>
       <c r="F23" t="n">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -1722,7 +1722,7 @@
         <v>16.0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K23" t="s">
         <v>14</v>
@@ -1745,10 +1745,10 @@
         <v>1.0</v>
       </c>
       <c r="F24" t="n">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -1757,7 +1757,7 @@
         <v>4.0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K24" t="s">
         <v>14</v>
@@ -1780,10 +1780,10 @@
         <v>2.0</v>
       </c>
       <c r="F25" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -1792,7 +1792,7 @@
         <v>4.0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K25" t="s">
         <v>14</v>
@@ -1815,10 +1815,10 @@
         <v>2.0</v>
       </c>
       <c r="F26" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
@@ -1827,7 +1827,7 @@
         <v>3.0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K26" t="s">
         <v>14</v>
@@ -1850,10 +1850,10 @@
         <v>2.0</v>
       </c>
       <c r="F27" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -1862,7 +1862,7 @@
         <v>4.0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K27" t="s">
         <v>14</v>
@@ -1885,10 +1885,10 @@
         <v>2.0</v>
       </c>
       <c r="F28" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
@@ -1897,7 +1897,7 @@
         <v>3.0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K28" t="s">
         <v>14</v>
@@ -1920,10 +1920,10 @@
         <v>2.0</v>
       </c>
       <c r="F29" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -1932,7 +1932,7 @@
         <v>5.0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K29" t="s">
         <v>14</v>
@@ -1955,10 +1955,10 @@
         <v>2.0</v>
       </c>
       <c r="F30" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H30" t="s">
         <v>14</v>
@@ -1967,7 +1967,7 @@
         <v>3.0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K30" t="s">
         <v>14</v>
@@ -1990,10 +1990,10 @@
         <v>2.0</v>
       </c>
       <c r="F31" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
@@ -2002,7 +2002,7 @@
         <v>4.0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K31" t="s">
         <v>14</v>
@@ -2025,10 +2025,10 @@
         <v>2.0</v>
       </c>
       <c r="F32" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
@@ -2037,7 +2037,7 @@
         <v>3.0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K32" t="s">
         <v>14</v>
@@ -2060,10 +2060,10 @@
         <v>2.0</v>
       </c>
       <c r="F33" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
@@ -2072,7 +2072,7 @@
         <v>4.0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K33" t="s">
         <v>14</v>
@@ -2095,10 +2095,10 @@
         <v>2.0</v>
       </c>
       <c r="F34" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
@@ -2107,7 +2107,7 @@
         <v>3.0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K34" t="s">
         <v>14</v>
@@ -2130,10 +2130,10 @@
         <v>2.0</v>
       </c>
       <c r="F35" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
@@ -2142,7 +2142,7 @@
         <v>5.0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K35" t="s">
         <v>14</v>
@@ -2165,10 +2165,10 @@
         <v>2.0</v>
       </c>
       <c r="F36" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
@@ -2177,7 +2177,7 @@
         <v>3.0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K36" t="s">
         <v>14</v>
@@ -2200,10 +2200,10 @@
         <v>3.0</v>
       </c>
       <c r="F37" t="n">
-        <v>21.0</v>
+        <v>17.0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H37" t="s">
         <v>14</v>
@@ -2212,7 +2212,7 @@
         <v>4.0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K37" t="s">
         <v>14</v>
@@ -2235,10 +2235,10 @@
         <v>3.0</v>
       </c>
       <c r="F38" t="n">
-        <v>21.0</v>
+        <v>17.0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H38" t="s">
         <v>14</v>
@@ -2247,7 +2247,7 @@
         <v>3.0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K38" t="s">
         <v>14</v>
@@ -2270,10 +2270,10 @@
         <v>3.0</v>
       </c>
       <c r="F39" t="n">
-        <v>21.0</v>
+        <v>17.0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
@@ -2282,7 +2282,7 @@
         <v>3.0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K39" t="s">
         <v>14</v>
@@ -2305,10 +2305,10 @@
         <v>2.0</v>
       </c>
       <c r="F40" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H40" t="s">
         <v>14</v>
@@ -2317,7 +2317,7 @@
         <v>5.0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K40" t="s">
         <v>14</v>
@@ -2340,10 +2340,10 @@
         <v>2.0</v>
       </c>
       <c r="F41" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H41" t="s">
         <v>14</v>
@@ -2352,7 +2352,7 @@
         <v>3.0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K41" t="s">
         <v>14</v>
@@ -2375,10 +2375,10 @@
         <v>2.0</v>
       </c>
       <c r="F42" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
@@ -2387,7 +2387,7 @@
         <v>5.0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K42" t="s">
         <v>14</v>
@@ -2410,10 +2410,10 @@
         <v>2.0</v>
       </c>
       <c r="F43" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H43" t="s">
         <v>14</v>
@@ -2422,7 +2422,7 @@
         <v>3.0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K43" t="s">
         <v>14</v>
@@ -2445,10 +2445,10 @@
         <v>2.0</v>
       </c>
       <c r="F44" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H44" t="s">
         <v>14</v>
@@ -2457,7 +2457,7 @@
         <v>4.0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K44" t="s">
         <v>14</v>
@@ -2480,10 +2480,10 @@
         <v>2.0</v>
       </c>
       <c r="F45" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H45" t="s">
         <v>14</v>
@@ -2492,7 +2492,7 @@
         <v>3.0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K45" t="s">
         <v>14</v>
@@ -2515,10 +2515,10 @@
         <v>2.0</v>
       </c>
       <c r="F46" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H46" t="s">
         <v>14</v>
@@ -2527,7 +2527,7 @@
         <v>4.0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K46" t="s">
         <v>14</v>
@@ -2550,10 +2550,10 @@
         <v>2.0</v>
       </c>
       <c r="F47" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
@@ -2562,7 +2562,7 @@
         <v>3.0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K47" t="s">
         <v>14</v>
@@ -2585,10 +2585,10 @@
         <v>1.0</v>
       </c>
       <c r="F48" t="n">
-        <v>27.0</v>
+        <v>21.0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H48" t="s">
         <v>14</v>
@@ -2597,7 +2597,7 @@
         <v>7.0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K48" t="s">
         <v>14</v>
@@ -2620,10 +2620,10 @@
         <v>1.0</v>
       </c>
       <c r="F49" t="n">
-        <v>26.0</v>
+        <v>21.0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H49" t="s">
         <v>14</v>
@@ -2632,7 +2632,7 @@
         <v>7.0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K49" t="s">
         <v>14</v>
@@ -2655,10 +2655,10 @@
         <v>25.0</v>
       </c>
       <c r="F50" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G50" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H50" t="s">
         <v>14</v>
@@ -2667,7 +2667,7 @@
         <v>4.0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K50" t="s">
         <v>14</v>
@@ -2690,10 +2690,10 @@
         <v>25.0</v>
       </c>
       <c r="F51" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G51" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H51" t="s">
         <v>14</v>
@@ -2702,7 +2702,7 @@
         <v>6.0</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K51" t="s">
         <v>14</v>
@@ -2725,10 +2725,10 @@
         <v>25.0</v>
       </c>
       <c r="F52" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G52" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
@@ -2737,7 +2737,7 @@
         <v>23.0</v>
       </c>
       <c r="J52" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K52" t="s">
         <v>14</v>
@@ -2760,10 +2760,10 @@
         <v>25.0</v>
       </c>
       <c r="F53" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G53" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H53" t="s">
         <v>14</v>
@@ -2772,7 +2772,7 @@
         <v>10.0</v>
       </c>
       <c r="J53" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K53" t="s">
         <v>14</v>
@@ -2795,10 +2795,10 @@
         <v>25.0</v>
       </c>
       <c r="F54" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G54" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H54" t="s">
         <v>14</v>
@@ -2807,7 +2807,7 @@
         <v>14.0</v>
       </c>
       <c r="J54" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K54" t="s">
         <v>14</v>
@@ -2830,10 +2830,10 @@
         <v>25.0</v>
       </c>
       <c r="F55" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G55" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H55" t="s">
         <v>14</v>
@@ -2842,7 +2842,7 @@
         <v>10.0</v>
       </c>
       <c r="J55" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K55" t="s">
         <v>14</v>
@@ -2865,10 +2865,10 @@
         <v>25.0</v>
       </c>
       <c r="F56" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G56" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H56" t="s">
         <v>14</v>
@@ -2877,7 +2877,7 @@
         <v>10.0</v>
       </c>
       <c r="J56" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K56" t="s">
         <v>14</v>
@@ -2900,10 +2900,10 @@
         <v>25.0</v>
       </c>
       <c r="F57" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G57" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H57" t="s">
         <v>14</v>
@@ -2912,7 +2912,7 @@
         <v>14.0</v>
       </c>
       <c r="J57" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K57" t="s">
         <v>14</v>
@@ -2935,10 +2935,10 @@
         <v>25.0</v>
       </c>
       <c r="F58" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G58" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H58" t="s">
         <v>14</v>
@@ -2947,7 +2947,7 @@
         <v>10.0</v>
       </c>
       <c r="J58" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K58" t="s">
         <v>14</v>
@@ -2970,10 +2970,10 @@
         <v>25.0</v>
       </c>
       <c r="F59" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G59" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H59" t="s">
         <v>14</v>
@@ -2982,7 +2982,7 @@
         <v>14.0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K59" t="s">
         <v>14</v>
@@ -3005,10 +3005,10 @@
         <v>25.0</v>
       </c>
       <c r="F60" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G60" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H60" t="s">
         <v>14</v>
@@ -3017,7 +3017,7 @@
         <v>13.0</v>
       </c>
       <c r="J60" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K60" t="s">
         <v>14</v>
@@ -3040,10 +3040,10 @@
         <v>25.0</v>
       </c>
       <c r="F61" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G61" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H61" t="s">
         <v>14</v>
@@ -3052,7 +3052,7 @@
         <v>15.0</v>
       </c>
       <c r="J61" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K61" t="s">
         <v>14</v>
@@ -3075,10 +3075,10 @@
         <v>25.0</v>
       </c>
       <c r="F62" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G62" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H62" t="s">
         <v>14</v>
@@ -3087,7 +3087,7 @@
         <v>18.0</v>
       </c>
       <c r="J62" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K62" t="s">
         <v>14</v>
@@ -3110,10 +3110,10 @@
         <v>25.0</v>
       </c>
       <c r="F63" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G63" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H63" t="s">
         <v>14</v>
@@ -3122,7 +3122,7 @@
         <v>12.0</v>
       </c>
       <c r="J63" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K63" t="s">
         <v>14</v>
@@ -3145,10 +3145,10 @@
         <v>25.0</v>
       </c>
       <c r="F64" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G64" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H64" t="s">
         <v>14</v>
@@ -3157,7 +3157,7 @@
         <v>7.0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K64" t="s">
         <v>14</v>
@@ -3180,10 +3180,10 @@
         <v>25.0</v>
       </c>
       <c r="F65" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G65" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H65" t="s">
         <v>14</v>
@@ -3192,7 +3192,7 @@
         <v>10.0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K65" t="s">
         <v>14</v>
@@ -3215,10 +3215,10 @@
         <v>25.0</v>
       </c>
       <c r="F66" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G66" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H66" t="s">
         <v>14</v>
@@ -3227,7 +3227,7 @@
         <v>10.0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K66" t="s">
         <v>14</v>
@@ -3250,10 +3250,10 @@
         <v>25.0</v>
       </c>
       <c r="F67" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G67" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
@@ -3262,7 +3262,7 @@
         <v>8.0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K67" t="s">
         <v>14</v>
@@ -3285,10 +3285,10 @@
         <v>25.0</v>
       </c>
       <c r="F68" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G68" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H68" t="s">
         <v>14</v>
@@ -3297,7 +3297,7 @@
         <v>8.0</v>
       </c>
       <c r="J68" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K68" t="s">
         <v>14</v>
@@ -3320,10 +3320,10 @@
         <v>25.0</v>
       </c>
       <c r="F69" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G69" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
@@ -3332,7 +3332,7 @@
         <v>10.0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K69" t="s">
         <v>14</v>
@@ -3355,10 +3355,10 @@
         <v>25.0</v>
       </c>
       <c r="F70" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G70" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H70" t="s">
         <v>14</v>
@@ -3367,7 +3367,7 @@
         <v>10.0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K70" t="s">
         <v>14</v>
@@ -3390,10 +3390,10 @@
         <v>25.0</v>
       </c>
       <c r="F71" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G71" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H71" t="s">
         <v>14</v>
@@ -3402,7 +3402,7 @@
         <v>10.0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K71" t="s">
         <v>14</v>
@@ -3425,10 +3425,10 @@
         <v>25.0</v>
       </c>
       <c r="F72" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G72" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H72" t="s">
         <v>14</v>
@@ -3437,7 +3437,7 @@
         <v>10.0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K72" t="s">
         <v>14</v>
@@ -3460,10 +3460,10 @@
         <v>25.0</v>
       </c>
       <c r="F73" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G73" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H73" t="s">
         <v>14</v>
@@ -3472,7 +3472,7 @@
         <v>7.0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K73" t="s">
         <v>14</v>
@@ -3495,10 +3495,10 @@
         <v>25.0</v>
       </c>
       <c r="F74" t="n">
-        <v>325.0</v>
+        <v>308.0</v>
       </c>
       <c r="G74" t="n">
-        <v>33.0</v>
+        <v>58.0</v>
       </c>
       <c r="H74" t="s">
         <v>14</v>
@@ -3507,7 +3507,7 @@
         <v>5.0</v>
       </c>
       <c r="J74" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K74" t="s">
         <v>14</v>
@@ -3530,10 +3530,10 @@
         <v>4.0</v>
       </c>
       <c r="F75" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H75" t="s">
         <v>14</v>
@@ -3542,7 +3542,7 @@
         <v>3.0</v>
       </c>
       <c r="J75" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K75" t="s">
         <v>14</v>
@@ -3565,10 +3565,10 @@
         <v>4.0</v>
       </c>
       <c r="F76" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H76" t="s">
         <v>14</v>
@@ -3577,7 +3577,7 @@
         <v>3.0</v>
       </c>
       <c r="J76" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K76" t="s">
         <v>14</v>
@@ -3600,10 +3600,10 @@
         <v>4.0</v>
       </c>
       <c r="F77" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H77" t="s">
         <v>14</v>
@@ -3612,7 +3612,7 @@
         <v>3.0</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K77" t="s">
         <v>14</v>
@@ -3635,10 +3635,10 @@
         <v>4.0</v>
       </c>
       <c r="F78" t="n">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="H78" t="s">
         <v>14</v>
@@ -3647,7 +3647,7 @@
         <v>3.0</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K78" t="s">
         <v>14</v>
@@ -3670,10 +3670,10 @@
         <v>10.0</v>
       </c>
       <c r="F79" t="n">
-        <v>255.0</v>
+        <v>234.0</v>
       </c>
       <c r="G79" t="n">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
       <c r="H79" t="s">
         <v>14</v>
@@ -3682,7 +3682,7 @@
         <v>4.0</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K79" t="s">
         <v>14</v>
@@ -3705,10 +3705,10 @@
         <v>10.0</v>
       </c>
       <c r="F80" t="n">
-        <v>255.0</v>
+        <v>234.0</v>
       </c>
       <c r="G80" t="n">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
       <c r="H80" t="s">
         <v>14</v>
@@ -3717,7 +3717,7 @@
         <v>11.0</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K80" t="s">
         <v>14</v>
@@ -3740,10 +3740,10 @@
         <v>10.0</v>
       </c>
       <c r="F81" t="n">
-        <v>255.0</v>
+        <v>234.0</v>
       </c>
       <c r="G81" t="n">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
       <c r="H81" t="s">
         <v>14</v>
@@ -3752,7 +3752,7 @@
         <v>10.0</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K81" t="s">
         <v>14</v>
@@ -3775,10 +3775,10 @@
         <v>10.0</v>
       </c>
       <c r="F82" t="n">
-        <v>255.0</v>
+        <v>234.0</v>
       </c>
       <c r="G82" t="n">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
       <c r="H82" t="s">
         <v>14</v>
@@ -3787,7 +3787,7 @@
         <v>54.0</v>
       </c>
       <c r="J82" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="K82" t="s">
         <v>14</v>
@@ -3810,10 +3810,10 @@
         <v>10.0</v>
       </c>
       <c r="F83" t="n">
-        <v>255.0</v>
+        <v>234.0</v>
       </c>
       <c r="G83" t="n">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
       <c r="H83" t="s">
         <v>14</v>
@@ -3822,7 +3822,7 @@
         <v>5.0</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K83" t="s">
         <v>14</v>
@@ -3845,10 +3845,10 @@
         <v>10.0</v>
       </c>
       <c r="F84" t="n">
-        <v>255.0</v>
+        <v>234.0</v>
       </c>
       <c r="G84" t="n">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
       <c r="H84" t="s">
         <v>14</v>
@@ -3857,7 +3857,7 @@
         <v>11.0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K84" t="s">
         <v>14</v>
@@ -3880,10 +3880,10 @@
         <v>10.0</v>
       </c>
       <c r="F85" t="n">
-        <v>255.0</v>
+        <v>234.0</v>
       </c>
       <c r="G85" t="n">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
       <c r="H85" t="s">
         <v>14</v>
@@ -3892,7 +3892,7 @@
         <v>14.0</v>
       </c>
       <c r="J85" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K85" t="s">
         <v>14</v>
@@ -3915,10 +3915,10 @@
         <v>10.0</v>
       </c>
       <c r="F86" t="n">
-        <v>255.0</v>
+        <v>234.0</v>
       </c>
       <c r="G86" t="n">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
       <c r="H86" t="s">
         <v>14</v>
@@ -3927,7 +3927,7 @@
         <v>14.0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K86" t="s">
         <v>14</v>
@@ -3950,10 +3950,10 @@
         <v>10.0</v>
       </c>
       <c r="F87" t="n">
-        <v>255.0</v>
+        <v>234.0</v>
       </c>
       <c r="G87" t="n">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
       <c r="H87" t="s">
         <v>14</v>
@@ -3962,7 +3962,7 @@
         <v>6.0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K87" t="s">
         <v>14</v>
@@ -3985,10 +3985,10 @@
         <v>10.0</v>
       </c>
       <c r="F88" t="n">
-        <v>255.0</v>
+        <v>234.0</v>
       </c>
       <c r="G88" t="n">
-        <v>36.0</v>
+        <v>47.0</v>
       </c>
       <c r="H88" t="s">
         <v>14</v>
@@ -3997,7 +3997,7 @@
         <v>87.0</v>
       </c>
       <c r="J88" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="K88" t="s">
         <v>14</v>
@@ -4020,10 +4020,10 @@
         <v>6.0</v>
       </c>
       <c r="F89" t="n">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
       <c r="G89" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="H89" t="s">
         <v>14</v>
@@ -4032,7 +4032,7 @@
         <v>6.0</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K89" t="s">
         <v>14</v>
@@ -4055,10 +4055,10 @@
         <v>6.0</v>
       </c>
       <c r="F90" t="n">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
       <c r="G90" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="H90" t="s">
         <v>14</v>
@@ -4067,7 +4067,7 @@
         <v>5.0</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K90" t="s">
         <v>14</v>
@@ -4090,10 +4090,10 @@
         <v>6.0</v>
       </c>
       <c r="F91" t="n">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
       <c r="G91" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="H91" t="s">
         <v>14</v>
@@ -4102,7 +4102,7 @@
         <v>4.0</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K91" t="s">
         <v>14</v>
@@ -4125,10 +4125,10 @@
         <v>6.0</v>
       </c>
       <c r="F92" t="n">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
       <c r="G92" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="H92" t="s">
         <v>14</v>
@@ -4137,7 +4137,7 @@
         <v>3.0</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K92" t="s">
         <v>14</v>
@@ -4160,10 +4160,10 @@
         <v>6.0</v>
       </c>
       <c r="F93" t="n">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
       <c r="G93" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="H93" t="s">
         <v>14</v>
@@ -4172,7 +4172,7 @@
         <v>3.0</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K93" t="s">
         <v>14</v>
@@ -4195,10 +4195,10 @@
         <v>6.0</v>
       </c>
       <c r="F94" t="n">
-        <v>53.0</v>
+        <v>51.0</v>
       </c>
       <c r="G94" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="H94" t="s">
         <v>14</v>
@@ -4207,7 +4207,7 @@
         <v>20.0</v>
       </c>
       <c r="J94" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K94" t="s">
         <v>14</v>
@@ -4230,10 +4230,10 @@
         <v>32.0</v>
       </c>
       <c r="F95" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G95" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H95" t="s">
         <v>14</v>
@@ -4242,7 +4242,7 @@
         <v>3.0</v>
       </c>
       <c r="J95" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K95" t="s">
         <v>14</v>
@@ -4265,10 +4265,10 @@
         <v>32.0</v>
       </c>
       <c r="F96" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G96" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H96" t="s">
         <v>14</v>
@@ -4277,7 +4277,7 @@
         <v>7.0</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K96" t="s">
         <v>14</v>
@@ -4300,10 +4300,10 @@
         <v>32.0</v>
       </c>
       <c r="F97" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G97" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H97" t="s">
         <v>14</v>
@@ -4312,7 +4312,7 @@
         <v>2.0</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K97" t="s">
         <v>14</v>
@@ -4335,10 +4335,10 @@
         <v>32.0</v>
       </c>
       <c r="F98" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G98" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H98" t="s">
         <v>14</v>
@@ -4347,7 +4347,7 @@
         <v>14.0</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K98" t="s">
         <v>14</v>
@@ -4370,10 +4370,10 @@
         <v>32.0</v>
       </c>
       <c r="F99" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G99" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H99" t="s">
         <v>14</v>
@@ -4382,7 +4382,7 @@
         <v>22.0</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K99" t="s">
         <v>14</v>
@@ -4405,10 +4405,10 @@
         <v>32.0</v>
       </c>
       <c r="F100" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G100" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H100" t="s">
         <v>14</v>
@@ -4417,7 +4417,7 @@
         <v>3.0</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K100" t="s">
         <v>14</v>
@@ -4440,10 +4440,10 @@
         <v>32.0</v>
       </c>
       <c r="F101" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G101" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H101" t="s">
         <v>14</v>
@@ -4452,7 +4452,7 @@
         <v>11.0</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K101" t="s">
         <v>14</v>
@@ -4475,10 +4475,10 @@
         <v>32.0</v>
       </c>
       <c r="F102" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G102" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H102" t="s">
         <v>14</v>
@@ -4487,7 +4487,7 @@
         <v>11.0</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K102" t="s">
         <v>14</v>
@@ -4510,10 +4510,10 @@
         <v>32.0</v>
       </c>
       <c r="F103" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G103" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H103" t="s">
         <v>14</v>
@@ -4522,7 +4522,7 @@
         <v>3.0</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K103" t="s">
         <v>14</v>
@@ -4545,10 +4545,10 @@
         <v>32.0</v>
       </c>
       <c r="F104" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G104" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H104" t="s">
         <v>14</v>
@@ -4557,7 +4557,7 @@
         <v>3.0</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K104" t="s">
         <v>14</v>
@@ -4580,10 +4580,10 @@
         <v>32.0</v>
       </c>
       <c r="F105" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G105" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H105" t="s">
         <v>14</v>
@@ -4592,7 +4592,7 @@
         <v>256.0</v>
       </c>
       <c r="J105" t="n">
-        <v>79.0</v>
+        <v>81.0</v>
       </c>
       <c r="K105" t="s">
         <v>14</v>
@@ -4615,10 +4615,10 @@
         <v>32.0</v>
       </c>
       <c r="F106" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G106" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H106" t="s">
         <v>14</v>
@@ -4627,7 +4627,7 @@
         <v>17.0</v>
       </c>
       <c r="J106" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K106" t="s">
         <v>14</v>
@@ -4650,10 +4650,10 @@
         <v>32.0</v>
       </c>
       <c r="F107" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G107" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H107" t="s">
         <v>14</v>
@@ -4662,7 +4662,7 @@
         <v>16.0</v>
       </c>
       <c r="J107" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K107" t="s">
         <v>14</v>
@@ -4685,10 +4685,10 @@
         <v>32.0</v>
       </c>
       <c r="F108" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G108" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H108" t="s">
         <v>14</v>
@@ -4697,7 +4697,7 @@
         <v>3.0</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K108" t="s">
         <v>14</v>
@@ -4720,10 +4720,10 @@
         <v>32.0</v>
       </c>
       <c r="F109" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G109" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H109" t="s">
         <v>14</v>
@@ -4732,7 +4732,7 @@
         <v>3.0</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K109" t="s">
         <v>14</v>
@@ -4755,10 +4755,10 @@
         <v>32.0</v>
       </c>
       <c r="F110" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G110" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H110" t="s">
         <v>14</v>
@@ -4767,7 +4767,7 @@
         <v>3.0</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K110" t="s">
         <v>14</v>
@@ -4790,10 +4790,10 @@
         <v>32.0</v>
       </c>
       <c r="F111" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G111" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H111" t="s">
         <v>14</v>
@@ -4802,7 +4802,7 @@
         <v>3.0</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K111" t="s">
         <v>14</v>
@@ -4825,10 +4825,10 @@
         <v>32.0</v>
       </c>
       <c r="F112" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G112" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H112" t="s">
         <v>14</v>
@@ -4837,7 +4837,7 @@
         <v>3.0</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K112" t="s">
         <v>14</v>
@@ -4860,10 +4860,10 @@
         <v>32.0</v>
       </c>
       <c r="F113" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G113" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H113" t="s">
         <v>14</v>
@@ -4872,7 +4872,7 @@
         <v>3.0</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K113" t="s">
         <v>14</v>
@@ -4895,10 +4895,10 @@
         <v>32.0</v>
       </c>
       <c r="F114" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G114" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H114" t="s">
         <v>14</v>
@@ -4907,7 +4907,7 @@
         <v>3.0</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K114" t="s">
         <v>14</v>
@@ -4930,10 +4930,10 @@
         <v>32.0</v>
       </c>
       <c r="F115" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G115" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H115" t="s">
         <v>14</v>
@@ -4942,7 +4942,7 @@
         <v>3.0</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K115" t="s">
         <v>14</v>
@@ -4965,10 +4965,10 @@
         <v>32.0</v>
       </c>
       <c r="F116" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G116" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H116" t="s">
         <v>14</v>
@@ -4977,7 +4977,7 @@
         <v>9.0</v>
       </c>
       <c r="J116" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K116" t="s">
         <v>14</v>
@@ -5000,10 +5000,10 @@
         <v>32.0</v>
       </c>
       <c r="F117" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G117" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H117" t="s">
         <v>14</v>
@@ -5012,7 +5012,7 @@
         <v>19.0</v>
       </c>
       <c r="J117" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K117" t="s">
         <v>14</v>
@@ -5035,10 +5035,10 @@
         <v>32.0</v>
       </c>
       <c r="F118" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G118" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H118" t="s">
         <v>14</v>
@@ -5047,7 +5047,7 @@
         <v>9.0</v>
       </c>
       <c r="J118" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K118" t="s">
         <v>14</v>
@@ -5070,10 +5070,10 @@
         <v>32.0</v>
       </c>
       <c r="F119" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G119" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H119" t="s">
         <v>14</v>
@@ -5082,7 +5082,7 @@
         <v>10.0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K119" t="s">
         <v>14</v>
@@ -5105,10 +5105,10 @@
         <v>32.0</v>
       </c>
       <c r="F120" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G120" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H120" t="s">
         <v>14</v>
@@ -5117,7 +5117,7 @@
         <v>55.0</v>
       </c>
       <c r="J120" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="K120" t="s">
         <v>14</v>
@@ -5140,10 +5140,10 @@
         <v>32.0</v>
       </c>
       <c r="F121" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G121" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H121" t="s">
         <v>14</v>
@@ -5152,7 +5152,7 @@
         <v>3.0</v>
       </c>
       <c r="J121" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K121" t="s">
         <v>14</v>
@@ -5175,10 +5175,10 @@
         <v>32.0</v>
       </c>
       <c r="F122" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G122" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H122" t="s">
         <v>14</v>
@@ -5187,7 +5187,7 @@
         <v>3.0</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K122" t="s">
         <v>14</v>
@@ -5210,10 +5210,10 @@
         <v>32.0</v>
       </c>
       <c r="F123" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G123" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H123" t="s">
         <v>14</v>
@@ -5222,7 +5222,7 @@
         <v>3.0</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K123" t="s">
         <v>14</v>
@@ -5245,10 +5245,10 @@
         <v>32.0</v>
       </c>
       <c r="F124" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G124" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H124" t="s">
         <v>14</v>
@@ -5257,7 +5257,7 @@
         <v>3.0</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K124" t="s">
         <v>14</v>
@@ -5280,10 +5280,10 @@
         <v>32.0</v>
       </c>
       <c r="F125" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G125" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H125" t="s">
         <v>14</v>
@@ -5292,7 +5292,7 @@
         <v>3.0</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K125" t="s">
         <v>14</v>
@@ -5315,10 +5315,10 @@
         <v>32.0</v>
       </c>
       <c r="F126" t="n">
-        <v>603.0</v>
+        <v>579.0</v>
       </c>
       <c r="G126" t="n">
-        <v>117.0</v>
+        <v>150.0</v>
       </c>
       <c r="H126" t="s">
         <v>14</v>
@@ -5327,7 +5327,7 @@
         <v>14.0</v>
       </c>
       <c r="J126" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K126" t="s">
         <v>14</v>
@@ -5350,10 +5350,10 @@
         <v>32.0</v>
       </c>
       <c r="F127" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G127" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H127" t="s">
         <v>14</v>
@@ -5362,7 +5362,7 @@
         <v>3.0</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K127" t="s">
         <v>14</v>
@@ -5385,10 +5385,10 @@
         <v>32.0</v>
       </c>
       <c r="F128" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G128" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H128" t="s">
         <v>14</v>
@@ -5397,7 +5397,7 @@
         <v>3.0</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K128" t="s">
         <v>14</v>
@@ -5420,10 +5420,10 @@
         <v>32.0</v>
       </c>
       <c r="F129" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G129" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H129" t="s">
         <v>14</v>
@@ -5432,7 +5432,7 @@
         <v>5.0</v>
       </c>
       <c r="J129" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K129" t="s">
         <v>14</v>
@@ -5455,10 +5455,10 @@
         <v>32.0</v>
       </c>
       <c r="F130" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G130" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H130" t="s">
         <v>14</v>
@@ -5467,7 +5467,7 @@
         <v>4.0</v>
       </c>
       <c r="J130" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K130" t="s">
         <v>14</v>
@@ -5490,10 +5490,10 @@
         <v>32.0</v>
       </c>
       <c r="F131" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G131" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H131" t="s">
         <v>14</v>
@@ -5502,7 +5502,7 @@
         <v>5.0</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K131" t="s">
         <v>14</v>
@@ -5525,10 +5525,10 @@
         <v>32.0</v>
       </c>
       <c r="F132" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G132" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H132" t="s">
         <v>14</v>
@@ -5537,7 +5537,7 @@
         <v>9.0</v>
       </c>
       <c r="J132" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K132" t="s">
         <v>14</v>
@@ -5560,10 +5560,10 @@
         <v>32.0</v>
       </c>
       <c r="F133" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G133" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H133" t="s">
         <v>14</v>
@@ -5572,7 +5572,7 @@
         <v>20.0</v>
       </c>
       <c r="J133" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K133" t="s">
         <v>14</v>
@@ -5595,10 +5595,10 @@
         <v>32.0</v>
       </c>
       <c r="F134" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G134" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H134" t="s">
         <v>14</v>
@@ -5607,7 +5607,7 @@
         <v>18.0</v>
       </c>
       <c r="J134" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K134" t="s">
         <v>14</v>
@@ -5630,10 +5630,10 @@
         <v>32.0</v>
       </c>
       <c r="F135" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G135" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H135" t="s">
         <v>14</v>
@@ -5642,7 +5642,7 @@
         <v>38.0</v>
       </c>
       <c r="J135" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K135" t="s">
         <v>14</v>
@@ -5665,10 +5665,10 @@
         <v>32.0</v>
       </c>
       <c r="F136" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G136" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H136" t="s">
         <v>14</v>
@@ -5677,7 +5677,7 @@
         <v>12.0</v>
       </c>
       <c r="J136" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K136" t="s">
         <v>14</v>
@@ -5700,10 +5700,10 @@
         <v>32.0</v>
       </c>
       <c r="F137" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G137" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H137" t="s">
         <v>14</v>
@@ -5712,7 +5712,7 @@
         <v>71.0</v>
       </c>
       <c r="J137" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="K137" t="s">
         <v>14</v>
@@ -5735,10 +5735,10 @@
         <v>32.0</v>
       </c>
       <c r="F138" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G138" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H138" t="s">
         <v>14</v>
@@ -5747,7 +5747,7 @@
         <v>12.0</v>
       </c>
       <c r="J138" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K138" t="s">
         <v>14</v>
@@ -5770,10 +5770,10 @@
         <v>32.0</v>
       </c>
       <c r="F139" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G139" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H139" t="s">
         <v>14</v>
@@ -5782,7 +5782,7 @@
         <v>36.0</v>
       </c>
       <c r="J139" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K139" t="s">
         <v>14</v>
@@ -5805,10 +5805,10 @@
         <v>32.0</v>
       </c>
       <c r="F140" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G140" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H140" t="s">
         <v>14</v>
@@ -5817,7 +5817,7 @@
         <v>53.0</v>
       </c>
       <c r="J140" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K140" t="s">
         <v>14</v>
@@ -5840,10 +5840,10 @@
         <v>32.0</v>
       </c>
       <c r="F141" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G141" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H141" t="s">
         <v>14</v>
@@ -5852,7 +5852,7 @@
         <v>3.0</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K141" t="s">
         <v>14</v>
@@ -5875,10 +5875,10 @@
         <v>32.0</v>
       </c>
       <c r="F142" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G142" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H142" t="s">
         <v>14</v>
@@ -5887,7 +5887,7 @@
         <v>513.0</v>
       </c>
       <c r="J142" t="n">
-        <v>128.0</v>
+        <v>137.0</v>
       </c>
       <c r="K142" t="s">
         <v>14</v>
@@ -5910,10 +5910,10 @@
         <v>32.0</v>
       </c>
       <c r="F143" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G143" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H143" t="s">
         <v>14</v>
@@ -5922,7 +5922,7 @@
         <v>60.0</v>
       </c>
       <c r="J143" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="K143" t="s">
         <v>14</v>
@@ -5945,10 +5945,10 @@
         <v>32.0</v>
       </c>
       <c r="F144" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G144" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H144" t="s">
         <v>14</v>
@@ -5957,7 +5957,7 @@
         <v>62.0</v>
       </c>
       <c r="J144" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="K144" t="s">
         <v>14</v>
@@ -5980,10 +5980,10 @@
         <v>32.0</v>
       </c>
       <c r="F145" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G145" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H145" t="s">
         <v>14</v>
@@ -5992,7 +5992,7 @@
         <v>65.0</v>
       </c>
       <c r="J145" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K145" t="s">
         <v>14</v>
@@ -6015,10 +6015,10 @@
         <v>32.0</v>
       </c>
       <c r="F146" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G146" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H146" t="s">
         <v>14</v>
@@ -6027,7 +6027,7 @@
         <v>75.0</v>
       </c>
       <c r="J146" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="K146" t="s">
         <v>14</v>
@@ -6050,10 +6050,10 @@
         <v>32.0</v>
       </c>
       <c r="F147" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G147" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H147" t="s">
         <v>14</v>
@@ -6062,7 +6062,7 @@
         <v>18.0</v>
       </c>
       <c r="J147" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K147" t="s">
         <v>14</v>
@@ -6085,10 +6085,10 @@
         <v>32.0</v>
       </c>
       <c r="F148" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G148" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H148" t="s">
         <v>14</v>
@@ -6097,7 +6097,7 @@
         <v>23.0</v>
       </c>
       <c r="J148" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K148" t="s">
         <v>14</v>
@@ -6120,10 +6120,10 @@
         <v>32.0</v>
       </c>
       <c r="F149" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G149" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H149" t="s">
         <v>14</v>
@@ -6132,7 +6132,7 @@
         <v>79.0</v>
       </c>
       <c r="J149" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="K149" t="s">
         <v>14</v>
@@ -6155,10 +6155,10 @@
         <v>32.0</v>
       </c>
       <c r="F150" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G150" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H150" t="s">
         <v>14</v>
@@ -6167,7 +6167,7 @@
         <v>19.0</v>
       </c>
       <c r="J150" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K150" t="s">
         <v>14</v>
@@ -6190,10 +6190,10 @@
         <v>32.0</v>
       </c>
       <c r="F151" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G151" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H151" t="s">
         <v>14</v>
@@ -6202,7 +6202,7 @@
         <v>21.0</v>
       </c>
       <c r="J151" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K151" t="s">
         <v>14</v>
@@ -6225,10 +6225,10 @@
         <v>32.0</v>
       </c>
       <c r="F152" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G152" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H152" t="s">
         <v>14</v>
@@ -6237,7 +6237,7 @@
         <v>22.0</v>
       </c>
       <c r="J152" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K152" t="s">
         <v>14</v>
@@ -6260,10 +6260,10 @@
         <v>32.0</v>
       </c>
       <c r="F153" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G153" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H153" t="s">
         <v>14</v>
@@ -6272,7 +6272,7 @@
         <v>7.0</v>
       </c>
       <c r="J153" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K153" t="s">
         <v>14</v>
@@ -6295,10 +6295,10 @@
         <v>32.0</v>
       </c>
       <c r="F154" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G154" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H154" t="s">
         <v>14</v>
@@ -6307,7 +6307,7 @@
         <v>10.0</v>
       </c>
       <c r="J154" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K154" t="s">
         <v>14</v>
@@ -6330,10 +6330,10 @@
         <v>32.0</v>
       </c>
       <c r="F155" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G155" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H155" t="s">
         <v>14</v>
@@ -6342,7 +6342,7 @@
         <v>6.0</v>
       </c>
       <c r="J155" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K155" t="s">
         <v>14</v>
@@ -6365,10 +6365,10 @@
         <v>32.0</v>
       </c>
       <c r="F156" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G156" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H156" t="s">
         <v>14</v>
@@ -6377,7 +6377,7 @@
         <v>6.0</v>
       </c>
       <c r="J156" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K156" t="s">
         <v>14</v>
@@ -6400,10 +6400,10 @@
         <v>32.0</v>
       </c>
       <c r="F157" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G157" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H157" t="s">
         <v>14</v>
@@ -6412,7 +6412,7 @@
         <v>3.0</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K157" t="s">
         <v>14</v>
@@ -6435,10 +6435,10 @@
         <v>32.0</v>
       </c>
       <c r="F158" t="n">
-        <v>1396.0</v>
+        <v>1341.0</v>
       </c>
       <c r="G158" t="n">
-        <v>277.0</v>
+        <v>320.0</v>
       </c>
       <c r="H158" t="s">
         <v>14</v>
@@ -6447,7 +6447,7 @@
         <v>4.0</v>
       </c>
       <c r="J158" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K158" t="s">
         <v>14</v>
@@ -6470,10 +6470,10 @@
         <v>21.0</v>
       </c>
       <c r="F159" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G159" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H159" t="s">
         <v>14</v>
@@ -6482,7 +6482,7 @@
         <v>42.0</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K159" t="s">
         <v>14</v>
@@ -6505,10 +6505,10 @@
         <v>21.0</v>
       </c>
       <c r="F160" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G160" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H160" t="s">
         <v>14</v>
@@ -6517,7 +6517,7 @@
         <v>4.0</v>
       </c>
       <c r="J160" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K160" t="s">
         <v>14</v>
@@ -6540,10 +6540,10 @@
         <v>21.0</v>
       </c>
       <c r="F161" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G161" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H161" t="s">
         <v>14</v>
@@ -6552,7 +6552,7 @@
         <v>5.0</v>
       </c>
       <c r="J161" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K161" t="s">
         <v>14</v>
@@ -6575,10 +6575,10 @@
         <v>21.0</v>
       </c>
       <c r="F162" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G162" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H162" t="s">
         <v>14</v>
@@ -6587,7 +6587,7 @@
         <v>4.0</v>
       </c>
       <c r="J162" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K162" t="s">
         <v>14</v>
@@ -6610,10 +6610,10 @@
         <v>21.0</v>
       </c>
       <c r="F163" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G163" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H163" t="s">
         <v>14</v>
@@ -6622,7 +6622,7 @@
         <v>47.0</v>
       </c>
       <c r="J163" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="K163" t="s">
         <v>14</v>
@@ -6645,10 +6645,10 @@
         <v>21.0</v>
       </c>
       <c r="F164" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G164" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H164" t="s">
         <v>14</v>
@@ -6657,7 +6657,7 @@
         <v>3.0</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K164" t="s">
         <v>14</v>
@@ -6680,10 +6680,10 @@
         <v>21.0</v>
       </c>
       <c r="F165" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G165" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H165" t="s">
         <v>14</v>
@@ -6692,7 +6692,7 @@
         <v>3.0</v>
       </c>
       <c r="J165" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K165" t="s">
         <v>14</v>
@@ -6715,10 +6715,10 @@
         <v>21.0</v>
       </c>
       <c r="F166" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G166" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H166" t="s">
         <v>14</v>
@@ -6727,7 +6727,7 @@
         <v>3.0</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K166" t="s">
         <v>14</v>
@@ -6750,10 +6750,10 @@
         <v>21.0</v>
       </c>
       <c r="F167" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G167" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H167" t="s">
         <v>14</v>
@@ -6762,7 +6762,7 @@
         <v>10.0</v>
       </c>
       <c r="J167" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K167" t="s">
         <v>14</v>
@@ -6785,10 +6785,10 @@
         <v>21.0</v>
       </c>
       <c r="F168" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G168" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H168" t="s">
         <v>14</v>
@@ -6797,7 +6797,7 @@
         <v>11.0</v>
       </c>
       <c r="J168" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K168" t="s">
         <v>14</v>
@@ -6820,10 +6820,10 @@
         <v>21.0</v>
       </c>
       <c r="F169" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G169" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H169" t="s">
         <v>14</v>
@@ -6832,7 +6832,7 @@
         <v>10.0</v>
       </c>
       <c r="J169" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K169" t="s">
         <v>14</v>
@@ -6855,10 +6855,10 @@
         <v>21.0</v>
       </c>
       <c r="F170" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G170" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H170" t="s">
         <v>14</v>
@@ -6867,7 +6867,7 @@
         <v>11.0</v>
       </c>
       <c r="J170" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K170" t="s">
         <v>14</v>
@@ -6890,10 +6890,10 @@
         <v>21.0</v>
       </c>
       <c r="F171" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G171" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H171" t="s">
         <v>14</v>
@@ -6902,7 +6902,7 @@
         <v>14.0</v>
       </c>
       <c r="J171" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K171" t="s">
         <v>14</v>
@@ -6925,10 +6925,10 @@
         <v>21.0</v>
       </c>
       <c r="F172" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G172" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H172" t="s">
         <v>14</v>
@@ -6937,7 +6937,7 @@
         <v>15.0</v>
       </c>
       <c r="J172" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K172" t="s">
         <v>14</v>
@@ -6960,10 +6960,10 @@
         <v>21.0</v>
       </c>
       <c r="F173" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G173" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H173" t="s">
         <v>14</v>
@@ -6972,7 +6972,7 @@
         <v>108.0</v>
       </c>
       <c r="J173" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="K173" t="s">
         <v>14</v>
@@ -6995,10 +6995,10 @@
         <v>21.0</v>
       </c>
       <c r="F174" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G174" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H174" t="s">
         <v>14</v>
@@ -7007,7 +7007,7 @@
         <v>3.0</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K174" t="s">
         <v>14</v>
@@ -7030,10 +7030,10 @@
         <v>21.0</v>
       </c>
       <c r="F175" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G175" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H175" t="s">
         <v>14</v>
@@ -7042,7 +7042,7 @@
         <v>3.0</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K175" t="s">
         <v>14</v>
@@ -7065,10 +7065,10 @@
         <v>21.0</v>
       </c>
       <c r="F176" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G176" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H176" t="s">
         <v>14</v>
@@ -7077,7 +7077,7 @@
         <v>3.0</v>
       </c>
       <c r="J176" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K176" t="s">
         <v>14</v>
@@ -7100,10 +7100,10 @@
         <v>21.0</v>
       </c>
       <c r="F177" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G177" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H177" t="s">
         <v>14</v>
@@ -7112,7 +7112,7 @@
         <v>3.0</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K177" t="s">
         <v>14</v>
@@ -7135,10 +7135,10 @@
         <v>21.0</v>
       </c>
       <c r="F178" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G178" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H178" t="s">
         <v>14</v>
@@ -7147,7 +7147,7 @@
         <v>116.0</v>
       </c>
       <c r="J178" t="n">
-        <v>20.0</v>
+        <v>27.0</v>
       </c>
       <c r="K178" t="s">
         <v>14</v>
@@ -7170,10 +7170,10 @@
         <v>21.0</v>
       </c>
       <c r="F179" t="n">
-        <v>613.0</v>
+        <v>544.0</v>
       </c>
       <c r="G179" t="n">
-        <v>69.0</v>
+        <v>97.0</v>
       </c>
       <c r="H179" t="s">
         <v>14</v>
@@ -7182,7 +7182,7 @@
         <v>3.0</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K179" t="s">
         <v>14</v>
@@ -7205,10 +7205,10 @@
         <v>31.0</v>
       </c>
       <c r="F180" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G180" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H180" t="s">
         <v>14</v>
@@ -7217,7 +7217,7 @@
         <v>3.0</v>
       </c>
       <c r="J180" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K180" t="s">
         <v>14</v>
@@ -7240,10 +7240,10 @@
         <v>31.0</v>
       </c>
       <c r="F181" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G181" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H181" t="s">
         <v>14</v>
@@ -7252,7 +7252,7 @@
         <v>3.0</v>
       </c>
       <c r="J181" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K181" t="s">
         <v>14</v>
@@ -7275,10 +7275,10 @@
         <v>31.0</v>
       </c>
       <c r="F182" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G182" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H182" t="s">
         <v>14</v>
@@ -7287,7 +7287,7 @@
         <v>3.0</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K182" t="s">
         <v>14</v>
@@ -7310,10 +7310,10 @@
         <v>31.0</v>
       </c>
       <c r="F183" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G183" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H183" t="s">
         <v>14</v>
@@ -7322,7 +7322,7 @@
         <v>3.0</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K183" t="s">
         <v>14</v>
@@ -7345,10 +7345,10 @@
         <v>31.0</v>
       </c>
       <c r="F184" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G184" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H184" t="s">
         <v>14</v>
@@ -7357,7 +7357,7 @@
         <v>3.0</v>
       </c>
       <c r="J184" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K184" t="s">
         <v>14</v>
@@ -7380,10 +7380,10 @@
         <v>31.0</v>
       </c>
       <c r="F185" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G185" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H185" t="s">
         <v>14</v>
@@ -7392,7 +7392,7 @@
         <v>3.0</v>
       </c>
       <c r="J185" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K185" t="s">
         <v>14</v>
@@ -7415,10 +7415,10 @@
         <v>31.0</v>
       </c>
       <c r="F186" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G186" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H186" t="s">
         <v>14</v>
@@ -7427,7 +7427,7 @@
         <v>27.0</v>
       </c>
       <c r="J186" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K186" t="s">
         <v>14</v>
@@ -7450,10 +7450,10 @@
         <v>31.0</v>
       </c>
       <c r="F187" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G187" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H187" t="s">
         <v>14</v>
@@ -7462,7 +7462,7 @@
         <v>12.0</v>
       </c>
       <c r="J187" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K187" t="s">
         <v>14</v>
@@ -7485,10 +7485,10 @@
         <v>31.0</v>
       </c>
       <c r="F188" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G188" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H188" t="s">
         <v>14</v>
@@ -7497,7 +7497,7 @@
         <v>30.0</v>
       </c>
       <c r="J188" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K188" t="s">
         <v>14</v>
@@ -7520,10 +7520,10 @@
         <v>31.0</v>
       </c>
       <c r="F189" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G189" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H189" t="s">
         <v>14</v>
@@ -7532,7 +7532,7 @@
         <v>10.0</v>
       </c>
       <c r="J189" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K189" t="s">
         <v>14</v>
@@ -7555,10 +7555,10 @@
         <v>31.0</v>
       </c>
       <c r="F190" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G190" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H190" t="s">
         <v>14</v>
@@ -7567,7 +7567,7 @@
         <v>24.0</v>
       </c>
       <c r="J190" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K190" t="s">
         <v>14</v>
@@ -7590,10 +7590,10 @@
         <v>31.0</v>
       </c>
       <c r="F191" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G191" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H191" t="s">
         <v>14</v>
@@ -7602,7 +7602,7 @@
         <v>242.0</v>
       </c>
       <c r="J191" t="n">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
       <c r="K191" t="s">
         <v>14</v>
@@ -7625,10 +7625,10 @@
         <v>31.0</v>
       </c>
       <c r="F192" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G192" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H192" t="s">
         <v>14</v>
@@ -7637,7 +7637,7 @@
         <v>36.0</v>
       </c>
       <c r="J192" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="K192" t="s">
         <v>14</v>
@@ -7660,10 +7660,10 @@
         <v>31.0</v>
       </c>
       <c r="F193" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G193" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H193" t="s">
         <v>14</v>
@@ -7672,7 +7672,7 @@
         <v>3.0</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K193" t="s">
         <v>14</v>
@@ -7695,10 +7695,10 @@
         <v>31.0</v>
       </c>
       <c r="F194" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G194" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H194" t="s">
         <v>14</v>
@@ -7707,7 +7707,7 @@
         <v>3.0</v>
       </c>
       <c r="J194" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K194" t="s">
         <v>14</v>
@@ -7730,10 +7730,10 @@
         <v>31.0</v>
       </c>
       <c r="F195" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G195" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H195" t="s">
         <v>14</v>
@@ -7742,7 +7742,7 @@
         <v>3.0</v>
       </c>
       <c r="J195" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K195" t="s">
         <v>14</v>
@@ -7765,10 +7765,10 @@
         <v>31.0</v>
       </c>
       <c r="F196" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G196" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H196" t="s">
         <v>14</v>
@@ -7777,7 +7777,7 @@
         <v>3.0</v>
       </c>
       <c r="J196" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K196" t="s">
         <v>14</v>
@@ -7800,10 +7800,10 @@
         <v>31.0</v>
       </c>
       <c r="F197" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G197" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H197" t="s">
         <v>14</v>
@@ -7812,7 +7812,7 @@
         <v>28.0</v>
       </c>
       <c r="J197" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="K197" t="s">
         <v>14</v>
@@ -7835,10 +7835,10 @@
         <v>31.0</v>
       </c>
       <c r="F198" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G198" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H198" t="s">
         <v>14</v>
@@ -7847,7 +7847,7 @@
         <v>3.0</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K198" t="s">
         <v>14</v>
@@ -7870,10 +7870,10 @@
         <v>31.0</v>
       </c>
       <c r="F199" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G199" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H199" t="s">
         <v>14</v>
@@ -7882,7 +7882,7 @@
         <v>3.0</v>
       </c>
       <c r="J199" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K199" t="s">
         <v>14</v>
@@ -7905,10 +7905,10 @@
         <v>31.0</v>
       </c>
       <c r="F200" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G200" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H200" t="s">
         <v>14</v>
@@ -7917,7 +7917,7 @@
         <v>8.0</v>
       </c>
       <c r="J200" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K200" t="s">
         <v>14</v>
@@ -7940,10 +7940,10 @@
         <v>31.0</v>
       </c>
       <c r="F201" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G201" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H201" t="s">
         <v>14</v>
@@ -7952,7 +7952,7 @@
         <v>11.0</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K201" t="s">
         <v>14</v>
@@ -7975,10 +7975,10 @@
         <v>31.0</v>
       </c>
       <c r="F202" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G202" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H202" t="s">
         <v>14</v>
@@ -7987,7 +7987,7 @@
         <v>11.0</v>
       </c>
       <c r="J202" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K202" t="s">
         <v>14</v>
@@ -8010,10 +8010,10 @@
         <v>31.0</v>
       </c>
       <c r="F203" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G203" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H203" t="s">
         <v>14</v>
@@ -8022,7 +8022,7 @@
         <v>3.0</v>
       </c>
       <c r="J203" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K203" t="s">
         <v>14</v>
@@ -8045,10 +8045,10 @@
         <v>31.0</v>
       </c>
       <c r="F204" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G204" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H204" t="s">
         <v>14</v>
@@ -8057,7 +8057,7 @@
         <v>3.0</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K204" t="s">
         <v>14</v>
@@ -8080,10 +8080,10 @@
         <v>31.0</v>
       </c>
       <c r="F205" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G205" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H205" t="s">
         <v>14</v>
@@ -8092,7 +8092,7 @@
         <v>53.0</v>
       </c>
       <c r="J205" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K205" t="s">
         <v>14</v>
@@ -8115,10 +8115,10 @@
         <v>31.0</v>
       </c>
       <c r="F206" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G206" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H206" t="s">
         <v>14</v>
@@ -8127,7 +8127,7 @@
         <v>28.0</v>
       </c>
       <c r="J206" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K206" t="s">
         <v>14</v>
@@ -8150,10 +8150,10 @@
         <v>31.0</v>
       </c>
       <c r="F207" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G207" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H207" t="s">
         <v>14</v>
@@ -8162,7 +8162,7 @@
         <v>46.0</v>
       </c>
       <c r="J207" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K207" t="s">
         <v>14</v>
@@ -8185,10 +8185,10 @@
         <v>31.0</v>
       </c>
       <c r="F208" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G208" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H208" t="s">
         <v>14</v>
@@ -8197,7 +8197,7 @@
         <v>108.0</v>
       </c>
       <c r="J208" t="n">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="K208" t="s">
         <v>14</v>
@@ -8220,10 +8220,10 @@
         <v>31.0</v>
       </c>
       <c r="F209" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G209" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H209" t="s">
         <v>14</v>
@@ -8232,7 +8232,7 @@
         <v>16.0</v>
       </c>
       <c r="J209" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K209" t="s">
         <v>14</v>
@@ -8255,10 +8255,10 @@
         <v>31.0</v>
       </c>
       <c r="F210" t="n">
-        <v>867.0</v>
+        <v>773.0</v>
       </c>
       <c r="G210" t="n">
-        <v>180.0</v>
+        <v>218.0</v>
       </c>
       <c r="H210" t="s">
         <v>14</v>
@@ -8267,7 +8267,7 @@
         <v>4.0</v>
       </c>
       <c r="J210" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K210" t="s">
         <v>14</v>
@@ -8290,10 +8290,10 @@
         <v>2.0</v>
       </c>
       <c r="F211" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="G211" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H211" t="s">
         <v>14</v>
@@ -8302,7 +8302,7 @@
         <v>6.0</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K211" t="s">
         <v>14</v>
@@ -8325,10 +8325,10 @@
         <v>2.0</v>
       </c>
       <c r="F212" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="H212" t="s">
         <v>14</v>
@@ -8337,7 +8337,7 @@
         <v>2.0</v>
       </c>
       <c r="J212" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K212" t="s">
         <v>14</v>
@@ -8360,10 +8360,10 @@
         <v>3.0</v>
       </c>
       <c r="F213" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="G213" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H213" t="s">
         <v>14</v>
@@ -8372,7 +8372,7 @@
         <v>5.0</v>
       </c>
       <c r="J213" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K213" t="s">
         <v>14</v>
@@ -8395,10 +8395,10 @@
         <v>3.0</v>
       </c>
       <c r="F214" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="G214" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H214" t="s">
         <v>14</v>
@@ -8407,7 +8407,7 @@
         <v>10.0</v>
       </c>
       <c r="J214" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K214" t="s">
         <v>14</v>
@@ -8430,10 +8430,10 @@
         <v>3.0</v>
       </c>
       <c r="F215" t="n">
-        <v>30.0</v>
+        <v>33.0</v>
       </c>
       <c r="G215" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H215" t="s">
         <v>14</v>
@@ -8442,7 +8442,7 @@
         <v>5.0</v>
       </c>
       <c r="J215" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K215" t="s">
         <v>14</v>
@@ -8465,10 +8465,10 @@
         <v>2.0</v>
       </c>
       <c r="F216" t="n">
-        <v>52.0</v>
+        <v>43.0</v>
       </c>
       <c r="G216" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H216" t="s">
         <v>14</v>
@@ -8477,7 +8477,7 @@
         <v>3.0</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K216" t="s">
         <v>14</v>
@@ -8500,10 +8500,10 @@
         <v>2.0</v>
       </c>
       <c r="F217" t="n">
-        <v>52.0</v>
+        <v>43.0</v>
       </c>
       <c r="G217" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H217" t="s">
         <v>14</v>
@@ -8512,7 +8512,7 @@
         <v>7.0</v>
       </c>
       <c r="J217" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K217" t="s">
         <v>14</v>
@@ -8535,10 +8535,10 @@
         <v>5.0</v>
       </c>
       <c r="F218" t="n">
-        <v>185.0</v>
+        <v>169.0</v>
       </c>
       <c r="G218" t="n">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="H218" t="s">
         <v>14</v>
@@ -8547,7 +8547,7 @@
         <v>15.0</v>
       </c>
       <c r="J218" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K218" t="s">
         <v>14</v>
@@ -8570,10 +8570,10 @@
         <v>5.0</v>
       </c>
       <c r="F219" t="n">
-        <v>185.0</v>
+        <v>169.0</v>
       </c>
       <c r="G219" t="n">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="H219" t="s">
         <v>14</v>
@@ -8582,7 +8582,7 @@
         <v>102.0</v>
       </c>
       <c r="J219" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="K219" t="s">
         <v>14</v>
@@ -8605,10 +8605,10 @@
         <v>5.0</v>
       </c>
       <c r="F220" t="n">
-        <v>185.0</v>
+        <v>169.0</v>
       </c>
       <c r="G220" t="n">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="H220" t="s">
         <v>14</v>
@@ -8617,7 +8617,7 @@
         <v>34.0</v>
       </c>
       <c r="J220" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K220" t="s">
         <v>14</v>
@@ -8640,10 +8640,10 @@
         <v>5.0</v>
       </c>
       <c r="F221" t="n">
-        <v>185.0</v>
+        <v>169.0</v>
       </c>
       <c r="G221" t="n">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="H221" t="s">
         <v>14</v>
@@ -8652,7 +8652,7 @@
         <v>3.0</v>
       </c>
       <c r="J221" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K221" t="s">
         <v>14</v>
@@ -8675,10 +8675,10 @@
         <v>5.0</v>
       </c>
       <c r="F222" t="n">
-        <v>185.0</v>
+        <v>169.0</v>
       </c>
       <c r="G222" t="n">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="H222" t="s">
         <v>14</v>
@@ -8687,7 +8687,7 @@
         <v>6.0</v>
       </c>
       <c r="J222" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K222" t="s">
         <v>14</v>
@@ -8710,10 +8710,10 @@
         <v>24.0</v>
       </c>
       <c r="F223" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G223" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H223" t="s">
         <v>14</v>
@@ -8722,7 +8722,7 @@
         <v>15.0</v>
       </c>
       <c r="J223" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="K223" t="s">
         <v>14</v>
@@ -8745,10 +8745,10 @@
         <v>24.0</v>
       </c>
       <c r="F224" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G224" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H224" t="s">
         <v>14</v>
@@ -8757,7 +8757,7 @@
         <v>19.0</v>
       </c>
       <c r="J224" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K224" t="s">
         <v>14</v>
@@ -8780,10 +8780,10 @@
         <v>24.0</v>
       </c>
       <c r="F225" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G225" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H225" t="s">
         <v>14</v>
@@ -8792,7 +8792,7 @@
         <v>18.0</v>
       </c>
       <c r="J225" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K225" t="s">
         <v>14</v>
@@ -8815,10 +8815,10 @@
         <v>24.0</v>
       </c>
       <c r="F226" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G226" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H226" t="s">
         <v>14</v>
@@ -8827,7 +8827,7 @@
         <v>22.0</v>
       </c>
       <c r="J226" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K226" t="s">
         <v>14</v>
@@ -8850,10 +8850,10 @@
         <v>24.0</v>
       </c>
       <c r="F227" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G227" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H227" t="s">
         <v>14</v>
@@ -8862,7 +8862,7 @@
         <v>22.0</v>
       </c>
       <c r="J227" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="K227" t="s">
         <v>14</v>
@@ -8885,10 +8885,10 @@
         <v>24.0</v>
       </c>
       <c r="F228" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G228" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H228" t="s">
         <v>14</v>
@@ -8897,7 +8897,7 @@
         <v>18.0</v>
       </c>
       <c r="J228" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="K228" t="s">
         <v>14</v>
@@ -8920,10 +8920,10 @@
         <v>24.0</v>
       </c>
       <c r="F229" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G229" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H229" t="s">
         <v>14</v>
@@ -8932,7 +8932,7 @@
         <v>7.0</v>
       </c>
       <c r="J229" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K229" t="s">
         <v>14</v>
@@ -8955,10 +8955,10 @@
         <v>24.0</v>
       </c>
       <c r="F230" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G230" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H230" t="s">
         <v>14</v>
@@ -8967,7 +8967,7 @@
         <v>63.0</v>
       </c>
       <c r="J230" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="K230" t="s">
         <v>14</v>
@@ -8990,10 +8990,10 @@
         <v>24.0</v>
       </c>
       <c r="F231" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G231" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H231" t="s">
         <v>14</v>
@@ -9002,7 +9002,7 @@
         <v>37.0</v>
       </c>
       <c r="J231" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="K231" t="s">
         <v>14</v>
@@ -9025,10 +9025,10 @@
         <v>24.0</v>
       </c>
       <c r="F232" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G232" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H232" t="s">
         <v>14</v>
@@ -9037,7 +9037,7 @@
         <v>38.0</v>
       </c>
       <c r="J232" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="K232" t="s">
         <v>14</v>
@@ -9060,10 +9060,10 @@
         <v>24.0</v>
       </c>
       <c r="F233" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G233" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H233" t="s">
         <v>14</v>
@@ -9072,7 +9072,7 @@
         <v>25.0</v>
       </c>
       <c r="J233" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="K233" t="s">
         <v>14</v>
@@ -9095,10 +9095,10 @@
         <v>24.0</v>
       </c>
       <c r="F234" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G234" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H234" t="s">
         <v>14</v>
@@ -9107,7 +9107,7 @@
         <v>11.0</v>
       </c>
       <c r="J234" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K234" t="s">
         <v>14</v>
@@ -9130,10 +9130,10 @@
         <v>24.0</v>
       </c>
       <c r="F235" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G235" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H235" t="s">
         <v>14</v>
@@ -9142,7 +9142,7 @@
         <v>8.0</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K235" t="s">
         <v>14</v>
@@ -9165,10 +9165,10 @@
         <v>24.0</v>
       </c>
       <c r="F236" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G236" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H236" t="s">
         <v>14</v>
@@ -9177,7 +9177,7 @@
         <v>10.0</v>
       </c>
       <c r="J236" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K236" t="s">
         <v>14</v>
@@ -9200,10 +9200,10 @@
         <v>24.0</v>
       </c>
       <c r="F237" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G237" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H237" t="s">
         <v>14</v>
@@ -9212,7 +9212,7 @@
         <v>23.0</v>
       </c>
       <c r="J237" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K237" t="s">
         <v>14</v>
@@ -9235,10 +9235,10 @@
         <v>24.0</v>
       </c>
       <c r="F238" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G238" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H238" t="s">
         <v>14</v>
@@ -9247,7 +9247,7 @@
         <v>17.0</v>
       </c>
       <c r="J238" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K238" t="s">
         <v>14</v>
@@ -9270,10 +9270,10 @@
         <v>24.0</v>
       </c>
       <c r="F239" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G239" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H239" t="s">
         <v>14</v>
@@ -9282,7 +9282,7 @@
         <v>10.0</v>
       </c>
       <c r="J239" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K239" t="s">
         <v>14</v>
@@ -9305,10 +9305,10 @@
         <v>24.0</v>
       </c>
       <c r="F240" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G240" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H240" t="s">
         <v>14</v>
@@ -9317,7 +9317,7 @@
         <v>137.0</v>
       </c>
       <c r="J240" t="n">
-        <v>101.0</v>
+        <v>103.0</v>
       </c>
       <c r="K240" t="s">
         <v>14</v>
@@ -9340,10 +9340,10 @@
         <v>24.0</v>
       </c>
       <c r="F241" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G241" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H241" t="s">
         <v>14</v>
@@ -9352,7 +9352,7 @@
         <v>3.0</v>
       </c>
       <c r="J241" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K241" t="s">
         <v>14</v>
@@ -9375,10 +9375,10 @@
         <v>24.0</v>
       </c>
       <c r="F242" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G242" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H242" t="s">
         <v>14</v>
@@ -9387,7 +9387,7 @@
         <v>57.0</v>
       </c>
       <c r="J242" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K242" t="s">
         <v>14</v>
@@ -9410,10 +9410,10 @@
         <v>24.0</v>
       </c>
       <c r="F243" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G243" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H243" t="s">
         <v>14</v>
@@ -9422,7 +9422,7 @@
         <v>11.0</v>
       </c>
       <c r="J243" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K243" t="s">
         <v>14</v>
@@ -9445,10 +9445,10 @@
         <v>24.0</v>
       </c>
       <c r="F244" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G244" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H244" t="s">
         <v>14</v>
@@ -9457,7 +9457,7 @@
         <v>10.0</v>
       </c>
       <c r="J244" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K244" t="s">
         <v>14</v>
@@ -9480,10 +9480,10 @@
         <v>24.0</v>
       </c>
       <c r="F245" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G245" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H245" t="s">
         <v>14</v>
@@ -9492,7 +9492,7 @@
         <v>10.0</v>
       </c>
       <c r="J245" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K245" t="s">
         <v>14</v>
@@ -9515,10 +9515,10 @@
         <v>24.0</v>
       </c>
       <c r="F246" t="n">
-        <v>680.0</v>
+        <v>658.0</v>
       </c>
       <c r="G246" t="n">
-        <v>225.0</v>
+        <v>252.0</v>
       </c>
       <c r="H246" t="s">
         <v>14</v>
@@ -9527,7 +9527,7 @@
         <v>15.0</v>
       </c>
       <c r="J246" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="K246" t="s">
         <v>14</v>

--- a/CodeQualityAssessor/jasml_0.10.xlsx
+++ b/CodeQualityAssessor/jasml_0.10.xlsx
@@ -62,7 +62,7 @@
     <t>Attribute(int attribute_name_index, int attribute_length, byte[] attrInfo)</t>
   </si>
   <si>
-    <t>ExceptionTableItem</t>
+    <t>Attribute_Code</t>
   </si>
   <si>
     <t>Attribute_Code()</t>
@@ -98,7 +98,7 @@
     <t>Attribute_Exceptions(int attrLength, int number_of_exceptions, int[] exception_index_table)</t>
   </si>
   <si>
-    <t>InnerClass</t>
+    <t>Attribute_InnerClasses</t>
   </si>
   <si>
     <t>Attribute_InnerClasses(int attrLength, int number_of_classes, InnerClass[] innerClasses)</t>
@@ -107,7 +107,7 @@
     <t>InnerClass(int inner_class_info_index, int outer_class_info_index, int inner_name_index, int inner_class_access_flags)</t>
   </si>
   <si>
-    <t>LineNumber</t>
+    <t>Attribute_LineNumberTable</t>
   </si>
   <si>
     <t>Attribute_LineNumberTable(int attrLength, int line_number_table_length, LineNumber[] lineNumberTable)</t>
@@ -116,7 +116,7 @@
     <t>LineNumber(int start_pc, int line_number)</t>
   </si>
   <si>
-    <t>LocalVariable</t>
+    <t>Attribute_LocalVariableTable</t>
   </si>
   <si>
     <t>Attribute_LocalVariableTable(int attrLength, int local_variable_table_length, LocalVariable[] local_variable_table)</t>
@@ -488,7 +488,7 @@
     <t>main(String[] s) throws Exception</t>
   </si>
   <si>
-    <t>OpcodeWrapper</t>
+    <t>SourceCodeParser</t>
   </si>
   <si>
     <t>SourceCodeParser(File file) throws ParsingException</t>
@@ -980,8 +980,8 @@
       <c r="G2" t="n">
         <v>4.0</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
+      <c r="H2" t="b">
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>8.0</v>
@@ -989,8 +989,8 @@
       <c r="J2" t="n">
         <v>2.0</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1015,8 +1015,8 @@
       <c r="G3" t="n">
         <v>4.0</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
+      <c r="H3" t="b">
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>8.0</v>
@@ -1024,8 +1024,8 @@
       <c r="J3" t="n">
         <v>2.0</v>
       </c>
-      <c r="K3" t="s">
-        <v>14</v>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1050,8 +1050,8 @@
       <c r="G4" t="n">
         <v>5.0</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
+      <c r="H4" t="b">
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>3.0</v>
@@ -1059,8 +1059,8 @@
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
-      <c r="K4" t="s">
-        <v>14</v>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1085,8 +1085,8 @@
       <c r="G5" t="n">
         <v>5.0</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
+      <c r="H5" t="b">
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>11.0</v>
@@ -1094,8 +1094,8 @@
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
-      <c r="K5" t="s">
-        <v>14</v>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1120,8 +1120,8 @@
       <c r="G6" t="n">
         <v>5.0</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
+      <c r="H6" t="b">
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>6.0</v>
@@ -1129,8 +1129,8 @@
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
-      <c r="K6" t="s">
-        <v>14</v>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1155,8 +1155,8 @@
       <c r="G7" t="n">
         <v>5.0</v>
       </c>
-      <c r="H7" t="s">
-        <v>14</v>
+      <c r="H7" t="b">
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>10.0</v>
@@ -1164,8 +1164,8 @@
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
-      <c r="K7" t="s">
-        <v>14</v>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1190,8 +1190,8 @@
       <c r="G8" t="n">
         <v>5.0</v>
       </c>
-      <c r="H8" t="s">
-        <v>14</v>
+      <c r="H8" t="b">
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>2.0</v>
@@ -1199,8 +1199,8 @@
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
-      <c r="K8" t="s">
-        <v>14</v>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1225,8 +1225,8 @@
       <c r="G9" t="n">
         <v>1.0</v>
       </c>
-      <c r="H9" t="s">
-        <v>14</v>
+      <c r="H9" t="b">
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>4.0</v>
@@ -1234,8 +1234,8 @@
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
-      <c r="K9" t="s">
-        <v>14</v>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1260,8 +1260,8 @@
       <c r="G10" t="n">
         <v>1.0</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
+      <c r="H10" t="b">
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>3.0</v>
@@ -1269,8 +1269,8 @@
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
-      <c r="K10" t="s">
-        <v>14</v>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1295,8 +1295,8 @@
       <c r="G11" t="n">
         <v>1.0</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
+      <c r="H11" t="b">
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>5.0</v>
@@ -1304,8 +1304,8 @@
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
-      <c r="K11" t="s">
-        <v>14</v>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1330,8 +1330,8 @@
       <c r="G12" t="n">
         <v>2.0</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
+      <c r="H12" t="b">
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>5.0</v>
@@ -1339,8 +1339,8 @@
       <c r="J12" t="n">
         <v>1.0</v>
       </c>
-      <c r="K12" t="s">
-        <v>14</v>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1365,8 +1365,8 @@
       <c r="G13" t="n">
         <v>2.0</v>
       </c>
-      <c r="H13" t="s">
-        <v>14</v>
+      <c r="H13" t="b">
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>6.0</v>
@@ -1374,8 +1374,8 @@
       <c r="J13" t="n">
         <v>1.0</v>
       </c>
-      <c r="K13" t="s">
-        <v>14</v>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1400,8 +1400,8 @@
       <c r="G14" t="n">
         <v>2.0</v>
       </c>
-      <c r="H14" t="s">
-        <v>14</v>
+      <c r="H14" t="b">
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>5.0</v>
@@ -1409,8 +1409,8 @@
       <c r="J14" t="n">
         <v>1.0</v>
       </c>
-      <c r="K14" t="s">
-        <v>14</v>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1435,8 +1435,8 @@
       <c r="G15" t="n">
         <v>2.0</v>
       </c>
-      <c r="H15" t="s">
-        <v>14</v>
+      <c r="H15" t="b">
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>4.0</v>
@@ -1444,8 +1444,8 @@
       <c r="J15" t="n">
         <v>1.0</v>
       </c>
-      <c r="K15" t="s">
-        <v>14</v>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1470,8 +1470,8 @@
       <c r="G16" t="n">
         <v>2.0</v>
       </c>
-      <c r="H16" t="s">
-        <v>14</v>
+      <c r="H16" t="b">
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>5.0</v>
@@ -1479,8 +1479,8 @@
       <c r="J16" t="n">
         <v>1.0</v>
       </c>
-      <c r="K16" t="s">
-        <v>14</v>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1505,8 +1505,8 @@
       <c r="G17" t="n">
         <v>2.0</v>
       </c>
-      <c r="H17" t="s">
-        <v>14</v>
+      <c r="H17" t="b">
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>7.0</v>
@@ -1514,8 +1514,8 @@
       <c r="J17" t="n">
         <v>1.0</v>
       </c>
-      <c r="K17" t="s">
-        <v>14</v>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1540,8 +1540,8 @@
       <c r="G18" t="n">
         <v>1.0</v>
       </c>
-      <c r="H18" t="s">
-        <v>14</v>
+      <c r="H18" t="b">
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>4.0</v>
@@ -1549,8 +1549,8 @@
       <c r="J18" t="n">
         <v>1.0</v>
       </c>
-      <c r="K18" t="s">
-        <v>14</v>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1575,8 +1575,8 @@
       <c r="G19" t="n">
         <v>1.0</v>
       </c>
-      <c r="H19" t="s">
-        <v>14</v>
+      <c r="H19" t="b">
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>3.0</v>
@@ -1584,8 +1584,8 @@
       <c r="J19" t="n">
         <v>1.0</v>
       </c>
-      <c r="K19" t="s">
-        <v>14</v>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1610,8 +1610,8 @@
       <c r="G20" t="n">
         <v>7.0</v>
       </c>
-      <c r="H20" t="s">
-        <v>14</v>
+      <c r="H20" t="b">
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>3.0</v>
@@ -1619,8 +1619,8 @@
       <c r="J20" t="n">
         <v>1.0</v>
       </c>
-      <c r="K20" t="s">
-        <v>14</v>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1645,8 +1645,8 @@
       <c r="G21" t="n">
         <v>7.0</v>
       </c>
-      <c r="H21" t="s">
-        <v>14</v>
+      <c r="H21" t="b">
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>3.0</v>
@@ -1654,8 +1654,8 @@
       <c r="J21" t="n">
         <v>1.0</v>
       </c>
-      <c r="K21" t="s">
-        <v>14</v>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1680,8 +1680,8 @@
       <c r="G22" t="n">
         <v>7.0</v>
       </c>
-      <c r="H22" t="s">
-        <v>14</v>
+      <c r="H22" t="b">
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>3.0</v>
@@ -1689,8 +1689,8 @@
       <c r="J22" t="n">
         <v>1.0</v>
       </c>
-      <c r="K22" t="s">
-        <v>14</v>
+      <c r="K22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1715,8 +1715,8 @@
       <c r="G23" t="n">
         <v>7.0</v>
       </c>
-      <c r="H23" t="s">
-        <v>14</v>
+      <c r="H23" t="b">
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>16.0</v>
@@ -1724,8 +1724,8 @@
       <c r="J23" t="n">
         <v>4.0</v>
       </c>
-      <c r="K23" t="s">
-        <v>14</v>
+      <c r="K23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1750,8 +1750,8 @@
       <c r="G24" t="n">
         <v>1.0</v>
       </c>
-      <c r="H24" t="s">
-        <v>14</v>
+      <c r="H24" t="b">
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>4.0</v>
@@ -1759,8 +1759,8 @@
       <c r="J24" t="n">
         <v>1.0</v>
       </c>
-      <c r="K24" t="s">
-        <v>14</v>
+      <c r="K24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1785,8 +1785,8 @@
       <c r="G25" t="n">
         <v>2.0</v>
       </c>
-      <c r="H25" t="s">
-        <v>14</v>
+      <c r="H25" t="b">
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>4.0</v>
@@ -1794,8 +1794,8 @@
       <c r="J25" t="n">
         <v>1.0</v>
       </c>
-      <c r="K25" t="s">
-        <v>14</v>
+      <c r="K25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1820,8 +1820,8 @@
       <c r="G26" t="n">
         <v>2.0</v>
       </c>
-      <c r="H26" t="s">
-        <v>14</v>
+      <c r="H26" t="b">
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>3.0</v>
@@ -1829,8 +1829,8 @@
       <c r="J26" t="n">
         <v>1.0</v>
       </c>
-      <c r="K26" t="s">
-        <v>14</v>
+      <c r="K26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1855,8 +1855,8 @@
       <c r="G27" t="n">
         <v>2.0</v>
       </c>
-      <c r="H27" t="s">
-        <v>14</v>
+      <c r="H27" t="b">
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>4.0</v>
@@ -1864,8 +1864,8 @@
       <c r="J27" t="n">
         <v>1.0</v>
       </c>
-      <c r="K27" t="s">
-        <v>14</v>
+      <c r="K27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1890,8 +1890,8 @@
       <c r="G28" t="n">
         <v>2.0</v>
       </c>
-      <c r="H28" t="s">
-        <v>14</v>
+      <c r="H28" t="b">
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>3.0</v>
@@ -1899,8 +1899,8 @@
       <c r="J28" t="n">
         <v>1.0</v>
       </c>
-      <c r="K28" t="s">
-        <v>14</v>
+      <c r="K28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1925,8 +1925,8 @@
       <c r="G29" t="n">
         <v>2.0</v>
       </c>
-      <c r="H29" t="s">
-        <v>14</v>
+      <c r="H29" t="b">
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>5.0</v>
@@ -1934,8 +1934,8 @@
       <c r="J29" t="n">
         <v>1.0</v>
       </c>
-      <c r="K29" t="s">
-        <v>14</v>
+      <c r="K29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1960,8 +1960,8 @@
       <c r="G30" t="n">
         <v>2.0</v>
       </c>
-      <c r="H30" t="s">
-        <v>14</v>
+      <c r="H30" t="b">
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>3.0</v>
@@ -1969,8 +1969,8 @@
       <c r="J30" t="n">
         <v>1.0</v>
       </c>
-      <c r="K30" t="s">
-        <v>14</v>
+      <c r="K30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1995,8 +1995,8 @@
       <c r="G31" t="n">
         <v>2.0</v>
       </c>
-      <c r="H31" t="s">
-        <v>14</v>
+      <c r="H31" t="b">
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>4.0</v>
@@ -2004,8 +2004,8 @@
       <c r="J31" t="n">
         <v>1.0</v>
       </c>
-      <c r="K31" t="s">
-        <v>14</v>
+      <c r="K31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2030,8 +2030,8 @@
       <c r="G32" t="n">
         <v>2.0</v>
       </c>
-      <c r="H32" t="s">
-        <v>14</v>
+      <c r="H32" t="b">
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>3.0</v>
@@ -2039,8 +2039,8 @@
       <c r="J32" t="n">
         <v>1.0</v>
       </c>
-      <c r="K32" t="s">
-        <v>14</v>
+      <c r="K32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2065,8 +2065,8 @@
       <c r="G33" t="n">
         <v>2.0</v>
       </c>
-      <c r="H33" t="s">
-        <v>14</v>
+      <c r="H33" t="b">
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>4.0</v>
@@ -2074,8 +2074,8 @@
       <c r="J33" t="n">
         <v>1.0</v>
       </c>
-      <c r="K33" t="s">
-        <v>14</v>
+      <c r="K33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2100,8 +2100,8 @@
       <c r="G34" t="n">
         <v>2.0</v>
       </c>
-      <c r="H34" t="s">
-        <v>14</v>
+      <c r="H34" t="b">
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>3.0</v>
@@ -2109,8 +2109,8 @@
       <c r="J34" t="n">
         <v>1.0</v>
       </c>
-      <c r="K34" t="s">
-        <v>14</v>
+      <c r="K34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2135,8 +2135,8 @@
       <c r="G35" t="n">
         <v>2.0</v>
       </c>
-      <c r="H35" t="s">
-        <v>14</v>
+      <c r="H35" t="b">
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>5.0</v>
@@ -2144,8 +2144,8 @@
       <c r="J35" t="n">
         <v>1.0</v>
       </c>
-      <c r="K35" t="s">
-        <v>14</v>
+      <c r="K35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2170,8 +2170,8 @@
       <c r="G36" t="n">
         <v>2.0</v>
       </c>
-      <c r="H36" t="s">
-        <v>14</v>
+      <c r="H36" t="b">
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>3.0</v>
@@ -2179,8 +2179,8 @@
       <c r="J36" t="n">
         <v>1.0</v>
       </c>
-      <c r="K36" t="s">
-        <v>14</v>
+      <c r="K36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2205,8 +2205,8 @@
       <c r="G37" t="n">
         <v>3.0</v>
       </c>
-      <c r="H37" t="s">
-        <v>14</v>
+      <c r="H37" t="b">
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>4.0</v>
@@ -2214,8 +2214,8 @@
       <c r="J37" t="n">
         <v>1.0</v>
       </c>
-      <c r="K37" t="s">
-        <v>14</v>
+      <c r="K37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2240,8 +2240,8 @@
       <c r="G38" t="n">
         <v>3.0</v>
       </c>
-      <c r="H38" t="s">
-        <v>14</v>
+      <c r="H38" t="b">
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>3.0</v>
@@ -2249,8 +2249,8 @@
       <c r="J38" t="n">
         <v>1.0</v>
       </c>
-      <c r="K38" t="s">
-        <v>14</v>
+      <c r="K38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2275,8 +2275,8 @@
       <c r="G39" t="n">
         <v>3.0</v>
       </c>
-      <c r="H39" t="s">
-        <v>14</v>
+      <c r="H39" t="b">
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>3.0</v>
@@ -2284,8 +2284,8 @@
       <c r="J39" t="n">
         <v>1.0</v>
       </c>
-      <c r="K39" t="s">
-        <v>14</v>
+      <c r="K39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2310,8 +2310,8 @@
       <c r="G40" t="n">
         <v>2.0</v>
       </c>
-      <c r="H40" t="s">
-        <v>14</v>
+      <c r="H40" t="b">
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>5.0</v>
@@ -2319,8 +2319,8 @@
       <c r="J40" t="n">
         <v>1.0</v>
       </c>
-      <c r="K40" t="s">
-        <v>14</v>
+      <c r="K40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2345,8 +2345,8 @@
       <c r="G41" t="n">
         <v>2.0</v>
       </c>
-      <c r="H41" t="s">
-        <v>14</v>
+      <c r="H41" t="b">
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>3.0</v>
@@ -2354,8 +2354,8 @@
       <c r="J41" t="n">
         <v>1.0</v>
       </c>
-      <c r="K41" t="s">
-        <v>14</v>
+      <c r="K41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2380,8 +2380,8 @@
       <c r="G42" t="n">
         <v>2.0</v>
       </c>
-      <c r="H42" t="s">
-        <v>14</v>
+      <c r="H42" t="b">
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>5.0</v>
@@ -2389,8 +2389,8 @@
       <c r="J42" t="n">
         <v>1.0</v>
       </c>
-      <c r="K42" t="s">
-        <v>14</v>
+      <c r="K42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2415,8 +2415,8 @@
       <c r="G43" t="n">
         <v>2.0</v>
       </c>
-      <c r="H43" t="s">
-        <v>14</v>
+      <c r="H43" t="b">
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>3.0</v>
@@ -2424,8 +2424,8 @@
       <c r="J43" t="n">
         <v>1.0</v>
       </c>
-      <c r="K43" t="s">
-        <v>14</v>
+      <c r="K43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2450,8 +2450,8 @@
       <c r="G44" t="n">
         <v>2.0</v>
       </c>
-      <c r="H44" t="s">
-        <v>14</v>
+      <c r="H44" t="b">
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>4.0</v>
@@ -2459,8 +2459,8 @@
       <c r="J44" t="n">
         <v>1.0</v>
       </c>
-      <c r="K44" t="s">
-        <v>14</v>
+      <c r="K44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2485,8 +2485,8 @@
       <c r="G45" t="n">
         <v>2.0</v>
       </c>
-      <c r="H45" t="s">
-        <v>14</v>
+      <c r="H45" t="b">
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>3.0</v>
@@ -2494,8 +2494,8 @@
       <c r="J45" t="n">
         <v>1.0</v>
       </c>
-      <c r="K45" t="s">
-        <v>14</v>
+      <c r="K45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2520,8 +2520,8 @@
       <c r="G46" t="n">
         <v>2.0</v>
       </c>
-      <c r="H46" t="s">
-        <v>14</v>
+      <c r="H46" t="b">
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>4.0</v>
@@ -2529,8 +2529,8 @@
       <c r="J46" t="n">
         <v>1.0</v>
       </c>
-      <c r="K46" t="s">
-        <v>14</v>
+      <c r="K46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2555,8 +2555,8 @@
       <c r="G47" t="n">
         <v>2.0</v>
       </c>
-      <c r="H47" t="s">
-        <v>14</v>
+      <c r="H47" t="b">
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>3.0</v>
@@ -2564,8 +2564,8 @@
       <c r="J47" t="n">
         <v>1.0</v>
       </c>
-      <c r="K47" t="s">
-        <v>14</v>
+      <c r="K47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2590,8 +2590,8 @@
       <c r="G48" t="n">
         <v>1.0</v>
       </c>
-      <c r="H48" t="s">
-        <v>14</v>
+      <c r="H48" t="b">
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>7.0</v>
@@ -2599,8 +2599,8 @@
       <c r="J48" t="n">
         <v>1.0</v>
       </c>
-      <c r="K48" t="s">
-        <v>14</v>
+      <c r="K48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2625,8 +2625,8 @@
       <c r="G49" t="n">
         <v>1.0</v>
       </c>
-      <c r="H49" t="s">
-        <v>14</v>
+      <c r="H49" t="b">
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>7.0</v>
@@ -2634,8 +2634,8 @@
       <c r="J49" t="n">
         <v>1.0</v>
       </c>
-      <c r="K49" t="s">
-        <v>14</v>
+      <c r="K49" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2660,8 +2660,8 @@
       <c r="G50" t="n">
         <v>58.0</v>
       </c>
-      <c r="H50" t="s">
-        <v>14</v>
+      <c r="H50" t="b">
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>4.0</v>
@@ -2669,8 +2669,8 @@
       <c r="J50" t="n">
         <v>1.0</v>
       </c>
-      <c r="K50" t="s">
-        <v>14</v>
+      <c r="K50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2695,8 +2695,8 @@
       <c r="G51" t="n">
         <v>58.0</v>
       </c>
-      <c r="H51" t="s">
-        <v>14</v>
+      <c r="H51" t="b">
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>6.0</v>
@@ -2704,8 +2704,8 @@
       <c r="J51" t="n">
         <v>1.0</v>
       </c>
-      <c r="K51" t="s">
-        <v>14</v>
+      <c r="K51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2730,8 +2730,8 @@
       <c r="G52" t="n">
         <v>58.0</v>
       </c>
-      <c r="H52" t="s">
-        <v>14</v>
+      <c r="H52" t="b">
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>23.0</v>
@@ -2739,8 +2739,8 @@
       <c r="J52" t="n">
         <v>2.0</v>
       </c>
-      <c r="K52" t="s">
-        <v>14</v>
+      <c r="K52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2765,8 +2765,8 @@
       <c r="G53" t="n">
         <v>58.0</v>
       </c>
-      <c r="H53" t="s">
-        <v>14</v>
+      <c r="H53" t="b">
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>10.0</v>
@@ -2774,8 +2774,8 @@
       <c r="J53" t="n">
         <v>2.0</v>
       </c>
-      <c r="K53" t="s">
-        <v>14</v>
+      <c r="K53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2800,8 +2800,8 @@
       <c r="G54" t="n">
         <v>58.0</v>
       </c>
-      <c r="H54" t="s">
-        <v>14</v>
+      <c r="H54" t="b">
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>14.0</v>
@@ -2809,8 +2809,8 @@
       <c r="J54" t="n">
         <v>3.0</v>
       </c>
-      <c r="K54" t="s">
-        <v>14</v>
+      <c r="K54" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2835,8 +2835,8 @@
       <c r="G55" t="n">
         <v>58.0</v>
       </c>
-      <c r="H55" t="s">
-        <v>14</v>
+      <c r="H55" t="b">
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>10.0</v>
@@ -2844,8 +2844,8 @@
       <c r="J55" t="n">
         <v>2.0</v>
       </c>
-      <c r="K55" t="s">
-        <v>14</v>
+      <c r="K55" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2870,8 +2870,8 @@
       <c r="G56" t="n">
         <v>58.0</v>
       </c>
-      <c r="H56" t="s">
-        <v>14</v>
+      <c r="H56" t="b">
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>10.0</v>
@@ -2879,8 +2879,8 @@
       <c r="J56" t="n">
         <v>2.0</v>
       </c>
-      <c r="K56" t="s">
-        <v>14</v>
+      <c r="K56" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2905,8 +2905,8 @@
       <c r="G57" t="n">
         <v>58.0</v>
       </c>
-      <c r="H57" t="s">
-        <v>14</v>
+      <c r="H57" t="b">
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>14.0</v>
@@ -2914,8 +2914,8 @@
       <c r="J57" t="n">
         <v>3.0</v>
       </c>
-      <c r="K57" t="s">
-        <v>14</v>
+      <c r="K57" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2940,8 +2940,8 @@
       <c r="G58" t="n">
         <v>58.0</v>
       </c>
-      <c r="H58" t="s">
-        <v>14</v>
+      <c r="H58" t="b">
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>10.0</v>
@@ -2949,8 +2949,8 @@
       <c r="J58" t="n">
         <v>2.0</v>
       </c>
-      <c r="K58" t="s">
-        <v>14</v>
+      <c r="K58" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2975,8 +2975,8 @@
       <c r="G59" t="n">
         <v>58.0</v>
       </c>
-      <c r="H59" t="s">
-        <v>14</v>
+      <c r="H59" t="b">
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>14.0</v>
@@ -2984,8 +2984,8 @@
       <c r="J59" t="n">
         <v>3.0</v>
       </c>
-      <c r="K59" t="s">
-        <v>14</v>
+      <c r="K59" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3010,8 +3010,8 @@
       <c r="G60" t="n">
         <v>58.0</v>
       </c>
-      <c r="H60" t="s">
-        <v>14</v>
+      <c r="H60" t="b">
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>13.0</v>
@@ -3019,8 +3019,8 @@
       <c r="J60" t="n">
         <v>5.0</v>
       </c>
-      <c r="K60" t="s">
-        <v>14</v>
+      <c r="K60" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3045,8 +3045,8 @@
       <c r="G61" t="n">
         <v>58.0</v>
       </c>
-      <c r="H61" t="s">
-        <v>14</v>
+      <c r="H61" t="b">
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>15.0</v>
@@ -3054,8 +3054,8 @@
       <c r="J61" t="n">
         <v>2.0</v>
       </c>
-      <c r="K61" t="s">
-        <v>14</v>
+      <c r="K61" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3080,8 +3080,8 @@
       <c r="G62" t="n">
         <v>58.0</v>
       </c>
-      <c r="H62" t="s">
-        <v>14</v>
+      <c r="H62" t="b">
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>18.0</v>
@@ -3089,8 +3089,8 @@
       <c r="J62" t="n">
         <v>2.0</v>
       </c>
-      <c r="K62" t="s">
-        <v>14</v>
+      <c r="K62" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3115,8 +3115,8 @@
       <c r="G63" t="n">
         <v>58.0</v>
       </c>
-      <c r="H63" t="s">
-        <v>14</v>
+      <c r="H63" t="b">
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>12.0</v>
@@ -3124,8 +3124,8 @@
       <c r="J63" t="n">
         <v>2.0</v>
       </c>
-      <c r="K63" t="s">
-        <v>14</v>
+      <c r="K63" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3150,8 +3150,8 @@
       <c r="G64" t="n">
         <v>58.0</v>
       </c>
-      <c r="H64" t="s">
-        <v>14</v>
+      <c r="H64" t="b">
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>7.0</v>
@@ -3159,8 +3159,8 @@
       <c r="J64" t="n">
         <v>2.0</v>
       </c>
-      <c r="K64" t="s">
-        <v>14</v>
+      <c r="K64" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3185,8 +3185,8 @@
       <c r="G65" t="n">
         <v>58.0</v>
       </c>
-      <c r="H65" t="s">
-        <v>14</v>
+      <c r="H65" t="b">
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>10.0</v>
@@ -3194,8 +3194,8 @@
       <c r="J65" t="n">
         <v>2.0</v>
       </c>
-      <c r="K65" t="s">
-        <v>14</v>
+      <c r="K65" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3220,8 +3220,8 @@
       <c r="G66" t="n">
         <v>58.0</v>
       </c>
-      <c r="H66" t="s">
-        <v>14</v>
+      <c r="H66" t="b">
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>10.0</v>
@@ -3229,8 +3229,8 @@
       <c r="J66" t="n">
         <v>3.0</v>
       </c>
-      <c r="K66" t="s">
-        <v>14</v>
+      <c r="K66" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3255,8 +3255,8 @@
       <c r="G67" t="n">
         <v>58.0</v>
       </c>
-      <c r="H67" t="s">
-        <v>14</v>
+      <c r="H67" t="b">
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>8.0</v>
@@ -3264,8 +3264,8 @@
       <c r="J67" t="n">
         <v>2.0</v>
       </c>
-      <c r="K67" t="s">
-        <v>14</v>
+      <c r="K67" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3290,8 +3290,8 @@
       <c r="G68" t="n">
         <v>58.0</v>
       </c>
-      <c r="H68" t="s">
-        <v>14</v>
+      <c r="H68" t="b">
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>8.0</v>
@@ -3299,8 +3299,8 @@
       <c r="J68" t="n">
         <v>2.0</v>
       </c>
-      <c r="K68" t="s">
-        <v>14</v>
+      <c r="K68" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3325,8 +3325,8 @@
       <c r="G69" t="n">
         <v>58.0</v>
       </c>
-      <c r="H69" t="s">
-        <v>14</v>
+      <c r="H69" t="b">
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>10.0</v>
@@ -3334,8 +3334,8 @@
       <c r="J69" t="n">
         <v>3.0</v>
       </c>
-      <c r="K69" t="s">
-        <v>14</v>
+      <c r="K69" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3360,8 +3360,8 @@
       <c r="G70" t="n">
         <v>58.0</v>
       </c>
-      <c r="H70" t="s">
-        <v>14</v>
+      <c r="H70" t="b">
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>10.0</v>
@@ -3369,8 +3369,8 @@
       <c r="J70" t="n">
         <v>3.0</v>
       </c>
-      <c r="K70" t="s">
-        <v>14</v>
+      <c r="K70" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3395,8 +3395,8 @@
       <c r="G71" t="n">
         <v>58.0</v>
       </c>
-      <c r="H71" t="s">
-        <v>14</v>
+      <c r="H71" t="b">
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>10.0</v>
@@ -3404,8 +3404,8 @@
       <c r="J71" t="n">
         <v>3.0</v>
       </c>
-      <c r="K71" t="s">
-        <v>14</v>
+      <c r="K71" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3430,8 +3430,8 @@
       <c r="G72" t="n">
         <v>58.0</v>
       </c>
-      <c r="H72" t="s">
-        <v>14</v>
+      <c r="H72" t="b">
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>10.0</v>
@@ -3439,8 +3439,8 @@
       <c r="J72" t="n">
         <v>3.0</v>
       </c>
-      <c r="K72" t="s">
-        <v>14</v>
+      <c r="K72" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3465,8 +3465,8 @@
       <c r="G73" t="n">
         <v>58.0</v>
       </c>
-      <c r="H73" t="s">
-        <v>14</v>
+      <c r="H73" t="b">
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>7.0</v>
@@ -3474,8 +3474,8 @@
       <c r="J73" t="n">
         <v>2.0</v>
       </c>
-      <c r="K73" t="s">
-        <v>14</v>
+      <c r="K73" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3500,8 +3500,8 @@
       <c r="G74" t="n">
         <v>58.0</v>
       </c>
-      <c r="H74" t="s">
-        <v>14</v>
+      <c r="H74" t="b">
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>5.0</v>
@@ -3509,8 +3509,8 @@
       <c r="J74" t="n">
         <v>1.0</v>
       </c>
-      <c r="K74" t="s">
-        <v>14</v>
+      <c r="K74" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3535,8 +3535,8 @@
       <c r="G75" t="n">
         <v>4.0</v>
       </c>
-      <c r="H75" t="s">
-        <v>14</v>
+      <c r="H75" t="b">
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>3.0</v>
@@ -3544,8 +3544,8 @@
       <c r="J75" t="n">
         <v>1.0</v>
       </c>
-      <c r="K75" t="s">
-        <v>14</v>
+      <c r="K75" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3570,8 +3570,8 @@
       <c r="G76" t="n">
         <v>4.0</v>
       </c>
-      <c r="H76" t="s">
-        <v>14</v>
+      <c r="H76" t="b">
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>3.0</v>
@@ -3579,8 +3579,8 @@
       <c r="J76" t="n">
         <v>1.0</v>
       </c>
-      <c r="K76" t="s">
-        <v>14</v>
+      <c r="K76" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3605,8 +3605,8 @@
       <c r="G77" t="n">
         <v>4.0</v>
       </c>
-      <c r="H77" t="s">
-        <v>14</v>
+      <c r="H77" t="b">
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>3.0</v>
@@ -3614,8 +3614,8 @@
       <c r="J77" t="n">
         <v>1.0</v>
       </c>
-      <c r="K77" t="s">
-        <v>14</v>
+      <c r="K77" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3640,8 +3640,8 @@
       <c r="G78" t="n">
         <v>4.0</v>
       </c>
-      <c r="H78" t="s">
-        <v>14</v>
+      <c r="H78" t="b">
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>3.0</v>
@@ -3649,8 +3649,8 @@
       <c r="J78" t="n">
         <v>1.0</v>
       </c>
-      <c r="K78" t="s">
-        <v>14</v>
+      <c r="K78" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3675,8 +3675,8 @@
       <c r="G79" t="n">
         <v>47.0</v>
       </c>
-      <c r="H79" t="s">
-        <v>14</v>
+      <c r="H79" t="b">
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>4.0</v>
@@ -3684,8 +3684,8 @@
       <c r="J79" t="n">
         <v>1.0</v>
       </c>
-      <c r="K79" t="s">
-        <v>14</v>
+      <c r="K79" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -3710,8 +3710,8 @@
       <c r="G80" t="n">
         <v>47.0</v>
       </c>
-      <c r="H80" t="s">
-        <v>14</v>
+      <c r="H80" t="b">
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>11.0</v>
@@ -3719,8 +3719,8 @@
       <c r="J80" t="n">
         <v>1.0</v>
       </c>
-      <c r="K80" t="s">
-        <v>14</v>
+      <c r="K80" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3745,8 +3745,8 @@
       <c r="G81" t="n">
         <v>47.0</v>
       </c>
-      <c r="H81" t="s">
-        <v>14</v>
+      <c r="H81" t="b">
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>10.0</v>
@@ -3754,8 +3754,8 @@
       <c r="J81" t="n">
         <v>1.0</v>
       </c>
-      <c r="K81" t="s">
-        <v>14</v>
+      <c r="K81" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3780,8 +3780,8 @@
       <c r="G82" t="n">
         <v>47.0</v>
       </c>
-      <c r="H82" t="s">
-        <v>14</v>
+      <c r="H82" t="b">
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>54.0</v>
@@ -3789,8 +3789,8 @@
       <c r="J82" t="n">
         <v>14.0</v>
       </c>
-      <c r="K82" t="s">
-        <v>14</v>
+      <c r="K82" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3815,8 +3815,8 @@
       <c r="G83" t="n">
         <v>47.0</v>
       </c>
-      <c r="H83" t="s">
-        <v>14</v>
+      <c r="H83" t="b">
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>5.0</v>
@@ -3824,8 +3824,8 @@
       <c r="J83" t="n">
         <v>1.0</v>
       </c>
-      <c r="K83" t="s">
-        <v>14</v>
+      <c r="K83" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3850,8 +3850,8 @@
       <c r="G84" t="n">
         <v>47.0</v>
       </c>
-      <c r="H84" t="s">
-        <v>14</v>
+      <c r="H84" t="b">
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>11.0</v>
@@ -3859,8 +3859,8 @@
       <c r="J84" t="n">
         <v>2.0</v>
       </c>
-      <c r="K84" t="s">
-        <v>14</v>
+      <c r="K84" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3885,8 +3885,8 @@
       <c r="G85" t="n">
         <v>47.0</v>
       </c>
-      <c r="H85" t="s">
-        <v>14</v>
+      <c r="H85" t="b">
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>14.0</v>
@@ -3894,8 +3894,8 @@
       <c r="J85" t="n">
         <v>3.0</v>
       </c>
-      <c r="K85" t="s">
-        <v>14</v>
+      <c r="K85" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3920,8 +3920,8 @@
       <c r="G86" t="n">
         <v>47.0</v>
       </c>
-      <c r="H86" t="s">
-        <v>14</v>
+      <c r="H86" t="b">
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>14.0</v>
@@ -3929,8 +3929,8 @@
       <c r="J86" t="n">
         <v>3.0</v>
       </c>
-      <c r="K86" t="s">
-        <v>14</v>
+      <c r="K86" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3955,8 +3955,8 @@
       <c r="G87" t="n">
         <v>47.0</v>
       </c>
-      <c r="H87" t="s">
-        <v>14</v>
+      <c r="H87" t="b">
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>6.0</v>
@@ -3964,8 +3964,8 @@
       <c r="J87" t="n">
         <v>2.0</v>
       </c>
-      <c r="K87" t="s">
-        <v>14</v>
+      <c r="K87" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3990,8 +3990,8 @@
       <c r="G88" t="n">
         <v>47.0</v>
       </c>
-      <c r="H88" t="s">
-        <v>14</v>
+      <c r="H88" t="b">
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>87.0</v>
@@ -3999,8 +3999,8 @@
       <c r="J88" t="n">
         <v>19.0</v>
       </c>
-      <c r="K88" t="s">
-        <v>14</v>
+      <c r="K88" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -4025,8 +4025,8 @@
       <c r="G89" t="n">
         <v>11.0</v>
       </c>
-      <c r="H89" t="s">
-        <v>14</v>
+      <c r="H89" t="b">
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>6.0</v>
@@ -4034,8 +4034,8 @@
       <c r="J89" t="n">
         <v>1.0</v>
       </c>
-      <c r="K89" t="s">
-        <v>14</v>
+      <c r="K89" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -4060,8 +4060,8 @@
       <c r="G90" t="n">
         <v>11.0</v>
       </c>
-      <c r="H90" t="s">
-        <v>14</v>
+      <c r="H90" t="b">
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>5.0</v>
@@ -4069,8 +4069,8 @@
       <c r="J90" t="n">
         <v>1.0</v>
       </c>
-      <c r="K90" t="s">
-        <v>14</v>
+      <c r="K90" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -4095,8 +4095,8 @@
       <c r="G91" t="n">
         <v>11.0</v>
       </c>
-      <c r="H91" t="s">
-        <v>14</v>
+      <c r="H91" t="b">
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>4.0</v>
@@ -4104,8 +4104,8 @@
       <c r="J91" t="n">
         <v>1.0</v>
       </c>
-      <c r="K91" t="s">
-        <v>14</v>
+      <c r="K91" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -4130,8 +4130,8 @@
       <c r="G92" t="n">
         <v>11.0</v>
       </c>
-      <c r="H92" t="s">
-        <v>14</v>
+      <c r="H92" t="b">
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>3.0</v>
@@ -4139,8 +4139,8 @@
       <c r="J92" t="n">
         <v>1.0</v>
       </c>
-      <c r="K92" t="s">
-        <v>14</v>
+      <c r="K92" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4165,8 +4165,8 @@
       <c r="G93" t="n">
         <v>11.0</v>
       </c>
-      <c r="H93" t="s">
-        <v>14</v>
+      <c r="H93" t="b">
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>3.0</v>
@@ -4174,8 +4174,8 @@
       <c r="J93" t="n">
         <v>1.0</v>
       </c>
-      <c r="K93" t="s">
-        <v>14</v>
+      <c r="K93" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -4200,8 +4200,8 @@
       <c r="G94" t="n">
         <v>11.0</v>
       </c>
-      <c r="H94" t="s">
-        <v>14</v>
+      <c r="H94" t="b">
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>20.0</v>
@@ -4209,8 +4209,8 @@
       <c r="J94" t="n">
         <v>6.0</v>
       </c>
-      <c r="K94" t="s">
-        <v>14</v>
+      <c r="K94" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -4235,8 +4235,8 @@
       <c r="G95" t="n">
         <v>150.0</v>
       </c>
-      <c r="H95" t="s">
-        <v>14</v>
+      <c r="H95" t="b">
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>3.0</v>
@@ -4244,8 +4244,8 @@
       <c r="J95" t="n">
         <v>2.0</v>
       </c>
-      <c r="K95" t="s">
-        <v>14</v>
+      <c r="K95" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4270,8 +4270,8 @@
       <c r="G96" t="n">
         <v>150.0</v>
       </c>
-      <c r="H96" t="s">
-        <v>14</v>
+      <c r="H96" t="b">
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>7.0</v>
@@ -4279,8 +4279,8 @@
       <c r="J96" t="n">
         <v>1.0</v>
       </c>
-      <c r="K96" t="s">
-        <v>14</v>
+      <c r="K96" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4305,8 +4305,8 @@
       <c r="G97" t="n">
         <v>150.0</v>
       </c>
-      <c r="H97" t="s">
-        <v>14</v>
+      <c r="H97" t="b">
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>2.0</v>
@@ -4314,8 +4314,8 @@
       <c r="J97" t="n">
         <v>1.0</v>
       </c>
-      <c r="K97" t="s">
-        <v>14</v>
+      <c r="K97" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4340,8 +4340,8 @@
       <c r="G98" t="n">
         <v>150.0</v>
       </c>
-      <c r="H98" t="s">
-        <v>14</v>
+      <c r="H98" t="b">
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>14.0</v>
@@ -4349,8 +4349,8 @@
       <c r="J98" t="n">
         <v>1.0</v>
       </c>
-      <c r="K98" t="s">
-        <v>14</v>
+      <c r="K98" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4375,8 +4375,8 @@
       <c r="G99" t="n">
         <v>150.0</v>
       </c>
-      <c r="H99" t="s">
-        <v>14</v>
+      <c r="H99" t="b">
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>22.0</v>
@@ -4384,8 +4384,8 @@
       <c r="J99" t="n">
         <v>1.0</v>
       </c>
-      <c r="K99" t="s">
-        <v>14</v>
+      <c r="K99" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -4410,8 +4410,8 @@
       <c r="G100" t="n">
         <v>150.0</v>
       </c>
-      <c r="H100" t="s">
-        <v>14</v>
+      <c r="H100" t="b">
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>3.0</v>
@@ -4419,8 +4419,8 @@
       <c r="J100" t="n">
         <v>1.0</v>
       </c>
-      <c r="K100" t="s">
-        <v>14</v>
+      <c r="K100" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -4445,8 +4445,8 @@
       <c r="G101" t="n">
         <v>150.0</v>
       </c>
-      <c r="H101" t="s">
-        <v>14</v>
+      <c r="H101" t="b">
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>11.0</v>
@@ -4454,8 +4454,8 @@
       <c r="J101" t="n">
         <v>1.0</v>
       </c>
-      <c r="K101" t="s">
-        <v>14</v>
+      <c r="K101" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -4480,8 +4480,8 @@
       <c r="G102" t="n">
         <v>150.0</v>
       </c>
-      <c r="H102" t="s">
-        <v>14</v>
+      <c r="H102" t="b">
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>11.0</v>
@@ -4489,8 +4489,8 @@
       <c r="J102" t="n">
         <v>1.0</v>
       </c>
-      <c r="K102" t="s">
-        <v>14</v>
+      <c r="K102" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -4515,8 +4515,8 @@
       <c r="G103" t="n">
         <v>150.0</v>
       </c>
-      <c r="H103" t="s">
-        <v>14</v>
+      <c r="H103" t="b">
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>3.0</v>
@@ -4524,8 +4524,8 @@
       <c r="J103" t="n">
         <v>1.0</v>
       </c>
-      <c r="K103" t="s">
-        <v>14</v>
+      <c r="K103" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -4550,8 +4550,8 @@
       <c r="G104" t="n">
         <v>150.0</v>
       </c>
-      <c r="H104" t="s">
-        <v>14</v>
+      <c r="H104" t="b">
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>3.0</v>
@@ -4559,8 +4559,8 @@
       <c r="J104" t="n">
         <v>1.0</v>
       </c>
-      <c r="K104" t="s">
-        <v>14</v>
+      <c r="K104" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4585,8 +4585,8 @@
       <c r="G105" t="n">
         <v>150.0</v>
       </c>
-      <c r="H105" t="s">
-        <v>14</v>
+      <c r="H105" t="b">
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>256.0</v>
@@ -4594,8 +4594,8 @@
       <c r="J105" t="n">
         <v>81.0</v>
       </c>
-      <c r="K105" t="s">
-        <v>14</v>
+      <c r="K105" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -4620,8 +4620,8 @@
       <c r="G106" t="n">
         <v>150.0</v>
       </c>
-      <c r="H106" t="s">
-        <v>14</v>
+      <c r="H106" t="b">
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>17.0</v>
@@ -4629,8 +4629,8 @@
       <c r="J106" t="n">
         <v>5.0</v>
       </c>
-      <c r="K106" t="s">
-        <v>14</v>
+      <c r="K106" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4655,8 +4655,8 @@
       <c r="G107" t="n">
         <v>150.0</v>
       </c>
-      <c r="H107" t="s">
-        <v>14</v>
+      <c r="H107" t="b">
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>16.0</v>
@@ -4664,8 +4664,8 @@
       <c r="J107" t="n">
         <v>6.0</v>
       </c>
-      <c r="K107" t="s">
-        <v>14</v>
+      <c r="K107" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -4690,8 +4690,8 @@
       <c r="G108" t="n">
         <v>150.0</v>
       </c>
-      <c r="H108" t="s">
-        <v>14</v>
+      <c r="H108" t="b">
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>3.0</v>
@@ -4699,8 +4699,8 @@
       <c r="J108" t="n">
         <v>1.0</v>
       </c>
-      <c r="K108" t="s">
-        <v>14</v>
+      <c r="K108" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4725,8 +4725,8 @@
       <c r="G109" t="n">
         <v>150.0</v>
       </c>
-      <c r="H109" t="s">
-        <v>14</v>
+      <c r="H109" t="b">
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>3.0</v>
@@ -4734,8 +4734,8 @@
       <c r="J109" t="n">
         <v>1.0</v>
       </c>
-      <c r="K109" t="s">
-        <v>14</v>
+      <c r="K109" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -4760,8 +4760,8 @@
       <c r="G110" t="n">
         <v>150.0</v>
       </c>
-      <c r="H110" t="s">
-        <v>14</v>
+      <c r="H110" t="b">
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>3.0</v>
@@ -4769,8 +4769,8 @@
       <c r="J110" t="n">
         <v>1.0</v>
       </c>
-      <c r="K110" t="s">
-        <v>14</v>
+      <c r="K110" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4795,8 +4795,8 @@
       <c r="G111" t="n">
         <v>150.0</v>
       </c>
-      <c r="H111" t="s">
-        <v>14</v>
+      <c r="H111" t="b">
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>3.0</v>
@@ -4804,8 +4804,8 @@
       <c r="J111" t="n">
         <v>1.0</v>
       </c>
-      <c r="K111" t="s">
-        <v>14</v>
+      <c r="K111" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -4830,8 +4830,8 @@
       <c r="G112" t="n">
         <v>150.0</v>
       </c>
-      <c r="H112" t="s">
-        <v>14</v>
+      <c r="H112" t="b">
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>3.0</v>
@@ -4839,8 +4839,8 @@
       <c r="J112" t="n">
         <v>1.0</v>
       </c>
-      <c r="K112" t="s">
-        <v>14</v>
+      <c r="K112" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4865,8 +4865,8 @@
       <c r="G113" t="n">
         <v>150.0</v>
       </c>
-      <c r="H113" t="s">
-        <v>14</v>
+      <c r="H113" t="b">
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>3.0</v>
@@ -4874,8 +4874,8 @@
       <c r="J113" t="n">
         <v>1.0</v>
       </c>
-      <c r="K113" t="s">
-        <v>14</v>
+      <c r="K113" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -4900,8 +4900,8 @@
       <c r="G114" t="n">
         <v>150.0</v>
       </c>
-      <c r="H114" t="s">
-        <v>14</v>
+      <c r="H114" t="b">
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>3.0</v>
@@ -4909,8 +4909,8 @@
       <c r="J114" t="n">
         <v>1.0</v>
       </c>
-      <c r="K114" t="s">
-        <v>14</v>
+      <c r="K114" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -4935,8 +4935,8 @@
       <c r="G115" t="n">
         <v>150.0</v>
       </c>
-      <c r="H115" t="s">
-        <v>14</v>
+      <c r="H115" t="b">
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>3.0</v>
@@ -4944,8 +4944,8 @@
       <c r="J115" t="n">
         <v>1.0</v>
       </c>
-      <c r="K115" t="s">
-        <v>14</v>
+      <c r="K115" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -4970,8 +4970,8 @@
       <c r="G116" t="n">
         <v>150.0</v>
       </c>
-      <c r="H116" t="s">
-        <v>14</v>
+      <c r="H116" t="b">
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>9.0</v>
@@ -4979,8 +4979,8 @@
       <c r="J116" t="n">
         <v>3.0</v>
       </c>
-      <c r="K116" t="s">
-        <v>14</v>
+      <c r="K116" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -5005,8 +5005,8 @@
       <c r="G117" t="n">
         <v>150.0</v>
       </c>
-      <c r="H117" t="s">
-        <v>14</v>
+      <c r="H117" t="b">
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>19.0</v>
@@ -5014,8 +5014,8 @@
       <c r="J117" t="n">
         <v>5.0</v>
       </c>
-      <c r="K117" t="s">
-        <v>14</v>
+      <c r="K117" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -5040,8 +5040,8 @@
       <c r="G118" t="n">
         <v>150.0</v>
       </c>
-      <c r="H118" t="s">
-        <v>14</v>
+      <c r="H118" t="b">
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>9.0</v>
@@ -5049,8 +5049,8 @@
       <c r="J118" t="n">
         <v>3.0</v>
       </c>
-      <c r="K118" t="s">
-        <v>14</v>
+      <c r="K118" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -5075,8 +5075,8 @@
       <c r="G119" t="n">
         <v>150.0</v>
       </c>
-      <c r="H119" t="s">
-        <v>14</v>
+      <c r="H119" t="b">
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>10.0</v>
@@ -5084,8 +5084,8 @@
       <c r="J119" t="n">
         <v>3.0</v>
       </c>
-      <c r="K119" t="s">
-        <v>14</v>
+      <c r="K119" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -5110,8 +5110,8 @@
       <c r="G120" t="n">
         <v>150.0</v>
       </c>
-      <c r="H120" t="s">
-        <v>14</v>
+      <c r="H120" t="b">
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>55.0</v>
@@ -5119,8 +5119,8 @@
       <c r="J120" t="n">
         <v>16.0</v>
       </c>
-      <c r="K120" t="s">
-        <v>14</v>
+      <c r="K120" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -5145,8 +5145,8 @@
       <c r="G121" t="n">
         <v>150.0</v>
       </c>
-      <c r="H121" t="s">
-        <v>14</v>
+      <c r="H121" t="b">
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>3.0</v>
@@ -5154,8 +5154,8 @@
       <c r="J121" t="n">
         <v>2.0</v>
       </c>
-      <c r="K121" t="s">
-        <v>14</v>
+      <c r="K121" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -5180,8 +5180,8 @@
       <c r="G122" t="n">
         <v>150.0</v>
       </c>
-      <c r="H122" t="s">
-        <v>14</v>
+      <c r="H122" t="b">
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>3.0</v>
@@ -5189,8 +5189,8 @@
       <c r="J122" t="n">
         <v>1.0</v>
       </c>
-      <c r="K122" t="s">
-        <v>14</v>
+      <c r="K122" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -5215,8 +5215,8 @@
       <c r="G123" t="n">
         <v>150.0</v>
       </c>
-      <c r="H123" t="s">
-        <v>14</v>
+      <c r="H123" t="b">
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>3.0</v>
@@ -5224,8 +5224,8 @@
       <c r="J123" t="n">
         <v>1.0</v>
       </c>
-      <c r="K123" t="s">
-        <v>14</v>
+      <c r="K123" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -5250,8 +5250,8 @@
       <c r="G124" t="n">
         <v>150.0</v>
       </c>
-      <c r="H124" t="s">
-        <v>14</v>
+      <c r="H124" t="b">
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>3.0</v>
@@ -5259,8 +5259,8 @@
       <c r="J124" t="n">
         <v>1.0</v>
       </c>
-      <c r="K124" t="s">
-        <v>14</v>
+      <c r="K124" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -5285,8 +5285,8 @@
       <c r="G125" t="n">
         <v>150.0</v>
       </c>
-      <c r="H125" t="s">
-        <v>14</v>
+      <c r="H125" t="b">
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>3.0</v>
@@ -5294,8 +5294,8 @@
       <c r="J125" t="n">
         <v>1.0</v>
       </c>
-      <c r="K125" t="s">
-        <v>14</v>
+      <c r="K125" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -5320,8 +5320,8 @@
       <c r="G126" t="n">
         <v>150.0</v>
       </c>
-      <c r="H126" t="s">
-        <v>14</v>
+      <c r="H126" t="b">
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>14.0</v>
@@ -5329,8 +5329,8 @@
       <c r="J126" t="n">
         <v>3.0</v>
       </c>
-      <c r="K126" t="s">
-        <v>14</v>
+      <c r="K126" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -5355,8 +5355,8 @@
       <c r="G127" t="n">
         <v>320.0</v>
       </c>
-      <c r="H127" t="s">
-        <v>14</v>
+      <c r="H127" t="b">
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>3.0</v>
@@ -5364,8 +5364,8 @@
       <c r="J127" t="n">
         <v>1.0</v>
       </c>
-      <c r="K127" t="s">
-        <v>14</v>
+      <c r="K127" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -5390,8 +5390,8 @@
       <c r="G128" t="n">
         <v>320.0</v>
       </c>
-      <c r="H128" t="s">
-        <v>14</v>
+      <c r="H128" t="b">
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>3.0</v>
@@ -5399,8 +5399,8 @@
       <c r="J128" t="n">
         <v>1.0</v>
       </c>
-      <c r="K128" t="s">
-        <v>14</v>
+      <c r="K128" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -5425,8 +5425,8 @@
       <c r="G129" t="n">
         <v>320.0</v>
       </c>
-      <c r="H129" t="s">
-        <v>14</v>
+      <c r="H129" t="b">
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>5.0</v>
@@ -5434,8 +5434,8 @@
       <c r="J129" t="n">
         <v>1.0</v>
       </c>
-      <c r="K129" t="s">
-        <v>14</v>
+      <c r="K129" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -5460,8 +5460,8 @@
       <c r="G130" t="n">
         <v>320.0</v>
       </c>
-      <c r="H130" t="s">
-        <v>14</v>
+      <c r="H130" t="b">
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>4.0</v>
@@ -5469,8 +5469,8 @@
       <c r="J130" t="n">
         <v>1.0</v>
       </c>
-      <c r="K130" t="s">
-        <v>14</v>
+      <c r="K130" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -5495,8 +5495,8 @@
       <c r="G131" t="n">
         <v>320.0</v>
       </c>
-      <c r="H131" t="s">
-        <v>14</v>
+      <c r="H131" t="b">
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>5.0</v>
@@ -5504,8 +5504,8 @@
       <c r="J131" t="n">
         <v>1.0</v>
       </c>
-      <c r="K131" t="s">
-        <v>14</v>
+      <c r="K131" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -5530,8 +5530,8 @@
       <c r="G132" t="n">
         <v>320.0</v>
       </c>
-      <c r="H132" t="s">
-        <v>14</v>
+      <c r="H132" t="b">
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>9.0</v>
@@ -5539,8 +5539,8 @@
       <c r="J132" t="n">
         <v>2.0</v>
       </c>
-      <c r="K132" t="s">
-        <v>14</v>
+      <c r="K132" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -5565,8 +5565,8 @@
       <c r="G133" t="n">
         <v>320.0</v>
       </c>
-      <c r="H133" t="s">
-        <v>14</v>
+      <c r="H133" t="b">
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>20.0</v>
@@ -5574,8 +5574,8 @@
       <c r="J133" t="n">
         <v>5.0</v>
       </c>
-      <c r="K133" t="s">
-        <v>14</v>
+      <c r="K133" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -5600,8 +5600,8 @@
       <c r="G134" t="n">
         <v>320.0</v>
       </c>
-      <c r="H134" t="s">
-        <v>14</v>
+      <c r="H134" t="b">
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>18.0</v>
@@ -5609,8 +5609,8 @@
       <c r="J134" t="n">
         <v>4.0</v>
       </c>
-      <c r="K134" t="s">
-        <v>14</v>
+      <c r="K134" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -5635,8 +5635,8 @@
       <c r="G135" t="n">
         <v>320.0</v>
       </c>
-      <c r="H135" t="s">
-        <v>14</v>
+      <c r="H135" t="b">
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>38.0</v>
@@ -5644,8 +5644,8 @@
       <c r="J135" t="n">
         <v>8.0</v>
       </c>
-      <c r="K135" t="s">
-        <v>14</v>
+      <c r="K135" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -5670,8 +5670,8 @@
       <c r="G136" t="n">
         <v>320.0</v>
       </c>
-      <c r="H136" t="s">
-        <v>14</v>
+      <c r="H136" t="b">
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>12.0</v>
@@ -5679,8 +5679,8 @@
       <c r="J136" t="n">
         <v>3.0</v>
       </c>
-      <c r="K136" t="s">
-        <v>14</v>
+      <c r="K136" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -5705,8 +5705,8 @@
       <c r="G137" t="n">
         <v>320.0</v>
       </c>
-      <c r="H137" t="s">
-        <v>14</v>
+      <c r="H137" t="b">
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>71.0</v>
@@ -5714,8 +5714,8 @@
       <c r="J137" t="n">
         <v>17.0</v>
       </c>
-      <c r="K137" t="s">
-        <v>14</v>
+      <c r="K137" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -5740,8 +5740,8 @@
       <c r="G138" t="n">
         <v>320.0</v>
       </c>
-      <c r="H138" t="s">
-        <v>14</v>
+      <c r="H138" t="b">
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>12.0</v>
@@ -5749,8 +5749,8 @@
       <c r="J138" t="n">
         <v>3.0</v>
       </c>
-      <c r="K138" t="s">
-        <v>14</v>
+      <c r="K138" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -5775,8 +5775,8 @@
       <c r="G139" t="n">
         <v>320.0</v>
       </c>
-      <c r="H139" t="s">
-        <v>14</v>
+      <c r="H139" t="b">
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>36.0</v>
@@ -5784,8 +5784,8 @@
       <c r="J139" t="n">
         <v>4.0</v>
       </c>
-      <c r="K139" t="s">
-        <v>14</v>
+      <c r="K139" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -5810,8 +5810,8 @@
       <c r="G140" t="n">
         <v>320.0</v>
       </c>
-      <c r="H140" t="s">
-        <v>14</v>
+      <c r="H140" t="b">
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>53.0</v>
@@ -5819,8 +5819,8 @@
       <c r="J140" t="n">
         <v>13.0</v>
       </c>
-      <c r="K140" t="s">
-        <v>14</v>
+      <c r="K140" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -5845,8 +5845,8 @@
       <c r="G141" t="n">
         <v>320.0</v>
       </c>
-      <c r="H141" t="s">
-        <v>14</v>
+      <c r="H141" t="b">
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>3.0</v>
@@ -5854,8 +5854,8 @@
       <c r="J141" t="n">
         <v>1.0</v>
       </c>
-      <c r="K141" t="s">
-        <v>14</v>
+      <c r="K141" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -5880,8 +5880,8 @@
       <c r="G142" t="n">
         <v>320.0</v>
       </c>
-      <c r="H142" t="s">
-        <v>14</v>
+      <c r="H142" t="b">
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>513.0</v>
@@ -5889,8 +5889,8 @@
       <c r="J142" t="n">
         <v>137.0</v>
       </c>
-      <c r="K142" t="s">
-        <v>14</v>
+      <c r="K142" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -5915,8 +5915,8 @@
       <c r="G143" t="n">
         <v>320.0</v>
       </c>
-      <c r="H143" t="s">
-        <v>14</v>
+      <c r="H143" t="b">
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>60.0</v>
@@ -5924,8 +5924,8 @@
       <c r="J143" t="n">
         <v>28.0</v>
       </c>
-      <c r="K143" t="s">
-        <v>14</v>
+      <c r="K143" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -5950,8 +5950,8 @@
       <c r="G144" t="n">
         <v>320.0</v>
       </c>
-      <c r="H144" t="s">
-        <v>14</v>
+      <c r="H144" t="b">
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>62.0</v>
@@ -5959,8 +5959,8 @@
       <c r="J144" t="n">
         <v>13.0</v>
       </c>
-      <c r="K144" t="s">
-        <v>14</v>
+      <c r="K144" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -5985,8 +5985,8 @@
       <c r="G145" t="n">
         <v>320.0</v>
       </c>
-      <c r="H145" t="s">
-        <v>14</v>
+      <c r="H145" t="b">
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>65.0</v>
@@ -5994,8 +5994,8 @@
       <c r="J145" t="n">
         <v>12.0</v>
       </c>
-      <c r="K145" t="s">
-        <v>14</v>
+      <c r="K145" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -6020,8 +6020,8 @@
       <c r="G146" t="n">
         <v>320.0</v>
       </c>
-      <c r="H146" t="s">
-        <v>14</v>
+      <c r="H146" t="b">
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>75.0</v>
@@ -6029,8 +6029,8 @@
       <c r="J146" t="n">
         <v>15.0</v>
       </c>
-      <c r="K146" t="s">
-        <v>14</v>
+      <c r="K146" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -6055,8 +6055,8 @@
       <c r="G147" t="n">
         <v>320.0</v>
       </c>
-      <c r="H147" t="s">
-        <v>14</v>
+      <c r="H147" t="b">
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>18.0</v>
@@ -6064,8 +6064,8 @@
       <c r="J147" t="n">
         <v>4.0</v>
       </c>
-      <c r="K147" t="s">
-        <v>14</v>
+      <c r="K147" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -6090,8 +6090,8 @@
       <c r="G148" t="n">
         <v>320.0</v>
       </c>
-      <c r="H148" t="s">
-        <v>14</v>
+      <c r="H148" t="b">
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>23.0</v>
@@ -6099,8 +6099,8 @@
       <c r="J148" t="n">
         <v>4.0</v>
       </c>
-      <c r="K148" t="s">
-        <v>14</v>
+      <c r="K148" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -6125,8 +6125,8 @@
       <c r="G149" t="n">
         <v>320.0</v>
       </c>
-      <c r="H149" t="s">
-        <v>14</v>
+      <c r="H149" t="b">
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>79.0</v>
@@ -6134,8 +6134,8 @@
       <c r="J149" t="n">
         <v>17.0</v>
       </c>
-      <c r="K149" t="s">
-        <v>14</v>
+      <c r="K149" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -6160,8 +6160,8 @@
       <c r="G150" t="n">
         <v>320.0</v>
       </c>
-      <c r="H150" t="s">
-        <v>14</v>
+      <c r="H150" t="b">
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>19.0</v>
@@ -6169,8 +6169,8 @@
       <c r="J150" t="n">
         <v>3.0</v>
       </c>
-      <c r="K150" t="s">
-        <v>14</v>
+      <c r="K150" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -6195,8 +6195,8 @@
       <c r="G151" t="n">
         <v>320.0</v>
       </c>
-      <c r="H151" t="s">
-        <v>14</v>
+      <c r="H151" t="b">
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>21.0</v>
@@ -6204,8 +6204,8 @@
       <c r="J151" t="n">
         <v>7.0</v>
       </c>
-      <c r="K151" t="s">
-        <v>14</v>
+      <c r="K151" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -6230,8 +6230,8 @@
       <c r="G152" t="n">
         <v>320.0</v>
       </c>
-      <c r="H152" t="s">
-        <v>14</v>
+      <c r="H152" t="b">
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>22.0</v>
@@ -6239,8 +6239,8 @@
       <c r="J152" t="n">
         <v>4.0</v>
       </c>
-      <c r="K152" t="s">
-        <v>14</v>
+      <c r="K152" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -6265,8 +6265,8 @@
       <c r="G153" t="n">
         <v>320.0</v>
       </c>
-      <c r="H153" t="s">
-        <v>14</v>
+      <c r="H153" t="b">
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>7.0</v>
@@ -6274,8 +6274,8 @@
       <c r="J153" t="n">
         <v>2.0</v>
       </c>
-      <c r="K153" t="s">
-        <v>14</v>
+      <c r="K153" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -6300,8 +6300,8 @@
       <c r="G154" t="n">
         <v>320.0</v>
       </c>
-      <c r="H154" t="s">
-        <v>14</v>
+      <c r="H154" t="b">
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>10.0</v>
@@ -6309,8 +6309,8 @@
       <c r="J154" t="n">
         <v>3.0</v>
       </c>
-      <c r="K154" t="s">
-        <v>14</v>
+      <c r="K154" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -6335,8 +6335,8 @@
       <c r="G155" t="n">
         <v>320.0</v>
       </c>
-      <c r="H155" t="s">
-        <v>14</v>
+      <c r="H155" t="b">
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>6.0</v>
@@ -6344,8 +6344,8 @@
       <c r="J155" t="n">
         <v>2.0</v>
       </c>
-      <c r="K155" t="s">
-        <v>14</v>
+      <c r="K155" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -6370,8 +6370,8 @@
       <c r="G156" t="n">
         <v>320.0</v>
       </c>
-      <c r="H156" t="s">
-        <v>14</v>
+      <c r="H156" t="b">
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>6.0</v>
@@ -6379,8 +6379,8 @@
       <c r="J156" t="n">
         <v>2.0</v>
       </c>
-      <c r="K156" t="s">
-        <v>14</v>
+      <c r="K156" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -6405,8 +6405,8 @@
       <c r="G157" t="n">
         <v>320.0</v>
       </c>
-      <c r="H157" t="s">
-        <v>14</v>
+      <c r="H157" t="b">
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>3.0</v>
@@ -6414,8 +6414,8 @@
       <c r="J157" t="n">
         <v>1.0</v>
       </c>
-      <c r="K157" t="s">
-        <v>14</v>
+      <c r="K157" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -6440,8 +6440,8 @@
       <c r="G158" t="n">
         <v>320.0</v>
       </c>
-      <c r="H158" t="s">
-        <v>14</v>
+      <c r="H158" t="b">
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>4.0</v>
@@ -6449,8 +6449,8 @@
       <c r="J158" t="n">
         <v>1.0</v>
       </c>
-      <c r="K158" t="s">
-        <v>14</v>
+      <c r="K158" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -6475,8 +6475,8 @@
       <c r="G159" t="n">
         <v>97.0</v>
       </c>
-      <c r="H159" t="s">
-        <v>14</v>
+      <c r="H159" t="b">
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>42.0</v>
@@ -6484,8 +6484,8 @@
       <c r="J159" t="n">
         <v>1.0</v>
       </c>
-      <c r="K159" t="s">
-        <v>14</v>
+      <c r="K159" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -6510,8 +6510,8 @@
       <c r="G160" t="n">
         <v>97.0</v>
       </c>
-      <c r="H160" t="s">
-        <v>14</v>
+      <c r="H160" t="b">
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>4.0</v>
@@ -6519,8 +6519,8 @@
       <c r="J160" t="n">
         <v>1.0</v>
       </c>
-      <c r="K160" t="s">
-        <v>14</v>
+      <c r="K160" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -6545,8 +6545,8 @@
       <c r="G161" t="n">
         <v>97.0</v>
       </c>
-      <c r="H161" t="s">
-        <v>14</v>
+      <c r="H161" t="b">
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>5.0</v>
@@ -6554,8 +6554,8 @@
       <c r="J161" t="n">
         <v>1.0</v>
       </c>
-      <c r="K161" t="s">
-        <v>14</v>
+      <c r="K161" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -6580,8 +6580,8 @@
       <c r="G162" t="n">
         <v>97.0</v>
       </c>
-      <c r="H162" t="s">
-        <v>14</v>
+      <c r="H162" t="b">
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>4.0</v>
@@ -6589,8 +6589,8 @@
       <c r="J162" t="n">
         <v>1.0</v>
       </c>
-      <c r="K162" t="s">
-        <v>14</v>
+      <c r="K162" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -6615,8 +6615,8 @@
       <c r="G163" t="n">
         <v>97.0</v>
       </c>
-      <c r="H163" t="s">
-        <v>14</v>
+      <c r="H163" t="b">
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>47.0</v>
@@ -6624,8 +6624,8 @@
       <c r="J163" t="n">
         <v>14.0</v>
       </c>
-      <c r="K163" t="s">
-        <v>14</v>
+      <c r="K163" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -6650,8 +6650,8 @@
       <c r="G164" t="n">
         <v>97.0</v>
       </c>
-      <c r="H164" t="s">
-        <v>14</v>
+      <c r="H164" t="b">
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>3.0</v>
@@ -6659,8 +6659,8 @@
       <c r="J164" t="n">
         <v>1.0</v>
       </c>
-      <c r="K164" t="s">
-        <v>14</v>
+      <c r="K164" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -6685,8 +6685,8 @@
       <c r="G165" t="n">
         <v>97.0</v>
       </c>
-      <c r="H165" t="s">
-        <v>14</v>
+      <c r="H165" t="b">
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>3.0</v>
@@ -6694,8 +6694,8 @@
       <c r="J165" t="n">
         <v>1.0</v>
       </c>
-      <c r="K165" t="s">
-        <v>14</v>
+      <c r="K165" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -6720,8 +6720,8 @@
       <c r="G166" t="n">
         <v>97.0</v>
       </c>
-      <c r="H166" t="s">
-        <v>14</v>
+      <c r="H166" t="b">
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>3.0</v>
@@ -6729,8 +6729,8 @@
       <c r="J166" t="n">
         <v>1.0</v>
       </c>
-      <c r="K166" t="s">
-        <v>14</v>
+      <c r="K166" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -6755,8 +6755,8 @@
       <c r="G167" t="n">
         <v>97.0</v>
       </c>
-      <c r="H167" t="s">
-        <v>14</v>
+      <c r="H167" t="b">
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>10.0</v>
@@ -6764,8 +6764,8 @@
       <c r="J167" t="n">
         <v>3.0</v>
       </c>
-      <c r="K167" t="s">
-        <v>14</v>
+      <c r="K167" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -6790,8 +6790,8 @@
       <c r="G168" t="n">
         <v>97.0</v>
       </c>
-      <c r="H168" t="s">
-        <v>14</v>
+      <c r="H168" t="b">
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>11.0</v>
@@ -6799,8 +6799,8 @@
       <c r="J168" t="n">
         <v>3.0</v>
       </c>
-      <c r="K168" t="s">
-        <v>14</v>
+      <c r="K168" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -6825,8 +6825,8 @@
       <c r="G169" t="n">
         <v>97.0</v>
       </c>
-      <c r="H169" t="s">
-        <v>14</v>
+      <c r="H169" t="b">
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>10.0</v>
@@ -6834,8 +6834,8 @@
       <c r="J169" t="n">
         <v>3.0</v>
       </c>
-      <c r="K169" t="s">
-        <v>14</v>
+      <c r="K169" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -6860,8 +6860,8 @@
       <c r="G170" t="n">
         <v>97.0</v>
       </c>
-      <c r="H170" t="s">
-        <v>14</v>
+      <c r="H170" t="b">
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>11.0</v>
@@ -6869,8 +6869,8 @@
       <c r="J170" t="n">
         <v>3.0</v>
       </c>
-      <c r="K170" t="s">
-        <v>14</v>
+      <c r="K170" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -6895,8 +6895,8 @@
       <c r="G171" t="n">
         <v>97.0</v>
       </c>
-      <c r="H171" t="s">
-        <v>14</v>
+      <c r="H171" t="b">
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>14.0</v>
@@ -6904,8 +6904,8 @@
       <c r="J171" t="n">
         <v>3.0</v>
       </c>
-      <c r="K171" t="s">
-        <v>14</v>
+      <c r="K171" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -6930,8 +6930,8 @@
       <c r="G172" t="n">
         <v>97.0</v>
       </c>
-      <c r="H172" t="s">
-        <v>14</v>
+      <c r="H172" t="b">
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>15.0</v>
@@ -6939,8 +6939,8 @@
       <c r="J172" t="n">
         <v>3.0</v>
       </c>
-      <c r="K172" t="s">
-        <v>14</v>
+      <c r="K172" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -6965,8 +6965,8 @@
       <c r="G173" t="n">
         <v>97.0</v>
       </c>
-      <c r="H173" t="s">
-        <v>14</v>
+      <c r="H173" t="b">
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>108.0</v>
@@ -6974,8 +6974,8 @@
       <c r="J173" t="n">
         <v>26.0</v>
       </c>
-      <c r="K173" t="s">
-        <v>14</v>
+      <c r="K173" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -7000,8 +7000,8 @@
       <c r="G174" t="n">
         <v>97.0</v>
       </c>
-      <c r="H174" t="s">
-        <v>14</v>
+      <c r="H174" t="b">
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>3.0</v>
@@ -7009,8 +7009,8 @@
       <c r="J174" t="n">
         <v>1.0</v>
       </c>
-      <c r="K174" t="s">
-        <v>14</v>
+      <c r="K174" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -7035,8 +7035,8 @@
       <c r="G175" t="n">
         <v>97.0</v>
       </c>
-      <c r="H175" t="s">
-        <v>14</v>
+      <c r="H175" t="b">
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>3.0</v>
@@ -7044,8 +7044,8 @@
       <c r="J175" t="n">
         <v>1.0</v>
       </c>
-      <c r="K175" t="s">
-        <v>14</v>
+      <c r="K175" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -7070,8 +7070,8 @@
       <c r="G176" t="n">
         <v>97.0</v>
       </c>
-      <c r="H176" t="s">
-        <v>14</v>
+      <c r="H176" t="b">
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>3.0</v>
@@ -7079,8 +7079,8 @@
       <c r="J176" t="n">
         <v>1.0</v>
       </c>
-      <c r="K176" t="s">
-        <v>14</v>
+      <c r="K176" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -7105,8 +7105,8 @@
       <c r="G177" t="n">
         <v>97.0</v>
       </c>
-      <c r="H177" t="s">
-        <v>14</v>
+      <c r="H177" t="b">
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>3.0</v>
@@ -7114,8 +7114,8 @@
       <c r="J177" t="n">
         <v>1.0</v>
       </c>
-      <c r="K177" t="s">
-        <v>14</v>
+      <c r="K177" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -7140,8 +7140,8 @@
       <c r="G178" t="n">
         <v>97.0</v>
       </c>
-      <c r="H178" t="s">
-        <v>14</v>
+      <c r="H178" t="b">
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>116.0</v>
@@ -7149,8 +7149,8 @@
       <c r="J178" t="n">
         <v>27.0</v>
       </c>
-      <c r="K178" t="s">
-        <v>14</v>
+      <c r="K178" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -7175,8 +7175,8 @@
       <c r="G179" t="n">
         <v>97.0</v>
       </c>
-      <c r="H179" t="s">
-        <v>14</v>
+      <c r="H179" t="b">
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>3.0</v>
@@ -7184,8 +7184,8 @@
       <c r="J179" t="n">
         <v>1.0</v>
       </c>
-      <c r="K179" t="s">
-        <v>14</v>
+      <c r="K179" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -7210,8 +7210,8 @@
       <c r="G180" t="n">
         <v>218.0</v>
       </c>
-      <c r="H180" t="s">
-        <v>14</v>
+      <c r="H180" t="b">
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>3.0</v>
@@ -7219,8 +7219,8 @@
       <c r="J180" t="n">
         <v>1.0</v>
       </c>
-      <c r="K180" t="s">
-        <v>14</v>
+      <c r="K180" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -7245,8 +7245,8 @@
       <c r="G181" t="n">
         <v>218.0</v>
       </c>
-      <c r="H181" t="s">
-        <v>14</v>
+      <c r="H181" t="b">
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>3.0</v>
@@ -7254,8 +7254,8 @@
       <c r="J181" t="n">
         <v>1.0</v>
       </c>
-      <c r="K181" t="s">
-        <v>14</v>
+      <c r="K181" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -7280,8 +7280,8 @@
       <c r="G182" t="n">
         <v>218.0</v>
       </c>
-      <c r="H182" t="s">
-        <v>14</v>
+      <c r="H182" t="b">
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>3.0</v>
@@ -7289,8 +7289,8 @@
       <c r="J182" t="n">
         <v>1.0</v>
       </c>
-      <c r="K182" t="s">
-        <v>14</v>
+      <c r="K182" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -7315,8 +7315,8 @@
       <c r="G183" t="n">
         <v>218.0</v>
       </c>
-      <c r="H183" t="s">
-        <v>14</v>
+      <c r="H183" t="b">
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>3.0</v>
@@ -7324,8 +7324,8 @@
       <c r="J183" t="n">
         <v>1.0</v>
       </c>
-      <c r="K183" t="s">
-        <v>14</v>
+      <c r="K183" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -7350,8 +7350,8 @@
       <c r="G184" t="n">
         <v>218.0</v>
       </c>
-      <c r="H184" t="s">
-        <v>14</v>
+      <c r="H184" t="b">
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>3.0</v>
@@ -7359,8 +7359,8 @@
       <c r="J184" t="n">
         <v>1.0</v>
       </c>
-      <c r="K184" t="s">
-        <v>14</v>
+      <c r="K184" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -7385,8 +7385,8 @@
       <c r="G185" t="n">
         <v>218.0</v>
       </c>
-      <c r="H185" t="s">
-        <v>14</v>
+      <c r="H185" t="b">
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>3.0</v>
@@ -7394,8 +7394,8 @@
       <c r="J185" t="n">
         <v>1.0</v>
       </c>
-      <c r="K185" t="s">
-        <v>14</v>
+      <c r="K185" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -7420,8 +7420,8 @@
       <c r="G186" t="n">
         <v>218.0</v>
       </c>
-      <c r="H186" t="s">
-        <v>14</v>
+      <c r="H186" t="b">
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>27.0</v>
@@ -7429,8 +7429,8 @@
       <c r="J186" t="n">
         <v>3.0</v>
       </c>
-      <c r="K186" t="s">
-        <v>14</v>
+      <c r="K186" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -7455,8 +7455,8 @@
       <c r="G187" t="n">
         <v>218.0</v>
       </c>
-      <c r="H187" t="s">
-        <v>14</v>
+      <c r="H187" t="b">
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>12.0</v>
@@ -7464,8 +7464,8 @@
       <c r="J187" t="n">
         <v>3.0</v>
       </c>
-      <c r="K187" t="s">
-        <v>14</v>
+      <c r="K187" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -7490,8 +7490,8 @@
       <c r="G188" t="n">
         <v>218.0</v>
       </c>
-      <c r="H188" t="s">
-        <v>14</v>
+      <c r="H188" t="b">
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>30.0</v>
@@ -7499,8 +7499,8 @@
       <c r="J188" t="n">
         <v>4.0</v>
       </c>
-      <c r="K188" t="s">
-        <v>14</v>
+      <c r="K188" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -7525,8 +7525,8 @@
       <c r="G189" t="n">
         <v>218.0</v>
       </c>
-      <c r="H189" t="s">
-        <v>14</v>
+      <c r="H189" t="b">
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>10.0</v>
@@ -7534,8 +7534,8 @@
       <c r="J189" t="n">
         <v>3.0</v>
       </c>
-      <c r="K189" t="s">
-        <v>14</v>
+      <c r="K189" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -7560,8 +7560,8 @@
       <c r="G190" t="n">
         <v>218.0</v>
       </c>
-      <c r="H190" t="s">
-        <v>14</v>
+      <c r="H190" t="b">
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>24.0</v>
@@ -7569,8 +7569,8 @@
       <c r="J190" t="n">
         <v>7.0</v>
       </c>
-      <c r="K190" t="s">
-        <v>14</v>
+      <c r="K190" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -7595,8 +7595,8 @@
       <c r="G191" t="n">
         <v>218.0</v>
       </c>
-      <c r="H191" t="s">
-        <v>14</v>
+      <c r="H191" t="b">
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>242.0</v>
@@ -7604,8 +7604,8 @@
       <c r="J191" t="n">
         <v>78.0</v>
       </c>
-      <c r="K191" t="s">
-        <v>14</v>
+      <c r="K191" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -7630,8 +7630,8 @@
       <c r="G192" t="n">
         <v>218.0</v>
       </c>
-      <c r="H192" t="s">
-        <v>14</v>
+      <c r="H192" t="b">
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>36.0</v>
@@ -7639,8 +7639,8 @@
       <c r="J192" t="n">
         <v>13.0</v>
       </c>
-      <c r="K192" t="s">
-        <v>14</v>
+      <c r="K192" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -7665,8 +7665,8 @@
       <c r="G193" t="n">
         <v>218.0</v>
       </c>
-      <c r="H193" t="s">
-        <v>14</v>
+      <c r="H193" t="b">
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>3.0</v>
@@ -7674,8 +7674,8 @@
       <c r="J193" t="n">
         <v>1.0</v>
       </c>
-      <c r="K193" t="s">
-        <v>14</v>
+      <c r="K193" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -7700,8 +7700,8 @@
       <c r="G194" t="n">
         <v>218.0</v>
       </c>
-      <c r="H194" t="s">
-        <v>14</v>
+      <c r="H194" t="b">
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>3.0</v>
@@ -7709,8 +7709,8 @@
       <c r="J194" t="n">
         <v>1.0</v>
       </c>
-      <c r="K194" t="s">
-        <v>14</v>
+      <c r="K194" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -7735,8 +7735,8 @@
       <c r="G195" t="n">
         <v>218.0</v>
       </c>
-      <c r="H195" t="s">
-        <v>14</v>
+      <c r="H195" t="b">
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>3.0</v>
@@ -7744,8 +7744,8 @@
       <c r="J195" t="n">
         <v>1.0</v>
       </c>
-      <c r="K195" t="s">
-        <v>14</v>
+      <c r="K195" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -7770,8 +7770,8 @@
       <c r="G196" t="n">
         <v>218.0</v>
       </c>
-      <c r="H196" t="s">
-        <v>14</v>
+      <c r="H196" t="b">
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>3.0</v>
@@ -7779,8 +7779,8 @@
       <c r="J196" t="n">
         <v>1.0</v>
       </c>
-      <c r="K196" t="s">
-        <v>14</v>
+      <c r="K196" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -7805,8 +7805,8 @@
       <c r="G197" t="n">
         <v>218.0</v>
       </c>
-      <c r="H197" t="s">
-        <v>14</v>
+      <c r="H197" t="b">
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>28.0</v>
@@ -7814,8 +7814,8 @@
       <c r="J197" t="n">
         <v>13.0</v>
       </c>
-      <c r="K197" t="s">
-        <v>14</v>
+      <c r="K197" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -7840,8 +7840,8 @@
       <c r="G198" t="n">
         <v>218.0</v>
       </c>
-      <c r="H198" t="s">
-        <v>14</v>
+      <c r="H198" t="b">
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>3.0</v>
@@ -7849,8 +7849,8 @@
       <c r="J198" t="n">
         <v>1.0</v>
       </c>
-      <c r="K198" t="s">
-        <v>14</v>
+      <c r="K198" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -7875,8 +7875,8 @@
       <c r="G199" t="n">
         <v>218.0</v>
       </c>
-      <c r="H199" t="s">
-        <v>14</v>
+      <c r="H199" t="b">
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>3.0</v>
@@ -7884,8 +7884,8 @@
       <c r="J199" t="n">
         <v>1.0</v>
       </c>
-      <c r="K199" t="s">
-        <v>14</v>
+      <c r="K199" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -7910,8 +7910,8 @@
       <c r="G200" t="n">
         <v>218.0</v>
       </c>
-      <c r="H200" t="s">
-        <v>14</v>
+      <c r="H200" t="b">
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>8.0</v>
@@ -7919,8 +7919,8 @@
       <c r="J200" t="n">
         <v>1.0</v>
       </c>
-      <c r="K200" t="s">
-        <v>14</v>
+      <c r="K200" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -7945,8 +7945,8 @@
       <c r="G201" t="n">
         <v>218.0</v>
       </c>
-      <c r="H201" t="s">
-        <v>14</v>
+      <c r="H201" t="b">
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>11.0</v>
@@ -7954,8 +7954,8 @@
       <c r="J201" t="n">
         <v>1.0</v>
       </c>
-      <c r="K201" t="s">
-        <v>14</v>
+      <c r="K201" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -7980,8 +7980,8 @@
       <c r="G202" t="n">
         <v>218.0</v>
       </c>
-      <c r="H202" t="s">
-        <v>14</v>
+      <c r="H202" t="b">
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>11.0</v>
@@ -7989,8 +7989,8 @@
       <c r="J202" t="n">
         <v>1.0</v>
       </c>
-      <c r="K202" t="s">
-        <v>14</v>
+      <c r="K202" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -8015,8 +8015,8 @@
       <c r="G203" t="n">
         <v>218.0</v>
       </c>
-      <c r="H203" t="s">
-        <v>14</v>
+      <c r="H203" t="b">
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>3.0</v>
@@ -8024,8 +8024,8 @@
       <c r="J203" t="n">
         <v>1.0</v>
       </c>
-      <c r="K203" t="s">
-        <v>14</v>
+      <c r="K203" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -8050,8 +8050,8 @@
       <c r="G204" t="n">
         <v>218.0</v>
       </c>
-      <c r="H204" t="s">
-        <v>14</v>
+      <c r="H204" t="b">
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>3.0</v>
@@ -8059,8 +8059,8 @@
       <c r="J204" t="n">
         <v>1.0</v>
       </c>
-      <c r="K204" t="s">
-        <v>14</v>
+      <c r="K204" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -8085,8 +8085,8 @@
       <c r="G205" t="n">
         <v>218.0</v>
       </c>
-      <c r="H205" t="s">
-        <v>14</v>
+      <c r="H205" t="b">
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>53.0</v>
@@ -8094,8 +8094,8 @@
       <c r="J205" t="n">
         <v>11.0</v>
       </c>
-      <c r="K205" t="s">
-        <v>14</v>
+      <c r="K205" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -8120,8 +8120,8 @@
       <c r="G206" t="n">
         <v>218.0</v>
       </c>
-      <c r="H206" t="s">
-        <v>14</v>
+      <c r="H206" t="b">
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>28.0</v>
@@ -8129,8 +8129,8 @@
       <c r="J206" t="n">
         <v>7.0</v>
       </c>
-      <c r="K206" t="s">
-        <v>14</v>
+      <c r="K206" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -8155,8 +8155,8 @@
       <c r="G207" t="n">
         <v>218.0</v>
       </c>
-      <c r="H207" t="s">
-        <v>14</v>
+      <c r="H207" t="b">
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>46.0</v>
@@ -8164,8 +8164,8 @@
       <c r="J207" t="n">
         <v>10.0</v>
       </c>
-      <c r="K207" t="s">
-        <v>14</v>
+      <c r="K207" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -8190,8 +8190,8 @@
       <c r="G208" t="n">
         <v>218.0</v>
       </c>
-      <c r="H208" t="s">
-        <v>14</v>
+      <c r="H208" t="b">
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>108.0</v>
@@ -8199,8 +8199,8 @@
       <c r="J208" t="n">
         <v>44.0</v>
       </c>
-      <c r="K208" t="s">
-        <v>14</v>
+      <c r="K208" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -8225,8 +8225,8 @@
       <c r="G209" t="n">
         <v>218.0</v>
       </c>
-      <c r="H209" t="s">
-        <v>14</v>
+      <c r="H209" t="b">
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>16.0</v>
@@ -8234,8 +8234,8 @@
       <c r="J209" t="n">
         <v>4.0</v>
       </c>
-      <c r="K209" t="s">
-        <v>14</v>
+      <c r="K209" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -8260,8 +8260,8 @@
       <c r="G210" t="n">
         <v>218.0</v>
       </c>
-      <c r="H210" t="s">
-        <v>14</v>
+      <c r="H210" t="b">
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>4.0</v>
@@ -8269,8 +8269,8 @@
       <c r="J210" t="n">
         <v>1.0</v>
       </c>
-      <c r="K210" t="s">
-        <v>14</v>
+      <c r="K210" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -8295,8 +8295,8 @@
       <c r="G211" t="n">
         <v>2.0</v>
       </c>
-      <c r="H211" t="s">
-        <v>14</v>
+      <c r="H211" t="b">
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>6.0</v>
@@ -8304,8 +8304,8 @@
       <c r="J211" t="n">
         <v>1.0</v>
       </c>
-      <c r="K211" t="s">
-        <v>14</v>
+      <c r="K211" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -8330,8 +8330,8 @@
       <c r="G212" t="n">
         <v>2.0</v>
       </c>
-      <c r="H212" t="s">
-        <v>14</v>
+      <c r="H212" t="b">
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>2.0</v>
@@ -8339,8 +8339,8 @@
       <c r="J212" t="n">
         <v>1.0</v>
       </c>
-      <c r="K212" t="s">
-        <v>14</v>
+      <c r="K212" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -8365,8 +8365,8 @@
       <c r="G213" t="n">
         <v>4.0</v>
       </c>
-      <c r="H213" t="s">
-        <v>14</v>
+      <c r="H213" t="b">
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>5.0</v>
@@ -8374,8 +8374,8 @@
       <c r="J213" t="n">
         <v>1.0</v>
       </c>
-      <c r="K213" t="s">
-        <v>14</v>
+      <c r="K213" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -8400,8 +8400,8 @@
       <c r="G214" t="n">
         <v>4.0</v>
       </c>
-      <c r="H214" t="s">
-        <v>14</v>
+      <c r="H214" t="b">
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>10.0</v>
@@ -8409,8 +8409,8 @@
       <c r="J214" t="n">
         <v>2.0</v>
       </c>
-      <c r="K214" t="s">
-        <v>14</v>
+      <c r="K214" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -8435,8 +8435,8 @@
       <c r="G215" t="n">
         <v>4.0</v>
       </c>
-      <c r="H215" t="s">
-        <v>14</v>
+      <c r="H215" t="b">
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>5.0</v>
@@ -8444,8 +8444,8 @@
       <c r="J215" t="n">
         <v>1.0</v>
       </c>
-      <c r="K215" t="s">
-        <v>14</v>
+      <c r="K215" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -8470,8 +8470,8 @@
       <c r="G216" t="n">
         <v>3.0</v>
       </c>
-      <c r="H216" t="s">
-        <v>14</v>
+      <c r="H216" t="b">
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>3.0</v>
@@ -8479,8 +8479,8 @@
       <c r="J216" t="n">
         <v>1.0</v>
       </c>
-      <c r="K216" t="s">
-        <v>14</v>
+      <c r="K216" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -8505,8 +8505,8 @@
       <c r="G217" t="n">
         <v>3.0</v>
       </c>
-      <c r="H217" t="s">
-        <v>14</v>
+      <c r="H217" t="b">
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>7.0</v>
@@ -8514,8 +8514,8 @@
       <c r="J217" t="n">
         <v>2.0</v>
       </c>
-      <c r="K217" t="s">
-        <v>14</v>
+      <c r="K217" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -8540,8 +8540,8 @@
       <c r="G218" t="n">
         <v>49.0</v>
       </c>
-      <c r="H218" t="s">
-        <v>14</v>
+      <c r="H218" t="b">
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>15.0</v>
@@ -8549,8 +8549,8 @@
       <c r="J218" t="n">
         <v>3.0</v>
       </c>
-      <c r="K218" t="s">
-        <v>14</v>
+      <c r="K218" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -8575,8 +8575,8 @@
       <c r="G219" t="n">
         <v>49.0</v>
       </c>
-      <c r="H219" t="s">
-        <v>14</v>
+      <c r="H219" t="b">
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>102.0</v>
@@ -8584,8 +8584,8 @@
       <c r="J219" t="n">
         <v>37.0</v>
       </c>
-      <c r="K219" t="s">
-        <v>14</v>
+      <c r="K219" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -8610,8 +8610,8 @@
       <c r="G220" t="n">
         <v>49.0</v>
       </c>
-      <c r="H220" t="s">
-        <v>14</v>
+      <c r="H220" t="b">
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>34.0</v>
@@ -8619,8 +8619,8 @@
       <c r="J220" t="n">
         <v>7.0</v>
       </c>
-      <c r="K220" t="s">
-        <v>14</v>
+      <c r="K220" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -8645,8 +8645,8 @@
       <c r="G221" t="n">
         <v>49.0</v>
       </c>
-      <c r="H221" t="s">
-        <v>14</v>
+      <c r="H221" t="b">
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>3.0</v>
@@ -8654,8 +8654,8 @@
       <c r="J221" t="n">
         <v>1.0</v>
       </c>
-      <c r="K221" t="s">
-        <v>14</v>
+      <c r="K221" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -8680,8 +8680,8 @@
       <c r="G222" t="n">
         <v>49.0</v>
       </c>
-      <c r="H222" t="s">
-        <v>14</v>
+      <c r="H222" t="b">
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>6.0</v>
@@ -8689,8 +8689,8 @@
       <c r="J222" t="n">
         <v>1.0</v>
       </c>
-      <c r="K222" t="s">
-        <v>14</v>
+      <c r="K222" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -8715,8 +8715,8 @@
       <c r="G223" t="n">
         <v>252.0</v>
       </c>
-      <c r="H223" t="s">
-        <v>14</v>
+      <c r="H223" t="b">
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>15.0</v>
@@ -8724,8 +8724,8 @@
       <c r="J223" t="n">
         <v>5.0</v>
       </c>
-      <c r="K223" t="s">
-        <v>14</v>
+      <c r="K223" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -8750,8 +8750,8 @@
       <c r="G224" t="n">
         <v>252.0</v>
       </c>
-      <c r="H224" t="s">
-        <v>14</v>
+      <c r="H224" t="b">
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>19.0</v>
@@ -8759,8 +8759,8 @@
       <c r="J224" t="n">
         <v>7.0</v>
       </c>
-      <c r="K224" t="s">
-        <v>14</v>
+      <c r="K224" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -8785,8 +8785,8 @@
       <c r="G225" t="n">
         <v>252.0</v>
       </c>
-      <c r="H225" t="s">
-        <v>14</v>
+      <c r="H225" t="b">
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>18.0</v>
@@ -8794,8 +8794,8 @@
       <c r="J225" t="n">
         <v>8.0</v>
       </c>
-      <c r="K225" t="s">
-        <v>14</v>
+      <c r="K225" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -8820,8 +8820,8 @@
       <c r="G226" t="n">
         <v>252.0</v>
       </c>
-      <c r="H226" t="s">
-        <v>14</v>
+      <c r="H226" t="b">
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>22.0</v>
@@ -8829,8 +8829,8 @@
       <c r="J226" t="n">
         <v>10.0</v>
       </c>
-      <c r="K226" t="s">
-        <v>14</v>
+      <c r="K226" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -8855,8 +8855,8 @@
       <c r="G227" t="n">
         <v>252.0</v>
       </c>
-      <c r="H227" t="s">
-        <v>14</v>
+      <c r="H227" t="b">
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>22.0</v>
@@ -8864,8 +8864,8 @@
       <c r="J227" t="n">
         <v>10.0</v>
       </c>
-      <c r="K227" t="s">
-        <v>14</v>
+      <c r="K227" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -8890,8 +8890,8 @@
       <c r="G228" t="n">
         <v>252.0</v>
       </c>
-      <c r="H228" t="s">
-        <v>14</v>
+      <c r="H228" t="b">
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>18.0</v>
@@ -8899,8 +8899,8 @@
       <c r="J228" t="n">
         <v>8.0</v>
       </c>
-      <c r="K228" t="s">
-        <v>14</v>
+      <c r="K228" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -8925,8 +8925,8 @@
       <c r="G229" t="n">
         <v>252.0</v>
       </c>
-      <c r="H229" t="s">
-        <v>14</v>
+      <c r="H229" t="b">
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>7.0</v>
@@ -8934,8 +8934,8 @@
       <c r="J229" t="n">
         <v>2.0</v>
       </c>
-      <c r="K229" t="s">
-        <v>14</v>
+      <c r="K229" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -8960,8 +8960,8 @@
       <c r="G230" t="n">
         <v>252.0</v>
       </c>
-      <c r="H230" t="s">
-        <v>14</v>
+      <c r="H230" t="b">
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>63.0</v>
@@ -8969,8 +8969,8 @@
       <c r="J230" t="n">
         <v>17.0</v>
       </c>
-      <c r="K230" t="s">
-        <v>14</v>
+      <c r="K230" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -8995,8 +8995,8 @@
       <c r="G231" t="n">
         <v>252.0</v>
       </c>
-      <c r="H231" t="s">
-        <v>14</v>
+      <c r="H231" t="b">
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>37.0</v>
@@ -9004,8 +9004,8 @@
       <c r="J231" t="n">
         <v>15.0</v>
       </c>
-      <c r="K231" t="s">
-        <v>14</v>
+      <c r="K231" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -9030,8 +9030,8 @@
       <c r="G232" t="n">
         <v>252.0</v>
       </c>
-      <c r="H232" t="s">
-        <v>14</v>
+      <c r="H232" t="b">
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>38.0</v>
@@ -9039,8 +9039,8 @@
       <c r="J232" t="n">
         <v>14.0</v>
       </c>
-      <c r="K232" t="s">
-        <v>14</v>
+      <c r="K232" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -9065,8 +9065,8 @@
       <c r="G233" t="n">
         <v>252.0</v>
       </c>
-      <c r="H233" t="s">
-        <v>14</v>
+      <c r="H233" t="b">
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>25.0</v>
@@ -9074,8 +9074,8 @@
       <c r="J233" t="n">
         <v>7.0</v>
       </c>
-      <c r="K233" t="s">
-        <v>14</v>
+      <c r="K233" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -9100,8 +9100,8 @@
       <c r="G234" t="n">
         <v>252.0</v>
       </c>
-      <c r="H234" t="s">
-        <v>14</v>
+      <c r="H234" t="b">
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>11.0</v>
@@ -9109,8 +9109,8 @@
       <c r="J234" t="n">
         <v>3.0</v>
       </c>
-      <c r="K234" t="s">
-        <v>14</v>
+      <c r="K234" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -9135,8 +9135,8 @@
       <c r="G235" t="n">
         <v>252.0</v>
       </c>
-      <c r="H235" t="s">
-        <v>14</v>
+      <c r="H235" t="b">
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>8.0</v>
@@ -9144,8 +9144,8 @@
       <c r="J235" t="n">
         <v>1.0</v>
       </c>
-      <c r="K235" t="s">
-        <v>14</v>
+      <c r="K235" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -9170,8 +9170,8 @@
       <c r="G236" t="n">
         <v>252.0</v>
       </c>
-      <c r="H236" t="s">
-        <v>14</v>
+      <c r="H236" t="b">
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>10.0</v>
@@ -9179,8 +9179,8 @@
       <c r="J236" t="n">
         <v>3.0</v>
       </c>
-      <c r="K236" t="s">
-        <v>14</v>
+      <c r="K236" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -9205,8 +9205,8 @@
       <c r="G237" t="n">
         <v>252.0</v>
       </c>
-      <c r="H237" t="s">
-        <v>14</v>
+      <c r="H237" t="b">
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>23.0</v>
@@ -9214,8 +9214,8 @@
       <c r="J237" t="n">
         <v>4.0</v>
       </c>
-      <c r="K237" t="s">
-        <v>14</v>
+      <c r="K237" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -9240,8 +9240,8 @@
       <c r="G238" t="n">
         <v>252.0</v>
       </c>
-      <c r="H238" t="s">
-        <v>14</v>
+      <c r="H238" t="b">
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>17.0</v>
@@ -9249,8 +9249,8 @@
       <c r="J238" t="n">
         <v>2.0</v>
       </c>
-      <c r="K238" t="s">
-        <v>14</v>
+      <c r="K238" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -9275,8 +9275,8 @@
       <c r="G239" t="n">
         <v>252.0</v>
       </c>
-      <c r="H239" t="s">
-        <v>14</v>
+      <c r="H239" t="b">
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>10.0</v>
@@ -9284,8 +9284,8 @@
       <c r="J239" t="n">
         <v>3.0</v>
       </c>
-      <c r="K239" t="s">
-        <v>14</v>
+      <c r="K239" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -9310,8 +9310,8 @@
       <c r="G240" t="n">
         <v>252.0</v>
       </c>
-      <c r="H240" t="s">
-        <v>14</v>
+      <c r="H240" t="b">
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>137.0</v>
@@ -9319,8 +9319,8 @@
       <c r="J240" t="n">
         <v>103.0</v>
       </c>
-      <c r="K240" t="s">
-        <v>14</v>
+      <c r="K240" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -9345,8 +9345,8 @@
       <c r="G241" t="n">
         <v>252.0</v>
       </c>
-      <c r="H241" t="s">
-        <v>14</v>
+      <c r="H241" t="b">
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>3.0</v>
@@ -9354,8 +9354,8 @@
       <c r="J241" t="n">
         <v>1.0</v>
       </c>
-      <c r="K241" t="s">
-        <v>14</v>
+      <c r="K241" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -9380,8 +9380,8 @@
       <c r="G242" t="n">
         <v>252.0</v>
       </c>
-      <c r="H242" t="s">
-        <v>14</v>
+      <c r="H242" t="b">
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>57.0</v>
@@ -9389,8 +9389,8 @@
       <c r="J242" t="n">
         <v>12.0</v>
       </c>
-      <c r="K242" t="s">
-        <v>14</v>
+      <c r="K242" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -9415,8 +9415,8 @@
       <c r="G243" t="n">
         <v>252.0</v>
       </c>
-      <c r="H243" t="s">
-        <v>14</v>
+      <c r="H243" t="b">
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>11.0</v>
@@ -9424,8 +9424,8 @@
       <c r="J243" t="n">
         <v>3.0</v>
       </c>
-      <c r="K243" t="s">
-        <v>14</v>
+      <c r="K243" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -9450,8 +9450,8 @@
       <c r="G244" t="n">
         <v>252.0</v>
       </c>
-      <c r="H244" t="s">
-        <v>14</v>
+      <c r="H244" t="b">
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>10.0</v>
@@ -9459,8 +9459,8 @@
       <c r="J244" t="n">
         <v>4.0</v>
       </c>
-      <c r="K244" t="s">
-        <v>14</v>
+      <c r="K244" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -9485,8 +9485,8 @@
       <c r="G245" t="n">
         <v>252.0</v>
       </c>
-      <c r="H245" t="s">
-        <v>14</v>
+      <c r="H245" t="b">
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>10.0</v>
@@ -9494,8 +9494,8 @@
       <c r="J245" t="n">
         <v>4.0</v>
       </c>
-      <c r="K245" t="s">
-        <v>14</v>
+      <c r="K245" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -9520,8 +9520,8 @@
       <c r="G246" t="n">
         <v>252.0</v>
       </c>
-      <c r="H246" t="s">
-        <v>14</v>
+      <c r="H246" t="b">
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>15.0</v>
@@ -9529,8 +9529,8 @@
       <c r="J246" t="n">
         <v>6.0</v>
       </c>
-      <c r="K246" t="s">
-        <v>14</v>
+      <c r="K246" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CodeQualityAssessor/jasml_0.10.xlsx
+++ b/CodeQualityAssessor/jasml_0.10.xlsx
@@ -62,7 +62,7 @@
     <t>Attribute(int attribute_name_index, int attribute_length, byte[] attrInfo)</t>
   </si>
   <si>
-    <t>Attribute_Code</t>
+    <t>Attribute_Code.Opcode.ExceptionTableItem</t>
   </si>
   <si>
     <t>Attribute_Code()</t>
@@ -98,7 +98,7 @@
     <t>Attribute_Exceptions(int attrLength, int number_of_exceptions, int[] exception_index_table)</t>
   </si>
   <si>
-    <t>Attribute_InnerClasses</t>
+    <t>Attribute_InnerClasses.InnerClass</t>
   </si>
   <si>
     <t>Attribute_InnerClasses(int attrLength, int number_of_classes, InnerClass[] innerClasses)</t>
@@ -107,7 +107,7 @@
     <t>InnerClass(int inner_class_info_index, int outer_class_info_index, int inner_name_index, int inner_class_access_flags)</t>
   </si>
   <si>
-    <t>Attribute_LineNumberTable</t>
+    <t>Attribute_LineNumberTable.LineNumber</t>
   </si>
   <si>
     <t>Attribute_LineNumberTable(int attrLength, int line_number_table_length, LineNumber[] lineNumberTable)</t>
@@ -116,7 +116,7 @@
     <t>LineNumber(int start_pc, int line_number)</t>
   </si>
   <si>
-    <t>Attribute_LocalVariableTable</t>
+    <t>Attribute_LocalVariableTable.LocalVariable</t>
   </si>
   <si>
     <t>Attribute_LocalVariableTable(int attrLength, int local_variable_table_length, LocalVariable[] local_variable_table)</t>
@@ -488,7 +488,7 @@
     <t>main(String[] s) throws Exception</t>
   </si>
   <si>
-    <t>SourceCodeParser</t>
+    <t>SourceCodeParser.LabeledInstructions.OpcodeWrapper</t>
   </si>
   <si>
     <t>SourceCodeParser(File file) throws ParsingException</t>
@@ -980,8 +980,8 @@
       <c r="G2" t="n">
         <v>4.0</v>
       </c>
-      <c r="H2" t="b">
-        <v>1</v>
+      <c r="H2" t="s">
+        <v>14</v>
       </c>
       <c r="I2" t="n">
         <v>8.0</v>
@@ -989,8 +989,8 @@
       <c r="J2" t="n">
         <v>2.0</v>
       </c>
-      <c r="K2" t="b">
-        <v>0</v>
+      <c r="K2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1015,8 +1015,8 @@
       <c r="G3" t="n">
         <v>4.0</v>
       </c>
-      <c r="H3" t="b">
-        <v>1</v>
+      <c r="H3" t="s">
+        <v>14</v>
       </c>
       <c r="I3" t="n">
         <v>8.0</v>
@@ -1024,8 +1024,8 @@
       <c r="J3" t="n">
         <v>2.0</v>
       </c>
-      <c r="K3" t="b">
-        <v>0</v>
+      <c r="K3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1050,8 +1050,8 @@
       <c r="G4" t="n">
         <v>5.0</v>
       </c>
-      <c r="H4" t="b">
-        <v>1</v>
+      <c r="H4" t="s">
+        <v>14</v>
       </c>
       <c r="I4" t="n">
         <v>3.0</v>
@@ -1059,8 +1059,8 @@
       <c r="J4" t="n">
         <v>1.0</v>
       </c>
-      <c r="K4" t="b">
-        <v>0</v>
+      <c r="K4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -1085,8 +1085,8 @@
       <c r="G5" t="n">
         <v>5.0</v>
       </c>
-      <c r="H5" t="b">
-        <v>1</v>
+      <c r="H5" t="s">
+        <v>14</v>
       </c>
       <c r="I5" t="n">
         <v>11.0</v>
@@ -1094,8 +1094,8 @@
       <c r="J5" t="n">
         <v>1.0</v>
       </c>
-      <c r="K5" t="b">
-        <v>0</v>
+      <c r="K5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -1120,8 +1120,8 @@
       <c r="G6" t="n">
         <v>5.0</v>
       </c>
-      <c r="H6" t="b">
-        <v>1</v>
+      <c r="H6" t="s">
+        <v>14</v>
       </c>
       <c r="I6" t="n">
         <v>6.0</v>
@@ -1129,8 +1129,8 @@
       <c r="J6" t="n">
         <v>1.0</v>
       </c>
-      <c r="K6" t="b">
-        <v>0</v>
+      <c r="K6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -1155,8 +1155,8 @@
       <c r="G7" t="n">
         <v>5.0</v>
       </c>
-      <c r="H7" t="b">
-        <v>1</v>
+      <c r="H7" t="s">
+        <v>14</v>
       </c>
       <c r="I7" t="n">
         <v>10.0</v>
@@ -1164,8 +1164,8 @@
       <c r="J7" t="n">
         <v>1.0</v>
       </c>
-      <c r="K7" t="b">
-        <v>0</v>
+      <c r="K7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1190,8 +1190,8 @@
       <c r="G8" t="n">
         <v>5.0</v>
       </c>
-      <c r="H8" t="b">
-        <v>1</v>
+      <c r="H8" t="s">
+        <v>14</v>
       </c>
       <c r="I8" t="n">
         <v>2.0</v>
@@ -1199,8 +1199,8 @@
       <c r="J8" t="n">
         <v>1.0</v>
       </c>
-      <c r="K8" t="b">
-        <v>0</v>
+      <c r="K8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -1225,8 +1225,8 @@
       <c r="G9" t="n">
         <v>1.0</v>
       </c>
-      <c r="H9" t="b">
-        <v>1</v>
+      <c r="H9" t="s">
+        <v>14</v>
       </c>
       <c r="I9" t="n">
         <v>4.0</v>
@@ -1234,8 +1234,8 @@
       <c r="J9" t="n">
         <v>1.0</v>
       </c>
-      <c r="K9" t="b">
-        <v>0</v>
+      <c r="K9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1260,8 +1260,8 @@
       <c r="G10" t="n">
         <v>1.0</v>
       </c>
-      <c r="H10" t="b">
-        <v>1</v>
+      <c r="H10" t="s">
+        <v>14</v>
       </c>
       <c r="I10" t="n">
         <v>3.0</v>
@@ -1269,8 +1269,8 @@
       <c r="J10" t="n">
         <v>1.0</v>
       </c>
-      <c r="K10" t="b">
-        <v>0</v>
+      <c r="K10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -1295,8 +1295,8 @@
       <c r="G11" t="n">
         <v>1.0</v>
       </c>
-      <c r="H11" t="b">
-        <v>1</v>
+      <c r="H11" t="s">
+        <v>14</v>
       </c>
       <c r="I11" t="n">
         <v>5.0</v>
@@ -1304,8 +1304,8 @@
       <c r="J11" t="n">
         <v>1.0</v>
       </c>
-      <c r="K11" t="b">
-        <v>0</v>
+      <c r="K11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -1330,8 +1330,8 @@
       <c r="G12" t="n">
         <v>2.0</v>
       </c>
-      <c r="H12" t="b">
-        <v>1</v>
+      <c r="H12" t="s">
+        <v>14</v>
       </c>
       <c r="I12" t="n">
         <v>5.0</v>
@@ -1339,8 +1339,8 @@
       <c r="J12" t="n">
         <v>1.0</v>
       </c>
-      <c r="K12" t="b">
-        <v>0</v>
+      <c r="K12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1365,8 +1365,8 @@
       <c r="G13" t="n">
         <v>2.0</v>
       </c>
-      <c r="H13" t="b">
-        <v>1</v>
+      <c r="H13" t="s">
+        <v>14</v>
       </c>
       <c r="I13" t="n">
         <v>6.0</v>
@@ -1374,8 +1374,8 @@
       <c r="J13" t="n">
         <v>1.0</v>
       </c>
-      <c r="K13" t="b">
-        <v>0</v>
+      <c r="K13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -1400,8 +1400,8 @@
       <c r="G14" t="n">
         <v>2.0</v>
       </c>
-      <c r="H14" t="b">
-        <v>1</v>
+      <c r="H14" t="s">
+        <v>14</v>
       </c>
       <c r="I14" t="n">
         <v>5.0</v>
@@ -1409,8 +1409,8 @@
       <c r="J14" t="n">
         <v>1.0</v>
       </c>
-      <c r="K14" t="b">
-        <v>0</v>
+      <c r="K14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -1435,8 +1435,8 @@
       <c r="G15" t="n">
         <v>2.0</v>
       </c>
-      <c r="H15" t="b">
-        <v>1</v>
+      <c r="H15" t="s">
+        <v>14</v>
       </c>
       <c r="I15" t="n">
         <v>4.0</v>
@@ -1444,8 +1444,8 @@
       <c r="J15" t="n">
         <v>1.0</v>
       </c>
-      <c r="K15" t="b">
-        <v>0</v>
+      <c r="K15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -1470,8 +1470,8 @@
       <c r="G16" t="n">
         <v>2.0</v>
       </c>
-      <c r="H16" t="b">
-        <v>1</v>
+      <c r="H16" t="s">
+        <v>14</v>
       </c>
       <c r="I16" t="n">
         <v>5.0</v>
@@ -1479,8 +1479,8 @@
       <c r="J16" t="n">
         <v>1.0</v>
       </c>
-      <c r="K16" t="b">
-        <v>0</v>
+      <c r="K16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -1505,8 +1505,8 @@
       <c r="G17" t="n">
         <v>2.0</v>
       </c>
-      <c r="H17" t="b">
-        <v>1</v>
+      <c r="H17" t="s">
+        <v>14</v>
       </c>
       <c r="I17" t="n">
         <v>7.0</v>
@@ -1514,8 +1514,8 @@
       <c r="J17" t="n">
         <v>1.0</v>
       </c>
-      <c r="K17" t="b">
-        <v>0</v>
+      <c r="K17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -1540,8 +1540,8 @@
       <c r="G18" t="n">
         <v>1.0</v>
       </c>
-      <c r="H18" t="b">
-        <v>1</v>
+      <c r="H18" t="s">
+        <v>14</v>
       </c>
       <c r="I18" t="n">
         <v>4.0</v>
@@ -1549,8 +1549,8 @@
       <c r="J18" t="n">
         <v>1.0</v>
       </c>
-      <c r="K18" t="b">
-        <v>0</v>
+      <c r="K18" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -1575,8 +1575,8 @@
       <c r="G19" t="n">
         <v>1.0</v>
       </c>
-      <c r="H19" t="b">
-        <v>1</v>
+      <c r="H19" t="s">
+        <v>14</v>
       </c>
       <c r="I19" t="n">
         <v>3.0</v>
@@ -1584,8 +1584,8 @@
       <c r="J19" t="n">
         <v>1.0</v>
       </c>
-      <c r="K19" t="b">
-        <v>0</v>
+      <c r="K19" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -1610,8 +1610,8 @@
       <c r="G20" t="n">
         <v>7.0</v>
       </c>
-      <c r="H20" t="b">
-        <v>1</v>
+      <c r="H20" t="s">
+        <v>14</v>
       </c>
       <c r="I20" t="n">
         <v>3.0</v>
@@ -1619,8 +1619,8 @@
       <c r="J20" t="n">
         <v>1.0</v>
       </c>
-      <c r="K20" t="b">
-        <v>0</v>
+      <c r="K20" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -1645,8 +1645,8 @@
       <c r="G21" t="n">
         <v>7.0</v>
       </c>
-      <c r="H21" t="b">
-        <v>1</v>
+      <c r="H21" t="s">
+        <v>14</v>
       </c>
       <c r="I21" t="n">
         <v>3.0</v>
@@ -1654,8 +1654,8 @@
       <c r="J21" t="n">
         <v>1.0</v>
       </c>
-      <c r="K21" t="b">
-        <v>0</v>
+      <c r="K21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1680,8 +1680,8 @@
       <c r="G22" t="n">
         <v>7.0</v>
       </c>
-      <c r="H22" t="b">
-        <v>1</v>
+      <c r="H22" t="s">
+        <v>14</v>
       </c>
       <c r="I22" t="n">
         <v>3.0</v>
@@ -1689,8 +1689,8 @@
       <c r="J22" t="n">
         <v>1.0</v>
       </c>
-      <c r="K22" t="b">
-        <v>0</v>
+      <c r="K22" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -1715,8 +1715,8 @@
       <c r="G23" t="n">
         <v>7.0</v>
       </c>
-      <c r="H23" t="b">
-        <v>1</v>
+      <c r="H23" t="s">
+        <v>14</v>
       </c>
       <c r="I23" t="n">
         <v>16.0</v>
@@ -1724,8 +1724,8 @@
       <c r="J23" t="n">
         <v>4.0</v>
       </c>
-      <c r="K23" t="b">
-        <v>0</v>
+      <c r="K23" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -1750,8 +1750,8 @@
       <c r="G24" t="n">
         <v>1.0</v>
       </c>
-      <c r="H24" t="b">
-        <v>1</v>
+      <c r="H24" t="s">
+        <v>14</v>
       </c>
       <c r="I24" t="n">
         <v>4.0</v>
@@ -1759,8 +1759,8 @@
       <c r="J24" t="n">
         <v>1.0</v>
       </c>
-      <c r="K24" t="b">
-        <v>0</v>
+      <c r="K24" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -1785,8 +1785,8 @@
       <c r="G25" t="n">
         <v>2.0</v>
       </c>
-      <c r="H25" t="b">
-        <v>1</v>
+      <c r="H25" t="s">
+        <v>14</v>
       </c>
       <c r="I25" t="n">
         <v>4.0</v>
@@ -1794,8 +1794,8 @@
       <c r="J25" t="n">
         <v>1.0</v>
       </c>
-      <c r="K25" t="b">
-        <v>0</v>
+      <c r="K25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -1820,8 +1820,8 @@
       <c r="G26" t="n">
         <v>2.0</v>
       </c>
-      <c r="H26" t="b">
-        <v>1</v>
+      <c r="H26" t="s">
+        <v>14</v>
       </c>
       <c r="I26" t="n">
         <v>3.0</v>
@@ -1829,8 +1829,8 @@
       <c r="J26" t="n">
         <v>1.0</v>
       </c>
-      <c r="K26" t="b">
-        <v>0</v>
+      <c r="K26" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -1855,8 +1855,8 @@
       <c r="G27" t="n">
         <v>2.0</v>
       </c>
-      <c r="H27" t="b">
-        <v>1</v>
+      <c r="H27" t="s">
+        <v>14</v>
       </c>
       <c r="I27" t="n">
         <v>4.0</v>
@@ -1864,8 +1864,8 @@
       <c r="J27" t="n">
         <v>1.0</v>
       </c>
-      <c r="K27" t="b">
-        <v>0</v>
+      <c r="K27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -1890,8 +1890,8 @@
       <c r="G28" t="n">
         <v>2.0</v>
       </c>
-      <c r="H28" t="b">
-        <v>1</v>
+      <c r="H28" t="s">
+        <v>14</v>
       </c>
       <c r="I28" t="n">
         <v>3.0</v>
@@ -1899,8 +1899,8 @@
       <c r="J28" t="n">
         <v>1.0</v>
       </c>
-      <c r="K28" t="b">
-        <v>0</v>
+      <c r="K28" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -1925,8 +1925,8 @@
       <c r="G29" t="n">
         <v>2.0</v>
       </c>
-      <c r="H29" t="b">
-        <v>1</v>
+      <c r="H29" t="s">
+        <v>14</v>
       </c>
       <c r="I29" t="n">
         <v>5.0</v>
@@ -1934,8 +1934,8 @@
       <c r="J29" t="n">
         <v>1.0</v>
       </c>
-      <c r="K29" t="b">
-        <v>0</v>
+      <c r="K29" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -1960,8 +1960,8 @@
       <c r="G30" t="n">
         <v>2.0</v>
       </c>
-      <c r="H30" t="b">
-        <v>1</v>
+      <c r="H30" t="s">
+        <v>14</v>
       </c>
       <c r="I30" t="n">
         <v>3.0</v>
@@ -1969,8 +1969,8 @@
       <c r="J30" t="n">
         <v>1.0</v>
       </c>
-      <c r="K30" t="b">
-        <v>0</v>
+      <c r="K30" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -1995,8 +1995,8 @@
       <c r="G31" t="n">
         <v>2.0</v>
       </c>
-      <c r="H31" t="b">
-        <v>1</v>
+      <c r="H31" t="s">
+        <v>14</v>
       </c>
       <c r="I31" t="n">
         <v>4.0</v>
@@ -2004,8 +2004,8 @@
       <c r="J31" t="n">
         <v>1.0</v>
       </c>
-      <c r="K31" t="b">
-        <v>0</v>
+      <c r="K31" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -2030,8 +2030,8 @@
       <c r="G32" t="n">
         <v>2.0</v>
       </c>
-      <c r="H32" t="b">
-        <v>1</v>
+      <c r="H32" t="s">
+        <v>14</v>
       </c>
       <c r="I32" t="n">
         <v>3.0</v>
@@ -2039,8 +2039,8 @@
       <c r="J32" t="n">
         <v>1.0</v>
       </c>
-      <c r="K32" t="b">
-        <v>0</v>
+      <c r="K32" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -2065,8 +2065,8 @@
       <c r="G33" t="n">
         <v>2.0</v>
       </c>
-      <c r="H33" t="b">
-        <v>1</v>
+      <c r="H33" t="s">
+        <v>14</v>
       </c>
       <c r="I33" t="n">
         <v>4.0</v>
@@ -2074,8 +2074,8 @@
       <c r="J33" t="n">
         <v>1.0</v>
       </c>
-      <c r="K33" t="b">
-        <v>0</v>
+      <c r="K33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -2100,8 +2100,8 @@
       <c r="G34" t="n">
         <v>2.0</v>
       </c>
-      <c r="H34" t="b">
-        <v>1</v>
+      <c r="H34" t="s">
+        <v>14</v>
       </c>
       <c r="I34" t="n">
         <v>3.0</v>
@@ -2109,8 +2109,8 @@
       <c r="J34" t="n">
         <v>1.0</v>
       </c>
-      <c r="K34" t="b">
-        <v>0</v>
+      <c r="K34" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -2135,8 +2135,8 @@
       <c r="G35" t="n">
         <v>2.0</v>
       </c>
-      <c r="H35" t="b">
-        <v>1</v>
+      <c r="H35" t="s">
+        <v>14</v>
       </c>
       <c r="I35" t="n">
         <v>5.0</v>
@@ -2144,8 +2144,8 @@
       <c r="J35" t="n">
         <v>1.0</v>
       </c>
-      <c r="K35" t="b">
-        <v>0</v>
+      <c r="K35" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -2170,8 +2170,8 @@
       <c r="G36" t="n">
         <v>2.0</v>
       </c>
-      <c r="H36" t="b">
-        <v>1</v>
+      <c r="H36" t="s">
+        <v>14</v>
       </c>
       <c r="I36" t="n">
         <v>3.0</v>
@@ -2179,8 +2179,8 @@
       <c r="J36" t="n">
         <v>1.0</v>
       </c>
-      <c r="K36" t="b">
-        <v>0</v>
+      <c r="K36" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -2205,8 +2205,8 @@
       <c r="G37" t="n">
         <v>3.0</v>
       </c>
-      <c r="H37" t="b">
-        <v>1</v>
+      <c r="H37" t="s">
+        <v>14</v>
       </c>
       <c r="I37" t="n">
         <v>4.0</v>
@@ -2214,8 +2214,8 @@
       <c r="J37" t="n">
         <v>1.0</v>
       </c>
-      <c r="K37" t="b">
-        <v>0</v>
+      <c r="K37" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -2240,8 +2240,8 @@
       <c r="G38" t="n">
         <v>3.0</v>
       </c>
-      <c r="H38" t="b">
-        <v>1</v>
+      <c r="H38" t="s">
+        <v>14</v>
       </c>
       <c r="I38" t="n">
         <v>3.0</v>
@@ -2249,8 +2249,8 @@
       <c r="J38" t="n">
         <v>1.0</v>
       </c>
-      <c r="K38" t="b">
-        <v>0</v>
+      <c r="K38" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -2275,8 +2275,8 @@
       <c r="G39" t="n">
         <v>3.0</v>
       </c>
-      <c r="H39" t="b">
-        <v>1</v>
+      <c r="H39" t="s">
+        <v>14</v>
       </c>
       <c r="I39" t="n">
         <v>3.0</v>
@@ -2284,8 +2284,8 @@
       <c r="J39" t="n">
         <v>1.0</v>
       </c>
-      <c r="K39" t="b">
-        <v>0</v>
+      <c r="K39" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -2310,8 +2310,8 @@
       <c r="G40" t="n">
         <v>2.0</v>
       </c>
-      <c r="H40" t="b">
-        <v>1</v>
+      <c r="H40" t="s">
+        <v>14</v>
       </c>
       <c r="I40" t="n">
         <v>5.0</v>
@@ -2319,8 +2319,8 @@
       <c r="J40" t="n">
         <v>1.0</v>
       </c>
-      <c r="K40" t="b">
-        <v>0</v>
+      <c r="K40" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -2345,8 +2345,8 @@
       <c r="G41" t="n">
         <v>2.0</v>
       </c>
-      <c r="H41" t="b">
-        <v>1</v>
+      <c r="H41" t="s">
+        <v>14</v>
       </c>
       <c r="I41" t="n">
         <v>3.0</v>
@@ -2354,8 +2354,8 @@
       <c r="J41" t="n">
         <v>1.0</v>
       </c>
-      <c r="K41" t="b">
-        <v>0</v>
+      <c r="K41" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -2380,8 +2380,8 @@
       <c r="G42" t="n">
         <v>2.0</v>
       </c>
-      <c r="H42" t="b">
-        <v>1</v>
+      <c r="H42" t="s">
+        <v>14</v>
       </c>
       <c r="I42" t="n">
         <v>5.0</v>
@@ -2389,8 +2389,8 @@
       <c r="J42" t="n">
         <v>1.0</v>
       </c>
-      <c r="K42" t="b">
-        <v>0</v>
+      <c r="K42" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -2415,8 +2415,8 @@
       <c r="G43" t="n">
         <v>2.0</v>
       </c>
-      <c r="H43" t="b">
-        <v>1</v>
+      <c r="H43" t="s">
+        <v>14</v>
       </c>
       <c r="I43" t="n">
         <v>3.0</v>
@@ -2424,8 +2424,8 @@
       <c r="J43" t="n">
         <v>1.0</v>
       </c>
-      <c r="K43" t="b">
-        <v>0</v>
+      <c r="K43" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -2450,8 +2450,8 @@
       <c r="G44" t="n">
         <v>2.0</v>
       </c>
-      <c r="H44" t="b">
-        <v>1</v>
+      <c r="H44" t="s">
+        <v>14</v>
       </c>
       <c r="I44" t="n">
         <v>4.0</v>
@@ -2459,8 +2459,8 @@
       <c r="J44" t="n">
         <v>1.0</v>
       </c>
-      <c r="K44" t="b">
-        <v>0</v>
+      <c r="K44" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -2485,8 +2485,8 @@
       <c r="G45" t="n">
         <v>2.0</v>
       </c>
-      <c r="H45" t="b">
-        <v>1</v>
+      <c r="H45" t="s">
+        <v>14</v>
       </c>
       <c r="I45" t="n">
         <v>3.0</v>
@@ -2494,8 +2494,8 @@
       <c r="J45" t="n">
         <v>1.0</v>
       </c>
-      <c r="K45" t="b">
-        <v>0</v>
+      <c r="K45" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="46">
@@ -2520,8 +2520,8 @@
       <c r="G46" t="n">
         <v>2.0</v>
       </c>
-      <c r="H46" t="b">
-        <v>1</v>
+      <c r="H46" t="s">
+        <v>14</v>
       </c>
       <c r="I46" t="n">
         <v>4.0</v>
@@ -2529,8 +2529,8 @@
       <c r="J46" t="n">
         <v>1.0</v>
       </c>
-      <c r="K46" t="b">
-        <v>0</v>
+      <c r="K46" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -2555,8 +2555,8 @@
       <c r="G47" t="n">
         <v>2.0</v>
       </c>
-      <c r="H47" t="b">
-        <v>1</v>
+      <c r="H47" t="s">
+        <v>14</v>
       </c>
       <c r="I47" t="n">
         <v>3.0</v>
@@ -2564,8 +2564,8 @@
       <c r="J47" t="n">
         <v>1.0</v>
       </c>
-      <c r="K47" t="b">
-        <v>0</v>
+      <c r="K47" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -2590,8 +2590,8 @@
       <c r="G48" t="n">
         <v>1.0</v>
       </c>
-      <c r="H48" t="b">
-        <v>1</v>
+      <c r="H48" t="s">
+        <v>14</v>
       </c>
       <c r="I48" t="n">
         <v>7.0</v>
@@ -2599,8 +2599,8 @@
       <c r="J48" t="n">
         <v>1.0</v>
       </c>
-      <c r="K48" t="b">
-        <v>0</v>
+      <c r="K48" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -2625,8 +2625,8 @@
       <c r="G49" t="n">
         <v>1.0</v>
       </c>
-      <c r="H49" t="b">
-        <v>1</v>
+      <c r="H49" t="s">
+        <v>14</v>
       </c>
       <c r="I49" t="n">
         <v>7.0</v>
@@ -2634,8 +2634,8 @@
       <c r="J49" t="n">
         <v>1.0</v>
       </c>
-      <c r="K49" t="b">
-        <v>0</v>
+      <c r="K49" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -2660,8 +2660,8 @@
       <c r="G50" t="n">
         <v>58.0</v>
       </c>
-      <c r="H50" t="b">
-        <v>0</v>
+      <c r="H50" t="s">
+        <v>14</v>
       </c>
       <c r="I50" t="n">
         <v>4.0</v>
@@ -2669,8 +2669,8 @@
       <c r="J50" t="n">
         <v>1.0</v>
       </c>
-      <c r="K50" t="b">
-        <v>0</v>
+      <c r="K50" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -2695,8 +2695,8 @@
       <c r="G51" t="n">
         <v>58.0</v>
       </c>
-      <c r="H51" t="b">
-        <v>0</v>
+      <c r="H51" t="s">
+        <v>14</v>
       </c>
       <c r="I51" t="n">
         <v>6.0</v>
@@ -2704,8 +2704,8 @@
       <c r="J51" t="n">
         <v>1.0</v>
       </c>
-      <c r="K51" t="b">
-        <v>0</v>
+      <c r="K51" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="52">
@@ -2730,8 +2730,8 @@
       <c r="G52" t="n">
         <v>58.0</v>
       </c>
-      <c r="H52" t="b">
-        <v>0</v>
+      <c r="H52" t="s">
+        <v>14</v>
       </c>
       <c r="I52" t="n">
         <v>23.0</v>
@@ -2739,8 +2739,8 @@
       <c r="J52" t="n">
         <v>2.0</v>
       </c>
-      <c r="K52" t="b">
-        <v>0</v>
+      <c r="K52" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -2765,8 +2765,8 @@
       <c r="G53" t="n">
         <v>58.0</v>
       </c>
-      <c r="H53" t="b">
-        <v>0</v>
+      <c r="H53" t="s">
+        <v>14</v>
       </c>
       <c r="I53" t="n">
         <v>10.0</v>
@@ -2774,8 +2774,8 @@
       <c r="J53" t="n">
         <v>2.0</v>
       </c>
-      <c r="K53" t="b">
-        <v>0</v>
+      <c r="K53" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="54">
@@ -2800,8 +2800,8 @@
       <c r="G54" t="n">
         <v>58.0</v>
       </c>
-      <c r="H54" t="b">
-        <v>0</v>
+      <c r="H54" t="s">
+        <v>14</v>
       </c>
       <c r="I54" t="n">
         <v>14.0</v>
@@ -2809,8 +2809,8 @@
       <c r="J54" t="n">
         <v>3.0</v>
       </c>
-      <c r="K54" t="b">
-        <v>0</v>
+      <c r="K54" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -2835,8 +2835,8 @@
       <c r="G55" t="n">
         <v>58.0</v>
       </c>
-      <c r="H55" t="b">
-        <v>0</v>
+      <c r="H55" t="s">
+        <v>14</v>
       </c>
       <c r="I55" t="n">
         <v>10.0</v>
@@ -2844,8 +2844,8 @@
       <c r="J55" t="n">
         <v>2.0</v>
       </c>
-      <c r="K55" t="b">
-        <v>0</v>
+      <c r="K55" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="56">
@@ -2870,8 +2870,8 @@
       <c r="G56" t="n">
         <v>58.0</v>
       </c>
-      <c r="H56" t="b">
-        <v>0</v>
+      <c r="H56" t="s">
+        <v>14</v>
       </c>
       <c r="I56" t="n">
         <v>10.0</v>
@@ -2879,8 +2879,8 @@
       <c r="J56" t="n">
         <v>2.0</v>
       </c>
-      <c r="K56" t="b">
-        <v>0</v>
+      <c r="K56" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -2905,8 +2905,8 @@
       <c r="G57" t="n">
         <v>58.0</v>
       </c>
-      <c r="H57" t="b">
-        <v>0</v>
+      <c r="H57" t="s">
+        <v>14</v>
       </c>
       <c r="I57" t="n">
         <v>14.0</v>
@@ -2914,8 +2914,8 @@
       <c r="J57" t="n">
         <v>3.0</v>
       </c>
-      <c r="K57" t="b">
-        <v>0</v>
+      <c r="K57" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -2940,8 +2940,8 @@
       <c r="G58" t="n">
         <v>58.0</v>
       </c>
-      <c r="H58" t="b">
-        <v>0</v>
+      <c r="H58" t="s">
+        <v>14</v>
       </c>
       <c r="I58" t="n">
         <v>10.0</v>
@@ -2949,8 +2949,8 @@
       <c r="J58" t="n">
         <v>2.0</v>
       </c>
-      <c r="K58" t="b">
-        <v>0</v>
+      <c r="K58" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="59">
@@ -2975,8 +2975,8 @@
       <c r="G59" t="n">
         <v>58.0</v>
       </c>
-      <c r="H59" t="b">
-        <v>0</v>
+      <c r="H59" t="s">
+        <v>14</v>
       </c>
       <c r="I59" t="n">
         <v>14.0</v>
@@ -2984,8 +2984,8 @@
       <c r="J59" t="n">
         <v>3.0</v>
       </c>
-      <c r="K59" t="b">
-        <v>0</v>
+      <c r="K59" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="60">
@@ -3010,8 +3010,8 @@
       <c r="G60" t="n">
         <v>58.0</v>
       </c>
-      <c r="H60" t="b">
-        <v>0</v>
+      <c r="H60" t="s">
+        <v>14</v>
       </c>
       <c r="I60" t="n">
         <v>13.0</v>
@@ -3019,8 +3019,8 @@
       <c r="J60" t="n">
         <v>5.0</v>
       </c>
-      <c r="K60" t="b">
-        <v>0</v>
+      <c r="K60" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="61">
@@ -3045,8 +3045,8 @@
       <c r="G61" t="n">
         <v>58.0</v>
       </c>
-      <c r="H61" t="b">
-        <v>0</v>
+      <c r="H61" t="s">
+        <v>14</v>
       </c>
       <c r="I61" t="n">
         <v>15.0</v>
@@ -3054,8 +3054,8 @@
       <c r="J61" t="n">
         <v>2.0</v>
       </c>
-      <c r="K61" t="b">
-        <v>0</v>
+      <c r="K61" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -3080,8 +3080,8 @@
       <c r="G62" t="n">
         <v>58.0</v>
       </c>
-      <c r="H62" t="b">
-        <v>0</v>
+      <c r="H62" t="s">
+        <v>14</v>
       </c>
       <c r="I62" t="n">
         <v>18.0</v>
@@ -3089,8 +3089,8 @@
       <c r="J62" t="n">
         <v>2.0</v>
       </c>
-      <c r="K62" t="b">
-        <v>0</v>
+      <c r="K62" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -3115,8 +3115,8 @@
       <c r="G63" t="n">
         <v>58.0</v>
       </c>
-      <c r="H63" t="b">
-        <v>0</v>
+      <c r="H63" t="s">
+        <v>14</v>
       </c>
       <c r="I63" t="n">
         <v>12.0</v>
@@ -3124,8 +3124,8 @@
       <c r="J63" t="n">
         <v>2.0</v>
       </c>
-      <c r="K63" t="b">
-        <v>0</v>
+      <c r="K63" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -3150,8 +3150,8 @@
       <c r="G64" t="n">
         <v>58.0</v>
       </c>
-      <c r="H64" t="b">
-        <v>0</v>
+      <c r="H64" t="s">
+        <v>14</v>
       </c>
       <c r="I64" t="n">
         <v>7.0</v>
@@ -3159,8 +3159,8 @@
       <c r="J64" t="n">
         <v>2.0</v>
       </c>
-      <c r="K64" t="b">
-        <v>0</v>
+      <c r="K64" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="65">
@@ -3185,8 +3185,8 @@
       <c r="G65" t="n">
         <v>58.0</v>
       </c>
-      <c r="H65" t="b">
-        <v>0</v>
+      <c r="H65" t="s">
+        <v>14</v>
       </c>
       <c r="I65" t="n">
         <v>10.0</v>
@@ -3194,8 +3194,8 @@
       <c r="J65" t="n">
         <v>2.0</v>
       </c>
-      <c r="K65" t="b">
-        <v>0</v>
+      <c r="K65" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="66">
@@ -3220,8 +3220,8 @@
       <c r="G66" t="n">
         <v>58.0</v>
       </c>
-      <c r="H66" t="b">
-        <v>0</v>
+      <c r="H66" t="s">
+        <v>14</v>
       </c>
       <c r="I66" t="n">
         <v>10.0</v>
@@ -3229,8 +3229,8 @@
       <c r="J66" t="n">
         <v>3.0</v>
       </c>
-      <c r="K66" t="b">
-        <v>0</v>
+      <c r="K66" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="67">
@@ -3255,8 +3255,8 @@
       <c r="G67" t="n">
         <v>58.0</v>
       </c>
-      <c r="H67" t="b">
-        <v>0</v>
+      <c r="H67" t="s">
+        <v>14</v>
       </c>
       <c r="I67" t="n">
         <v>8.0</v>
@@ -3264,8 +3264,8 @@
       <c r="J67" t="n">
         <v>2.0</v>
       </c>
-      <c r="K67" t="b">
-        <v>0</v>
+      <c r="K67" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -3290,8 +3290,8 @@
       <c r="G68" t="n">
         <v>58.0</v>
       </c>
-      <c r="H68" t="b">
-        <v>0</v>
+      <c r="H68" t="s">
+        <v>14</v>
       </c>
       <c r="I68" t="n">
         <v>8.0</v>
@@ -3299,8 +3299,8 @@
       <c r="J68" t="n">
         <v>2.0</v>
       </c>
-      <c r="K68" t="b">
-        <v>0</v>
+      <c r="K68" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -3325,8 +3325,8 @@
       <c r="G69" t="n">
         <v>58.0</v>
       </c>
-      <c r="H69" t="b">
-        <v>0</v>
+      <c r="H69" t="s">
+        <v>14</v>
       </c>
       <c r="I69" t="n">
         <v>10.0</v>
@@ -3334,8 +3334,8 @@
       <c r="J69" t="n">
         <v>3.0</v>
       </c>
-      <c r="K69" t="b">
-        <v>0</v>
+      <c r="K69" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -3360,8 +3360,8 @@
       <c r="G70" t="n">
         <v>58.0</v>
       </c>
-      <c r="H70" t="b">
-        <v>0</v>
+      <c r="H70" t="s">
+        <v>14</v>
       </c>
       <c r="I70" t="n">
         <v>10.0</v>
@@ -3369,8 +3369,8 @@
       <c r="J70" t="n">
         <v>3.0</v>
       </c>
-      <c r="K70" t="b">
-        <v>0</v>
+      <c r="K70" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="71">
@@ -3395,8 +3395,8 @@
       <c r="G71" t="n">
         <v>58.0</v>
       </c>
-      <c r="H71" t="b">
-        <v>0</v>
+      <c r="H71" t="s">
+        <v>14</v>
       </c>
       <c r="I71" t="n">
         <v>10.0</v>
@@ -3404,8 +3404,8 @@
       <c r="J71" t="n">
         <v>3.0</v>
       </c>
-      <c r="K71" t="b">
-        <v>0</v>
+      <c r="K71" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="72">
@@ -3430,8 +3430,8 @@
       <c r="G72" t="n">
         <v>58.0</v>
       </c>
-      <c r="H72" t="b">
-        <v>0</v>
+      <c r="H72" t="s">
+        <v>14</v>
       </c>
       <c r="I72" t="n">
         <v>10.0</v>
@@ -3439,8 +3439,8 @@
       <c r="J72" t="n">
         <v>3.0</v>
       </c>
-      <c r="K72" t="b">
-        <v>0</v>
+      <c r="K72" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -3465,8 +3465,8 @@
       <c r="G73" t="n">
         <v>58.0</v>
       </c>
-      <c r="H73" t="b">
-        <v>0</v>
+      <c r="H73" t="s">
+        <v>14</v>
       </c>
       <c r="I73" t="n">
         <v>7.0</v>
@@ -3474,8 +3474,8 @@
       <c r="J73" t="n">
         <v>2.0</v>
       </c>
-      <c r="K73" t="b">
-        <v>0</v>
+      <c r="K73" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -3500,8 +3500,8 @@
       <c r="G74" t="n">
         <v>58.0</v>
       </c>
-      <c r="H74" t="b">
-        <v>0</v>
+      <c r="H74" t="s">
+        <v>14</v>
       </c>
       <c r="I74" t="n">
         <v>5.0</v>
@@ -3509,8 +3509,8 @@
       <c r="J74" t="n">
         <v>1.0</v>
       </c>
-      <c r="K74" t="b">
-        <v>0</v>
+      <c r="K74" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="75">
@@ -3535,8 +3535,8 @@
       <c r="G75" t="n">
         <v>4.0</v>
       </c>
-      <c r="H75" t="b">
-        <v>1</v>
+      <c r="H75" t="s">
+        <v>14</v>
       </c>
       <c r="I75" t="n">
         <v>3.0</v>
@@ -3544,8 +3544,8 @@
       <c r="J75" t="n">
         <v>1.0</v>
       </c>
-      <c r="K75" t="b">
-        <v>0</v>
+      <c r="K75" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="76">
@@ -3570,8 +3570,8 @@
       <c r="G76" t="n">
         <v>4.0</v>
       </c>
-      <c r="H76" t="b">
-        <v>1</v>
+      <c r="H76" t="s">
+        <v>14</v>
       </c>
       <c r="I76" t="n">
         <v>3.0</v>
@@ -3579,8 +3579,8 @@
       <c r="J76" t="n">
         <v>1.0</v>
       </c>
-      <c r="K76" t="b">
-        <v>0</v>
+      <c r="K76" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="77">
@@ -3605,8 +3605,8 @@
       <c r="G77" t="n">
         <v>4.0</v>
       </c>
-      <c r="H77" t="b">
-        <v>1</v>
+      <c r="H77" t="s">
+        <v>14</v>
       </c>
       <c r="I77" t="n">
         <v>3.0</v>
@@ -3614,8 +3614,8 @@
       <c r="J77" t="n">
         <v>1.0</v>
       </c>
-      <c r="K77" t="b">
-        <v>0</v>
+      <c r="K77" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="78">
@@ -3640,8 +3640,8 @@
       <c r="G78" t="n">
         <v>4.0</v>
       </c>
-      <c r="H78" t="b">
-        <v>1</v>
+      <c r="H78" t="s">
+        <v>14</v>
       </c>
       <c r="I78" t="n">
         <v>3.0</v>
@@ -3649,8 +3649,8 @@
       <c r="J78" t="n">
         <v>1.0</v>
       </c>
-      <c r="K78" t="b">
-        <v>0</v>
+      <c r="K78" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="79">
@@ -3675,8 +3675,8 @@
       <c r="G79" t="n">
         <v>47.0</v>
       </c>
-      <c r="H79" t="b">
-        <v>1</v>
+      <c r="H79" t="s">
+        <v>14</v>
       </c>
       <c r="I79" t="n">
         <v>4.0</v>
@@ -3684,8 +3684,8 @@
       <c r="J79" t="n">
         <v>1.0</v>
       </c>
-      <c r="K79" t="b">
-        <v>0</v>
+      <c r="K79" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="80">
@@ -3710,8 +3710,8 @@
       <c r="G80" t="n">
         <v>47.0</v>
       </c>
-      <c r="H80" t="b">
-        <v>1</v>
+      <c r="H80" t="s">
+        <v>14</v>
       </c>
       <c r="I80" t="n">
         <v>11.0</v>
@@ -3719,8 +3719,8 @@
       <c r="J80" t="n">
         <v>1.0</v>
       </c>
-      <c r="K80" t="b">
-        <v>0</v>
+      <c r="K80" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="81">
@@ -3745,8 +3745,8 @@
       <c r="G81" t="n">
         <v>47.0</v>
       </c>
-      <c r="H81" t="b">
-        <v>1</v>
+      <c r="H81" t="s">
+        <v>14</v>
       </c>
       <c r="I81" t="n">
         <v>10.0</v>
@@ -3754,8 +3754,8 @@
       <c r="J81" t="n">
         <v>1.0</v>
       </c>
-      <c r="K81" t="b">
-        <v>0</v>
+      <c r="K81" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="82">
@@ -3780,8 +3780,8 @@
       <c r="G82" t="n">
         <v>47.0</v>
       </c>
-      <c r="H82" t="b">
-        <v>1</v>
+      <c r="H82" t="s">
+        <v>14</v>
       </c>
       <c r="I82" t="n">
         <v>54.0</v>
@@ -3789,8 +3789,8 @@
       <c r="J82" t="n">
         <v>14.0</v>
       </c>
-      <c r="K82" t="b">
-        <v>1</v>
+      <c r="K82" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="83">
@@ -3815,8 +3815,8 @@
       <c r="G83" t="n">
         <v>47.0</v>
       </c>
-      <c r="H83" t="b">
-        <v>1</v>
+      <c r="H83" t="s">
+        <v>14</v>
       </c>
       <c r="I83" t="n">
         <v>5.0</v>
@@ -3824,8 +3824,8 @@
       <c r="J83" t="n">
         <v>1.0</v>
       </c>
-      <c r="K83" t="b">
-        <v>0</v>
+      <c r="K83" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="84">
@@ -3850,8 +3850,8 @@
       <c r="G84" t="n">
         <v>47.0</v>
       </c>
-      <c r="H84" t="b">
-        <v>1</v>
+      <c r="H84" t="s">
+        <v>14</v>
       </c>
       <c r="I84" t="n">
         <v>11.0</v>
@@ -3859,8 +3859,8 @@
       <c r="J84" t="n">
         <v>2.0</v>
       </c>
-      <c r="K84" t="b">
-        <v>0</v>
+      <c r="K84" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="85">
@@ -3885,8 +3885,8 @@
       <c r="G85" t="n">
         <v>47.0</v>
       </c>
-      <c r="H85" t="b">
-        <v>1</v>
+      <c r="H85" t="s">
+        <v>14</v>
       </c>
       <c r="I85" t="n">
         <v>14.0</v>
@@ -3894,8 +3894,8 @@
       <c r="J85" t="n">
         <v>3.0</v>
       </c>
-      <c r="K85" t="b">
-        <v>0</v>
+      <c r="K85" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="86">
@@ -3920,8 +3920,8 @@
       <c r="G86" t="n">
         <v>47.0</v>
       </c>
-      <c r="H86" t="b">
-        <v>1</v>
+      <c r="H86" t="s">
+        <v>14</v>
       </c>
       <c r="I86" t="n">
         <v>14.0</v>
@@ -3929,8 +3929,8 @@
       <c r="J86" t="n">
         <v>3.0</v>
       </c>
-      <c r="K86" t="b">
-        <v>0</v>
+      <c r="K86" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -3955,8 +3955,8 @@
       <c r="G87" t="n">
         <v>47.0</v>
       </c>
-      <c r="H87" t="b">
-        <v>1</v>
+      <c r="H87" t="s">
+        <v>14</v>
       </c>
       <c r="I87" t="n">
         <v>6.0</v>
@@ -3964,8 +3964,8 @@
       <c r="J87" t="n">
         <v>2.0</v>
       </c>
-      <c r="K87" t="b">
-        <v>0</v>
+      <c r="K87" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="88">
@@ -3990,8 +3990,8 @@
       <c r="G88" t="n">
         <v>47.0</v>
       </c>
-      <c r="H88" t="b">
-        <v>1</v>
+      <c r="H88" t="s">
+        <v>14</v>
       </c>
       <c r="I88" t="n">
         <v>87.0</v>
@@ -3999,8 +3999,8 @@
       <c r="J88" t="n">
         <v>19.0</v>
       </c>
-      <c r="K88" t="b">
-        <v>1</v>
+      <c r="K88" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -4025,8 +4025,8 @@
       <c r="G89" t="n">
         <v>11.0</v>
       </c>
-      <c r="H89" t="b">
-        <v>1</v>
+      <c r="H89" t="s">
+        <v>14</v>
       </c>
       <c r="I89" t="n">
         <v>6.0</v>
@@ -4034,8 +4034,8 @@
       <c r="J89" t="n">
         <v>1.0</v>
       </c>
-      <c r="K89" t="b">
-        <v>0</v>
+      <c r="K89" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="90">
@@ -4060,8 +4060,8 @@
       <c r="G90" t="n">
         <v>11.0</v>
       </c>
-      <c r="H90" t="b">
-        <v>1</v>
+      <c r="H90" t="s">
+        <v>14</v>
       </c>
       <c r="I90" t="n">
         <v>5.0</v>
@@ -4069,8 +4069,8 @@
       <c r="J90" t="n">
         <v>1.0</v>
       </c>
-      <c r="K90" t="b">
-        <v>0</v>
+      <c r="K90" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="91">
@@ -4095,8 +4095,8 @@
       <c r="G91" t="n">
         <v>11.0</v>
       </c>
-      <c r="H91" t="b">
-        <v>1</v>
+      <c r="H91" t="s">
+        <v>14</v>
       </c>
       <c r="I91" t="n">
         <v>4.0</v>
@@ -4104,8 +4104,8 @@
       <c r="J91" t="n">
         <v>1.0</v>
       </c>
-      <c r="K91" t="b">
-        <v>0</v>
+      <c r="K91" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="92">
@@ -4130,8 +4130,8 @@
       <c r="G92" t="n">
         <v>11.0</v>
       </c>
-      <c r="H92" t="b">
-        <v>1</v>
+      <c r="H92" t="s">
+        <v>14</v>
       </c>
       <c r="I92" t="n">
         <v>3.0</v>
@@ -4139,8 +4139,8 @@
       <c r="J92" t="n">
         <v>1.0</v>
       </c>
-      <c r="K92" t="b">
-        <v>0</v>
+      <c r="K92" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="93">
@@ -4165,8 +4165,8 @@
       <c r="G93" t="n">
         <v>11.0</v>
       </c>
-      <c r="H93" t="b">
-        <v>1</v>
+      <c r="H93" t="s">
+        <v>14</v>
       </c>
       <c r="I93" t="n">
         <v>3.0</v>
@@ -4174,8 +4174,8 @@
       <c r="J93" t="n">
         <v>1.0</v>
       </c>
-      <c r="K93" t="b">
-        <v>0</v>
+      <c r="K93" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="94">
@@ -4200,8 +4200,8 @@
       <c r="G94" t="n">
         <v>11.0</v>
       </c>
-      <c r="H94" t="b">
-        <v>1</v>
+      <c r="H94" t="s">
+        <v>14</v>
       </c>
       <c r="I94" t="n">
         <v>20.0</v>
@@ -4209,8 +4209,8 @@
       <c r="J94" t="n">
         <v>6.0</v>
       </c>
-      <c r="K94" t="b">
-        <v>0</v>
+      <c r="K94" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="95">
@@ -4235,8 +4235,8 @@
       <c r="G95" t="n">
         <v>150.0</v>
       </c>
-      <c r="H95" t="b">
-        <v>0</v>
+      <c r="H95" t="s">
+        <v>14</v>
       </c>
       <c r="I95" t="n">
         <v>3.0</v>
@@ -4244,8 +4244,8 @@
       <c r="J95" t="n">
         <v>2.0</v>
       </c>
-      <c r="K95" t="b">
-        <v>0</v>
+      <c r="K95" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="96">
@@ -4270,8 +4270,8 @@
       <c r="G96" t="n">
         <v>150.0</v>
       </c>
-      <c r="H96" t="b">
-        <v>0</v>
+      <c r="H96" t="s">
+        <v>14</v>
       </c>
       <c r="I96" t="n">
         <v>7.0</v>
@@ -4279,8 +4279,8 @@
       <c r="J96" t="n">
         <v>1.0</v>
       </c>
-      <c r="K96" t="b">
-        <v>0</v>
+      <c r="K96" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="97">
@@ -4305,8 +4305,8 @@
       <c r="G97" t="n">
         <v>150.0</v>
       </c>
-      <c r="H97" t="b">
-        <v>0</v>
+      <c r="H97" t="s">
+        <v>14</v>
       </c>
       <c r="I97" t="n">
         <v>2.0</v>
@@ -4314,8 +4314,8 @@
       <c r="J97" t="n">
         <v>1.0</v>
       </c>
-      <c r="K97" t="b">
-        <v>0</v>
+      <c r="K97" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="98">
@@ -4340,8 +4340,8 @@
       <c r="G98" t="n">
         <v>150.0</v>
       </c>
-      <c r="H98" t="b">
-        <v>0</v>
+      <c r="H98" t="s">
+        <v>14</v>
       </c>
       <c r="I98" t="n">
         <v>14.0</v>
@@ -4349,8 +4349,8 @@
       <c r="J98" t="n">
         <v>1.0</v>
       </c>
-      <c r="K98" t="b">
-        <v>0</v>
+      <c r="K98" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="99">
@@ -4375,8 +4375,8 @@
       <c r="G99" t="n">
         <v>150.0</v>
       </c>
-      <c r="H99" t="b">
-        <v>0</v>
+      <c r="H99" t="s">
+        <v>14</v>
       </c>
       <c r="I99" t="n">
         <v>22.0</v>
@@ -4384,8 +4384,8 @@
       <c r="J99" t="n">
         <v>1.0</v>
       </c>
-      <c r="K99" t="b">
-        <v>0</v>
+      <c r="K99" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="100">
@@ -4410,8 +4410,8 @@
       <c r="G100" t="n">
         <v>150.0</v>
       </c>
-      <c r="H100" t="b">
-        <v>0</v>
+      <c r="H100" t="s">
+        <v>14</v>
       </c>
       <c r="I100" t="n">
         <v>3.0</v>
@@ -4419,8 +4419,8 @@
       <c r="J100" t="n">
         <v>1.0</v>
       </c>
-      <c r="K100" t="b">
-        <v>0</v>
+      <c r="K100" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="101">
@@ -4445,8 +4445,8 @@
       <c r="G101" t="n">
         <v>150.0</v>
       </c>
-      <c r="H101" t="b">
-        <v>0</v>
+      <c r="H101" t="s">
+        <v>14</v>
       </c>
       <c r="I101" t="n">
         <v>11.0</v>
@@ -4454,8 +4454,8 @@
       <c r="J101" t="n">
         <v>1.0</v>
       </c>
-      <c r="K101" t="b">
-        <v>0</v>
+      <c r="K101" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="102">
@@ -4480,8 +4480,8 @@
       <c r="G102" t="n">
         <v>150.0</v>
       </c>
-      <c r="H102" t="b">
-        <v>0</v>
+      <c r="H102" t="s">
+        <v>14</v>
       </c>
       <c r="I102" t="n">
         <v>11.0</v>
@@ -4489,8 +4489,8 @@
       <c r="J102" t="n">
         <v>1.0</v>
       </c>
-      <c r="K102" t="b">
-        <v>0</v>
+      <c r="K102" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="103">
@@ -4515,8 +4515,8 @@
       <c r="G103" t="n">
         <v>150.0</v>
       </c>
-      <c r="H103" t="b">
-        <v>0</v>
+      <c r="H103" t="s">
+        <v>14</v>
       </c>
       <c r="I103" t="n">
         <v>3.0</v>
@@ -4524,8 +4524,8 @@
       <c r="J103" t="n">
         <v>1.0</v>
       </c>
-      <c r="K103" t="b">
-        <v>0</v>
+      <c r="K103" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="104">
@@ -4550,8 +4550,8 @@
       <c r="G104" t="n">
         <v>150.0</v>
       </c>
-      <c r="H104" t="b">
-        <v>0</v>
+      <c r="H104" t="s">
+        <v>14</v>
       </c>
       <c r="I104" t="n">
         <v>3.0</v>
@@ -4559,8 +4559,8 @@
       <c r="J104" t="n">
         <v>1.0</v>
       </c>
-      <c r="K104" t="b">
-        <v>0</v>
+      <c r="K104" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="105">
@@ -4585,8 +4585,8 @@
       <c r="G105" t="n">
         <v>150.0</v>
       </c>
-      <c r="H105" t="b">
-        <v>0</v>
+      <c r="H105" t="s">
+        <v>14</v>
       </c>
       <c r="I105" t="n">
         <v>256.0</v>
@@ -4594,8 +4594,8 @@
       <c r="J105" t="n">
         <v>81.0</v>
       </c>
-      <c r="K105" t="b">
-        <v>1</v>
+      <c r="K105" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="106">
@@ -4620,8 +4620,8 @@
       <c r="G106" t="n">
         <v>150.0</v>
       </c>
-      <c r="H106" t="b">
-        <v>0</v>
+      <c r="H106" t="s">
+        <v>14</v>
       </c>
       <c r="I106" t="n">
         <v>17.0</v>
@@ -4629,8 +4629,8 @@
       <c r="J106" t="n">
         <v>5.0</v>
       </c>
-      <c r="K106" t="b">
-        <v>0</v>
+      <c r="K106" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="107">
@@ -4655,8 +4655,8 @@
       <c r="G107" t="n">
         <v>150.0</v>
       </c>
-      <c r="H107" t="b">
-        <v>0</v>
+      <c r="H107" t="s">
+        <v>14</v>
       </c>
       <c r="I107" t="n">
         <v>16.0</v>
@@ -4664,8 +4664,8 @@
       <c r="J107" t="n">
         <v>6.0</v>
       </c>
-      <c r="K107" t="b">
-        <v>0</v>
+      <c r="K107" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="108">
@@ -4690,8 +4690,8 @@
       <c r="G108" t="n">
         <v>150.0</v>
       </c>
-      <c r="H108" t="b">
-        <v>0</v>
+      <c r="H108" t="s">
+        <v>14</v>
       </c>
       <c r="I108" t="n">
         <v>3.0</v>
@@ -4699,8 +4699,8 @@
       <c r="J108" t="n">
         <v>1.0</v>
       </c>
-      <c r="K108" t="b">
-        <v>0</v>
+      <c r="K108" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="109">
@@ -4725,8 +4725,8 @@
       <c r="G109" t="n">
         <v>150.0</v>
       </c>
-      <c r="H109" t="b">
-        <v>0</v>
+      <c r="H109" t="s">
+        <v>14</v>
       </c>
       <c r="I109" t="n">
         <v>3.0</v>
@@ -4734,8 +4734,8 @@
       <c r="J109" t="n">
         <v>1.0</v>
       </c>
-      <c r="K109" t="b">
-        <v>0</v>
+      <c r="K109" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="110">
@@ -4760,8 +4760,8 @@
       <c r="G110" t="n">
         <v>150.0</v>
       </c>
-      <c r="H110" t="b">
-        <v>0</v>
+      <c r="H110" t="s">
+        <v>14</v>
       </c>
       <c r="I110" t="n">
         <v>3.0</v>
@@ -4769,8 +4769,8 @@
       <c r="J110" t="n">
         <v>1.0</v>
       </c>
-      <c r="K110" t="b">
-        <v>0</v>
+      <c r="K110" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="111">
@@ -4795,8 +4795,8 @@
       <c r="G111" t="n">
         <v>150.0</v>
       </c>
-      <c r="H111" t="b">
-        <v>0</v>
+      <c r="H111" t="s">
+        <v>14</v>
       </c>
       <c r="I111" t="n">
         <v>3.0</v>
@@ -4804,8 +4804,8 @@
       <c r="J111" t="n">
         <v>1.0</v>
       </c>
-      <c r="K111" t="b">
-        <v>0</v>
+      <c r="K111" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="112">
@@ -4830,8 +4830,8 @@
       <c r="G112" t="n">
         <v>150.0</v>
       </c>
-      <c r="H112" t="b">
-        <v>0</v>
+      <c r="H112" t="s">
+        <v>14</v>
       </c>
       <c r="I112" t="n">
         <v>3.0</v>
@@ -4839,8 +4839,8 @@
       <c r="J112" t="n">
         <v>1.0</v>
       </c>
-      <c r="K112" t="b">
-        <v>0</v>
+      <c r="K112" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="113">
@@ -4865,8 +4865,8 @@
       <c r="G113" t="n">
         <v>150.0</v>
       </c>
-      <c r="H113" t="b">
-        <v>0</v>
+      <c r="H113" t="s">
+        <v>14</v>
       </c>
       <c r="I113" t="n">
         <v>3.0</v>
@@ -4874,8 +4874,8 @@
       <c r="J113" t="n">
         <v>1.0</v>
       </c>
-      <c r="K113" t="b">
-        <v>0</v>
+      <c r="K113" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="114">
@@ -4900,8 +4900,8 @@
       <c r="G114" t="n">
         <v>150.0</v>
       </c>
-      <c r="H114" t="b">
-        <v>0</v>
+      <c r="H114" t="s">
+        <v>14</v>
       </c>
       <c r="I114" t="n">
         <v>3.0</v>
@@ -4909,8 +4909,8 @@
       <c r="J114" t="n">
         <v>1.0</v>
       </c>
-      <c r="K114" t="b">
-        <v>0</v>
+      <c r="K114" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="115">
@@ -4935,8 +4935,8 @@
       <c r="G115" t="n">
         <v>150.0</v>
       </c>
-      <c r="H115" t="b">
-        <v>0</v>
+      <c r="H115" t="s">
+        <v>14</v>
       </c>
       <c r="I115" t="n">
         <v>3.0</v>
@@ -4944,8 +4944,8 @@
       <c r="J115" t="n">
         <v>1.0</v>
       </c>
-      <c r="K115" t="b">
-        <v>0</v>
+      <c r="K115" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="116">
@@ -4970,8 +4970,8 @@
       <c r="G116" t="n">
         <v>150.0</v>
       </c>
-      <c r="H116" t="b">
-        <v>0</v>
+      <c r="H116" t="s">
+        <v>14</v>
       </c>
       <c r="I116" t="n">
         <v>9.0</v>
@@ -4979,8 +4979,8 @@
       <c r="J116" t="n">
         <v>3.0</v>
       </c>
-      <c r="K116" t="b">
-        <v>0</v>
+      <c r="K116" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="117">
@@ -5005,8 +5005,8 @@
       <c r="G117" t="n">
         <v>150.0</v>
       </c>
-      <c r="H117" t="b">
-        <v>0</v>
+      <c r="H117" t="s">
+        <v>14</v>
       </c>
       <c r="I117" t="n">
         <v>19.0</v>
@@ -5014,8 +5014,8 @@
       <c r="J117" t="n">
         <v>5.0</v>
       </c>
-      <c r="K117" t="b">
-        <v>0</v>
+      <c r="K117" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="118">
@@ -5040,8 +5040,8 @@
       <c r="G118" t="n">
         <v>150.0</v>
       </c>
-      <c r="H118" t="b">
-        <v>0</v>
+      <c r="H118" t="s">
+        <v>14</v>
       </c>
       <c r="I118" t="n">
         <v>9.0</v>
@@ -5049,8 +5049,8 @@
       <c r="J118" t="n">
         <v>3.0</v>
       </c>
-      <c r="K118" t="b">
-        <v>0</v>
+      <c r="K118" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="119">
@@ -5075,8 +5075,8 @@
       <c r="G119" t="n">
         <v>150.0</v>
       </c>
-      <c r="H119" t="b">
-        <v>0</v>
+      <c r="H119" t="s">
+        <v>14</v>
       </c>
       <c r="I119" t="n">
         <v>10.0</v>
@@ -5084,8 +5084,8 @@
       <c r="J119" t="n">
         <v>3.0</v>
       </c>
-      <c r="K119" t="b">
-        <v>0</v>
+      <c r="K119" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="120">
@@ -5110,8 +5110,8 @@
       <c r="G120" t="n">
         <v>150.0</v>
       </c>
-      <c r="H120" t="b">
-        <v>0</v>
+      <c r="H120" t="s">
+        <v>14</v>
       </c>
       <c r="I120" t="n">
         <v>55.0</v>
@@ -5119,8 +5119,8 @@
       <c r="J120" t="n">
         <v>16.0</v>
       </c>
-      <c r="K120" t="b">
-        <v>1</v>
+      <c r="K120" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="121">
@@ -5145,8 +5145,8 @@
       <c r="G121" t="n">
         <v>150.0</v>
       </c>
-      <c r="H121" t="b">
-        <v>0</v>
+      <c r="H121" t="s">
+        <v>14</v>
       </c>
       <c r="I121" t="n">
         <v>3.0</v>
@@ -5154,8 +5154,8 @@
       <c r="J121" t="n">
         <v>2.0</v>
       </c>
-      <c r="K121" t="b">
-        <v>0</v>
+      <c r="K121" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="122">
@@ -5180,8 +5180,8 @@
       <c r="G122" t="n">
         <v>150.0</v>
       </c>
-      <c r="H122" t="b">
-        <v>0</v>
+      <c r="H122" t="s">
+        <v>14</v>
       </c>
       <c r="I122" t="n">
         <v>3.0</v>
@@ -5189,8 +5189,8 @@
       <c r="J122" t="n">
         <v>1.0</v>
       </c>
-      <c r="K122" t="b">
-        <v>0</v>
+      <c r="K122" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="123">
@@ -5215,8 +5215,8 @@
       <c r="G123" t="n">
         <v>150.0</v>
       </c>
-      <c r="H123" t="b">
-        <v>0</v>
+      <c r="H123" t="s">
+        <v>14</v>
       </c>
       <c r="I123" t="n">
         <v>3.0</v>
@@ -5224,8 +5224,8 @@
       <c r="J123" t="n">
         <v>1.0</v>
       </c>
-      <c r="K123" t="b">
-        <v>0</v>
+      <c r="K123" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="124">
@@ -5250,8 +5250,8 @@
       <c r="G124" t="n">
         <v>150.0</v>
       </c>
-      <c r="H124" t="b">
-        <v>0</v>
+      <c r="H124" t="s">
+        <v>14</v>
       </c>
       <c r="I124" t="n">
         <v>3.0</v>
@@ -5259,8 +5259,8 @@
       <c r="J124" t="n">
         <v>1.0</v>
       </c>
-      <c r="K124" t="b">
-        <v>0</v>
+      <c r="K124" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="125">
@@ -5285,8 +5285,8 @@
       <c r="G125" t="n">
         <v>150.0</v>
       </c>
-      <c r="H125" t="b">
-        <v>0</v>
+      <c r="H125" t="s">
+        <v>14</v>
       </c>
       <c r="I125" t="n">
         <v>3.0</v>
@@ -5294,8 +5294,8 @@
       <c r="J125" t="n">
         <v>1.0</v>
       </c>
-      <c r="K125" t="b">
-        <v>0</v>
+      <c r="K125" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="126">
@@ -5320,8 +5320,8 @@
       <c r="G126" t="n">
         <v>150.0</v>
       </c>
-      <c r="H126" t="b">
-        <v>0</v>
+      <c r="H126" t="s">
+        <v>14</v>
       </c>
       <c r="I126" t="n">
         <v>14.0</v>
@@ -5329,8 +5329,8 @@
       <c r="J126" t="n">
         <v>3.0</v>
       </c>
-      <c r="K126" t="b">
-        <v>0</v>
+      <c r="K126" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="127">
@@ -5355,8 +5355,8 @@
       <c r="G127" t="n">
         <v>320.0</v>
       </c>
-      <c r="H127" t="b">
-        <v>0</v>
+      <c r="H127" t="s">
+        <v>14</v>
       </c>
       <c r="I127" t="n">
         <v>3.0</v>
@@ -5364,8 +5364,8 @@
       <c r="J127" t="n">
         <v>1.0</v>
       </c>
-      <c r="K127" t="b">
-        <v>0</v>
+      <c r="K127" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="128">
@@ -5390,8 +5390,8 @@
       <c r="G128" t="n">
         <v>320.0</v>
       </c>
-      <c r="H128" t="b">
-        <v>0</v>
+      <c r="H128" t="s">
+        <v>14</v>
       </c>
       <c r="I128" t="n">
         <v>3.0</v>
@@ -5399,8 +5399,8 @@
       <c r="J128" t="n">
         <v>1.0</v>
       </c>
-      <c r="K128" t="b">
-        <v>0</v>
+      <c r="K128" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="129">
@@ -5425,8 +5425,8 @@
       <c r="G129" t="n">
         <v>320.0</v>
       </c>
-      <c r="H129" t="b">
-        <v>0</v>
+      <c r="H129" t="s">
+        <v>14</v>
       </c>
       <c r="I129" t="n">
         <v>5.0</v>
@@ -5434,8 +5434,8 @@
       <c r="J129" t="n">
         <v>1.0</v>
       </c>
-      <c r="K129" t="b">
-        <v>0</v>
+      <c r="K129" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="130">
@@ -5460,8 +5460,8 @@
       <c r="G130" t="n">
         <v>320.0</v>
       </c>
-      <c r="H130" t="b">
-        <v>0</v>
+      <c r="H130" t="s">
+        <v>14</v>
       </c>
       <c r="I130" t="n">
         <v>4.0</v>
@@ -5469,8 +5469,8 @@
       <c r="J130" t="n">
         <v>1.0</v>
       </c>
-      <c r="K130" t="b">
-        <v>0</v>
+      <c r="K130" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="131">
@@ -5495,8 +5495,8 @@
       <c r="G131" t="n">
         <v>320.0</v>
       </c>
-      <c r="H131" t="b">
-        <v>0</v>
+      <c r="H131" t="s">
+        <v>14</v>
       </c>
       <c r="I131" t="n">
         <v>5.0</v>
@@ -5504,8 +5504,8 @@
       <c r="J131" t="n">
         <v>1.0</v>
       </c>
-      <c r="K131" t="b">
-        <v>0</v>
+      <c r="K131" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="132">
@@ -5530,8 +5530,8 @@
       <c r="G132" t="n">
         <v>320.0</v>
       </c>
-      <c r="H132" t="b">
-        <v>0</v>
+      <c r="H132" t="s">
+        <v>14</v>
       </c>
       <c r="I132" t="n">
         <v>9.0</v>
@@ -5539,8 +5539,8 @@
       <c r="J132" t="n">
         <v>2.0</v>
       </c>
-      <c r="K132" t="b">
-        <v>0</v>
+      <c r="K132" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="133">
@@ -5565,8 +5565,8 @@
       <c r="G133" t="n">
         <v>320.0</v>
       </c>
-      <c r="H133" t="b">
-        <v>0</v>
+      <c r="H133" t="s">
+        <v>14</v>
       </c>
       <c r="I133" t="n">
         <v>20.0</v>
@@ -5574,8 +5574,8 @@
       <c r="J133" t="n">
         <v>5.0</v>
       </c>
-      <c r="K133" t="b">
-        <v>0</v>
+      <c r="K133" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="134">
@@ -5600,8 +5600,8 @@
       <c r="G134" t="n">
         <v>320.0</v>
       </c>
-      <c r="H134" t="b">
-        <v>0</v>
+      <c r="H134" t="s">
+        <v>14</v>
       </c>
       <c r="I134" t="n">
         <v>18.0</v>
@@ -5609,8 +5609,8 @@
       <c r="J134" t="n">
         <v>4.0</v>
       </c>
-      <c r="K134" t="b">
-        <v>0</v>
+      <c r="K134" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="135">
@@ -5635,8 +5635,8 @@
       <c r="G135" t="n">
         <v>320.0</v>
       </c>
-      <c r="H135" t="b">
-        <v>0</v>
+      <c r="H135" t="s">
+        <v>14</v>
       </c>
       <c r="I135" t="n">
         <v>38.0</v>
@@ -5644,8 +5644,8 @@
       <c r="J135" t="n">
         <v>8.0</v>
       </c>
-      <c r="K135" t="b">
-        <v>0</v>
+      <c r="K135" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="136">
@@ -5670,8 +5670,8 @@
       <c r="G136" t="n">
         <v>320.0</v>
       </c>
-      <c r="H136" t="b">
-        <v>0</v>
+      <c r="H136" t="s">
+        <v>14</v>
       </c>
       <c r="I136" t="n">
         <v>12.0</v>
@@ -5679,8 +5679,8 @@
       <c r="J136" t="n">
         <v>3.0</v>
       </c>
-      <c r="K136" t="b">
-        <v>0</v>
+      <c r="K136" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="137">
@@ -5705,8 +5705,8 @@
       <c r="G137" t="n">
         <v>320.0</v>
       </c>
-      <c r="H137" t="b">
-        <v>0</v>
+      <c r="H137" t="s">
+        <v>14</v>
       </c>
       <c r="I137" t="n">
         <v>71.0</v>
@@ -5714,8 +5714,8 @@
       <c r="J137" t="n">
         <v>17.0</v>
       </c>
-      <c r="K137" t="b">
-        <v>1</v>
+      <c r="K137" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="138">
@@ -5740,8 +5740,8 @@
       <c r="G138" t="n">
         <v>320.0</v>
       </c>
-      <c r="H138" t="b">
-        <v>0</v>
+      <c r="H138" t="s">
+        <v>14</v>
       </c>
       <c r="I138" t="n">
         <v>12.0</v>
@@ -5749,8 +5749,8 @@
       <c r="J138" t="n">
         <v>3.0</v>
       </c>
-      <c r="K138" t="b">
-        <v>0</v>
+      <c r="K138" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="139">
@@ -5775,8 +5775,8 @@
       <c r="G139" t="n">
         <v>320.0</v>
       </c>
-      <c r="H139" t="b">
-        <v>0</v>
+      <c r="H139" t="s">
+        <v>14</v>
       </c>
       <c r="I139" t="n">
         <v>36.0</v>
@@ -5784,8 +5784,8 @@
       <c r="J139" t="n">
         <v>4.0</v>
       </c>
-      <c r="K139" t="b">
-        <v>0</v>
+      <c r="K139" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="140">
@@ -5810,8 +5810,8 @@
       <c r="G140" t="n">
         <v>320.0</v>
       </c>
-      <c r="H140" t="b">
-        <v>0</v>
+      <c r="H140" t="s">
+        <v>14</v>
       </c>
       <c r="I140" t="n">
         <v>53.0</v>
@@ -5819,8 +5819,8 @@
       <c r="J140" t="n">
         <v>13.0</v>
       </c>
-      <c r="K140" t="b">
-        <v>1</v>
+      <c r="K140" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="141">
@@ -5845,8 +5845,8 @@
       <c r="G141" t="n">
         <v>320.0</v>
       </c>
-      <c r="H141" t="b">
-        <v>0</v>
+      <c r="H141" t="s">
+        <v>14</v>
       </c>
       <c r="I141" t="n">
         <v>3.0</v>
@@ -5854,8 +5854,8 @@
       <c r="J141" t="n">
         <v>1.0</v>
       </c>
-      <c r="K141" t="b">
-        <v>0</v>
+      <c r="K141" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="142">
@@ -5880,8 +5880,8 @@
       <c r="G142" t="n">
         <v>320.0</v>
       </c>
-      <c r="H142" t="b">
-        <v>0</v>
+      <c r="H142" t="s">
+        <v>14</v>
       </c>
       <c r="I142" t="n">
         <v>513.0</v>
@@ -5889,8 +5889,8 @@
       <c r="J142" t="n">
         <v>137.0</v>
       </c>
-      <c r="K142" t="b">
-        <v>1</v>
+      <c r="K142" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="143">
@@ -5915,8 +5915,8 @@
       <c r="G143" t="n">
         <v>320.0</v>
       </c>
-      <c r="H143" t="b">
-        <v>0</v>
+      <c r="H143" t="s">
+        <v>14</v>
       </c>
       <c r="I143" t="n">
         <v>60.0</v>
@@ -5924,8 +5924,8 @@
       <c r="J143" t="n">
         <v>28.0</v>
       </c>
-      <c r="K143" t="b">
-        <v>1</v>
+      <c r="K143" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="144">
@@ -5950,8 +5950,8 @@
       <c r="G144" t="n">
         <v>320.0</v>
       </c>
-      <c r="H144" t="b">
-        <v>0</v>
+      <c r="H144" t="s">
+        <v>14</v>
       </c>
       <c r="I144" t="n">
         <v>62.0</v>
@@ -5959,8 +5959,8 @@
       <c r="J144" t="n">
         <v>13.0</v>
       </c>
-      <c r="K144" t="b">
-        <v>1</v>
+      <c r="K144" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="145">
@@ -5985,8 +5985,8 @@
       <c r="G145" t="n">
         <v>320.0</v>
       </c>
-      <c r="H145" t="b">
-        <v>0</v>
+      <c r="H145" t="s">
+        <v>14</v>
       </c>
       <c r="I145" t="n">
         <v>65.0</v>
@@ -5994,8 +5994,8 @@
       <c r="J145" t="n">
         <v>12.0</v>
       </c>
-      <c r="K145" t="b">
-        <v>1</v>
+      <c r="K145" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="146">
@@ -6020,8 +6020,8 @@
       <c r="G146" t="n">
         <v>320.0</v>
       </c>
-      <c r="H146" t="b">
-        <v>0</v>
+      <c r="H146" t="s">
+        <v>14</v>
       </c>
       <c r="I146" t="n">
         <v>75.0</v>
@@ -6029,8 +6029,8 @@
       <c r="J146" t="n">
         <v>15.0</v>
       </c>
-      <c r="K146" t="b">
-        <v>1</v>
+      <c r="K146" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="147">
@@ -6055,8 +6055,8 @@
       <c r="G147" t="n">
         <v>320.0</v>
       </c>
-      <c r="H147" t="b">
-        <v>0</v>
+      <c r="H147" t="s">
+        <v>14</v>
       </c>
       <c r="I147" t="n">
         <v>18.0</v>
@@ -6064,8 +6064,8 @@
       <c r="J147" t="n">
         <v>4.0</v>
       </c>
-      <c r="K147" t="b">
-        <v>0</v>
+      <c r="K147" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="148">
@@ -6090,8 +6090,8 @@
       <c r="G148" t="n">
         <v>320.0</v>
       </c>
-      <c r="H148" t="b">
-        <v>0</v>
+      <c r="H148" t="s">
+        <v>14</v>
       </c>
       <c r="I148" t="n">
         <v>23.0</v>
@@ -6099,8 +6099,8 @@
       <c r="J148" t="n">
         <v>4.0</v>
       </c>
-      <c r="K148" t="b">
-        <v>0</v>
+      <c r="K148" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="149">
@@ -6125,8 +6125,8 @@
       <c r="G149" t="n">
         <v>320.0</v>
       </c>
-      <c r="H149" t="b">
-        <v>0</v>
+      <c r="H149" t="s">
+        <v>14</v>
       </c>
       <c r="I149" t="n">
         <v>79.0</v>
@@ -6134,8 +6134,8 @@
       <c r="J149" t="n">
         <v>17.0</v>
       </c>
-      <c r="K149" t="b">
-        <v>1</v>
+      <c r="K149" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="150">
@@ -6160,8 +6160,8 @@
       <c r="G150" t="n">
         <v>320.0</v>
       </c>
-      <c r="H150" t="b">
-        <v>0</v>
+      <c r="H150" t="s">
+        <v>14</v>
       </c>
       <c r="I150" t="n">
         <v>19.0</v>
@@ -6169,8 +6169,8 @@
       <c r="J150" t="n">
         <v>3.0</v>
       </c>
-      <c r="K150" t="b">
-        <v>0</v>
+      <c r="K150" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="151">
@@ -6195,8 +6195,8 @@
       <c r="G151" t="n">
         <v>320.0</v>
       </c>
-      <c r="H151" t="b">
-        <v>0</v>
+      <c r="H151" t="s">
+        <v>14</v>
       </c>
       <c r="I151" t="n">
         <v>21.0</v>
@@ -6204,8 +6204,8 @@
       <c r="J151" t="n">
         <v>7.0</v>
       </c>
-      <c r="K151" t="b">
-        <v>0</v>
+      <c r="K151" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="152">
@@ -6230,8 +6230,8 @@
       <c r="G152" t="n">
         <v>320.0</v>
       </c>
-      <c r="H152" t="b">
-        <v>0</v>
+      <c r="H152" t="s">
+        <v>14</v>
       </c>
       <c r="I152" t="n">
         <v>22.0</v>
@@ -6239,8 +6239,8 @@
       <c r="J152" t="n">
         <v>4.0</v>
       </c>
-      <c r="K152" t="b">
-        <v>0</v>
+      <c r="K152" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="153">
@@ -6265,8 +6265,8 @@
       <c r="G153" t="n">
         <v>320.0</v>
       </c>
-      <c r="H153" t="b">
-        <v>0</v>
+      <c r="H153" t="s">
+        <v>14</v>
       </c>
       <c r="I153" t="n">
         <v>7.0</v>
@@ -6274,8 +6274,8 @@
       <c r="J153" t="n">
         <v>2.0</v>
       </c>
-      <c r="K153" t="b">
-        <v>0</v>
+      <c r="K153" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="154">
@@ -6300,8 +6300,8 @@
       <c r="G154" t="n">
         <v>320.0</v>
       </c>
-      <c r="H154" t="b">
-        <v>0</v>
+      <c r="H154" t="s">
+        <v>14</v>
       </c>
       <c r="I154" t="n">
         <v>10.0</v>
@@ -6309,8 +6309,8 @@
       <c r="J154" t="n">
         <v>3.0</v>
       </c>
-      <c r="K154" t="b">
-        <v>0</v>
+      <c r="K154" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="155">
@@ -6335,8 +6335,8 @@
       <c r="G155" t="n">
         <v>320.0</v>
       </c>
-      <c r="H155" t="b">
-        <v>0</v>
+      <c r="H155" t="s">
+        <v>14</v>
       </c>
       <c r="I155" t="n">
         <v>6.0</v>
@@ -6344,8 +6344,8 @@
       <c r="J155" t="n">
         <v>2.0</v>
       </c>
-      <c r="K155" t="b">
-        <v>0</v>
+      <c r="K155" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="156">
@@ -6370,8 +6370,8 @@
       <c r="G156" t="n">
         <v>320.0</v>
       </c>
-      <c r="H156" t="b">
-        <v>0</v>
+      <c r="H156" t="s">
+        <v>14</v>
       </c>
       <c r="I156" t="n">
         <v>6.0</v>
@@ -6379,8 +6379,8 @@
       <c r="J156" t="n">
         <v>2.0</v>
       </c>
-      <c r="K156" t="b">
-        <v>0</v>
+      <c r="K156" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="157">
@@ -6405,8 +6405,8 @@
       <c r="G157" t="n">
         <v>320.0</v>
       </c>
-      <c r="H157" t="b">
-        <v>0</v>
+      <c r="H157" t="s">
+        <v>14</v>
       </c>
       <c r="I157" t="n">
         <v>3.0</v>
@@ -6414,8 +6414,8 @@
       <c r="J157" t="n">
         <v>1.0</v>
       </c>
-      <c r="K157" t="b">
-        <v>0</v>
+      <c r="K157" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="158">
@@ -6440,8 +6440,8 @@
       <c r="G158" t="n">
         <v>320.0</v>
       </c>
-      <c r="H158" t="b">
-        <v>0</v>
+      <c r="H158" t="s">
+        <v>14</v>
       </c>
       <c r="I158" t="n">
         <v>4.0</v>
@@ -6449,8 +6449,8 @@
       <c r="J158" t="n">
         <v>1.0</v>
       </c>
-      <c r="K158" t="b">
-        <v>0</v>
+      <c r="K158" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="159">
@@ -6475,8 +6475,8 @@
       <c r="G159" t="n">
         <v>97.0</v>
       </c>
-      <c r="H159" t="b">
-        <v>0</v>
+      <c r="H159" t="s">
+        <v>14</v>
       </c>
       <c r="I159" t="n">
         <v>42.0</v>
@@ -6484,8 +6484,8 @@
       <c r="J159" t="n">
         <v>1.0</v>
       </c>
-      <c r="K159" t="b">
-        <v>0</v>
+      <c r="K159" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="160">
@@ -6510,8 +6510,8 @@
       <c r="G160" t="n">
         <v>97.0</v>
       </c>
-      <c r="H160" t="b">
-        <v>0</v>
+      <c r="H160" t="s">
+        <v>14</v>
       </c>
       <c r="I160" t="n">
         <v>4.0</v>
@@ -6519,8 +6519,8 @@
       <c r="J160" t="n">
         <v>1.0</v>
       </c>
-      <c r="K160" t="b">
-        <v>0</v>
+      <c r="K160" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="161">
@@ -6545,8 +6545,8 @@
       <c r="G161" t="n">
         <v>97.0</v>
       </c>
-      <c r="H161" t="b">
-        <v>0</v>
+      <c r="H161" t="s">
+        <v>14</v>
       </c>
       <c r="I161" t="n">
         <v>5.0</v>
@@ -6554,8 +6554,8 @@
       <c r="J161" t="n">
         <v>1.0</v>
       </c>
-      <c r="K161" t="b">
-        <v>0</v>
+      <c r="K161" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="162">
@@ -6580,8 +6580,8 @@
       <c r="G162" t="n">
         <v>97.0</v>
       </c>
-      <c r="H162" t="b">
-        <v>0</v>
+      <c r="H162" t="s">
+        <v>14</v>
       </c>
       <c r="I162" t="n">
         <v>4.0</v>
@@ -6589,8 +6589,8 @@
       <c r="J162" t="n">
         <v>1.0</v>
       </c>
-      <c r="K162" t="b">
-        <v>0</v>
+      <c r="K162" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="163">
@@ -6615,8 +6615,8 @@
       <c r="G163" t="n">
         <v>97.0</v>
       </c>
-      <c r="H163" t="b">
-        <v>0</v>
+      <c r="H163" t="s">
+        <v>14</v>
       </c>
       <c r="I163" t="n">
         <v>47.0</v>
@@ -6624,8 +6624,8 @@
       <c r="J163" t="n">
         <v>14.0</v>
       </c>
-      <c r="K163" t="b">
-        <v>0</v>
+      <c r="K163" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="164">
@@ -6650,8 +6650,8 @@
       <c r="G164" t="n">
         <v>97.0</v>
       </c>
-      <c r="H164" t="b">
-        <v>0</v>
+      <c r="H164" t="s">
+        <v>14</v>
       </c>
       <c r="I164" t="n">
         <v>3.0</v>
@@ -6659,8 +6659,8 @@
       <c r="J164" t="n">
         <v>1.0</v>
       </c>
-      <c r="K164" t="b">
-        <v>0</v>
+      <c r="K164" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="165">
@@ -6685,8 +6685,8 @@
       <c r="G165" t="n">
         <v>97.0</v>
       </c>
-      <c r="H165" t="b">
-        <v>0</v>
+      <c r="H165" t="s">
+        <v>14</v>
       </c>
       <c r="I165" t="n">
         <v>3.0</v>
@@ -6694,8 +6694,8 @@
       <c r="J165" t="n">
         <v>1.0</v>
       </c>
-      <c r="K165" t="b">
-        <v>0</v>
+      <c r="K165" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="166">
@@ -6720,8 +6720,8 @@
       <c r="G166" t="n">
         <v>97.0</v>
       </c>
-      <c r="H166" t="b">
-        <v>0</v>
+      <c r="H166" t="s">
+        <v>14</v>
       </c>
       <c r="I166" t="n">
         <v>3.0</v>
@@ -6729,8 +6729,8 @@
       <c r="J166" t="n">
         <v>1.0</v>
       </c>
-      <c r="K166" t="b">
-        <v>0</v>
+      <c r="K166" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="167">
@@ -6755,8 +6755,8 @@
       <c r="G167" t="n">
         <v>97.0</v>
       </c>
-      <c r="H167" t="b">
-        <v>0</v>
+      <c r="H167" t="s">
+        <v>14</v>
       </c>
       <c r="I167" t="n">
         <v>10.0</v>
@@ -6764,8 +6764,8 @@
       <c r="J167" t="n">
         <v>3.0</v>
       </c>
-      <c r="K167" t="b">
-        <v>0</v>
+      <c r="K167" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="168">
@@ -6790,8 +6790,8 @@
       <c r="G168" t="n">
         <v>97.0</v>
       </c>
-      <c r="H168" t="b">
-        <v>0</v>
+      <c r="H168" t="s">
+        <v>14</v>
       </c>
       <c r="I168" t="n">
         <v>11.0</v>
@@ -6799,8 +6799,8 @@
       <c r="J168" t="n">
         <v>3.0</v>
       </c>
-      <c r="K168" t="b">
-        <v>0</v>
+      <c r="K168" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="169">
@@ -6825,8 +6825,8 @@
       <c r="G169" t="n">
         <v>97.0</v>
       </c>
-      <c r="H169" t="b">
-        <v>0</v>
+      <c r="H169" t="s">
+        <v>14</v>
       </c>
       <c r="I169" t="n">
         <v>10.0</v>
@@ -6834,8 +6834,8 @@
       <c r="J169" t="n">
         <v>3.0</v>
       </c>
-      <c r="K169" t="b">
-        <v>0</v>
+      <c r="K169" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="170">
@@ -6860,8 +6860,8 @@
       <c r="G170" t="n">
         <v>97.0</v>
       </c>
-      <c r="H170" t="b">
-        <v>0</v>
+      <c r="H170" t="s">
+        <v>14</v>
       </c>
       <c r="I170" t="n">
         <v>11.0</v>
@@ -6869,8 +6869,8 @@
       <c r="J170" t="n">
         <v>3.0</v>
       </c>
-      <c r="K170" t="b">
-        <v>0</v>
+      <c r="K170" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="171">
@@ -6895,8 +6895,8 @@
       <c r="G171" t="n">
         <v>97.0</v>
       </c>
-      <c r="H171" t="b">
-        <v>0</v>
+      <c r="H171" t="s">
+        <v>14</v>
       </c>
       <c r="I171" t="n">
         <v>14.0</v>
@@ -6904,8 +6904,8 @@
       <c r="J171" t="n">
         <v>3.0</v>
       </c>
-      <c r="K171" t="b">
-        <v>0</v>
+      <c r="K171" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="172">
@@ -6930,8 +6930,8 @@
       <c r="G172" t="n">
         <v>97.0</v>
       </c>
-      <c r="H172" t="b">
-        <v>0</v>
+      <c r="H172" t="s">
+        <v>14</v>
       </c>
       <c r="I172" t="n">
         <v>15.0</v>
@@ -6939,8 +6939,8 @@
       <c r="J172" t="n">
         <v>3.0</v>
       </c>
-      <c r="K172" t="b">
-        <v>0</v>
+      <c r="K172" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="173">
@@ -6965,8 +6965,8 @@
       <c r="G173" t="n">
         <v>97.0</v>
       </c>
-      <c r="H173" t="b">
-        <v>0</v>
+      <c r="H173" t="s">
+        <v>14</v>
       </c>
       <c r="I173" t="n">
         <v>108.0</v>
@@ -6974,8 +6974,8 @@
       <c r="J173" t="n">
         <v>26.0</v>
       </c>
-      <c r="K173" t="b">
-        <v>1</v>
+      <c r="K173" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="174">
@@ -7000,8 +7000,8 @@
       <c r="G174" t="n">
         <v>97.0</v>
       </c>
-      <c r="H174" t="b">
-        <v>0</v>
+      <c r="H174" t="s">
+        <v>14</v>
       </c>
       <c r="I174" t="n">
         <v>3.0</v>
@@ -7009,8 +7009,8 @@
       <c r="J174" t="n">
         <v>1.0</v>
       </c>
-      <c r="K174" t="b">
-        <v>0</v>
+      <c r="K174" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="175">
@@ -7035,8 +7035,8 @@
       <c r="G175" t="n">
         <v>97.0</v>
       </c>
-      <c r="H175" t="b">
-        <v>0</v>
+      <c r="H175" t="s">
+        <v>14</v>
       </c>
       <c r="I175" t="n">
         <v>3.0</v>
@@ -7044,8 +7044,8 @@
       <c r="J175" t="n">
         <v>1.0</v>
       </c>
-      <c r="K175" t="b">
-        <v>0</v>
+      <c r="K175" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="176">
@@ -7070,8 +7070,8 @@
       <c r="G176" t="n">
         <v>97.0</v>
       </c>
-      <c r="H176" t="b">
-        <v>0</v>
+      <c r="H176" t="s">
+        <v>14</v>
       </c>
       <c r="I176" t="n">
         <v>3.0</v>
@@ -7079,8 +7079,8 @@
       <c r="J176" t="n">
         <v>1.0</v>
       </c>
-      <c r="K176" t="b">
-        <v>0</v>
+      <c r="K176" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="177">
@@ -7105,8 +7105,8 @@
       <c r="G177" t="n">
         <v>97.0</v>
       </c>
-      <c r="H177" t="b">
-        <v>0</v>
+      <c r="H177" t="s">
+        <v>14</v>
       </c>
       <c r="I177" t="n">
         <v>3.0</v>
@@ -7114,8 +7114,8 @@
       <c r="J177" t="n">
         <v>1.0</v>
       </c>
-      <c r="K177" t="b">
-        <v>0</v>
+      <c r="K177" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="178">
@@ -7140,8 +7140,8 @@
       <c r="G178" t="n">
         <v>97.0</v>
       </c>
-      <c r="H178" t="b">
-        <v>0</v>
+      <c r="H178" t="s">
+        <v>14</v>
       </c>
       <c r="I178" t="n">
         <v>116.0</v>
@@ -7149,8 +7149,8 @@
       <c r="J178" t="n">
         <v>27.0</v>
       </c>
-      <c r="K178" t="b">
-        <v>1</v>
+      <c r="K178" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="179">
@@ -7175,8 +7175,8 @@
       <c r="G179" t="n">
         <v>97.0</v>
       </c>
-      <c r="H179" t="b">
-        <v>0</v>
+      <c r="H179" t="s">
+        <v>14</v>
       </c>
       <c r="I179" t="n">
         <v>3.0</v>
@@ -7184,8 +7184,8 @@
       <c r="J179" t="n">
         <v>1.0</v>
       </c>
-      <c r="K179" t="b">
-        <v>0</v>
+      <c r="K179" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="180">
@@ -7210,8 +7210,8 @@
       <c r="G180" t="n">
         <v>218.0</v>
       </c>
-      <c r="H180" t="b">
-        <v>0</v>
+      <c r="H180" t="s">
+        <v>14</v>
       </c>
       <c r="I180" t="n">
         <v>3.0</v>
@@ -7219,8 +7219,8 @@
       <c r="J180" t="n">
         <v>1.0</v>
       </c>
-      <c r="K180" t="b">
-        <v>0</v>
+      <c r="K180" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="181">
@@ -7245,8 +7245,8 @@
       <c r="G181" t="n">
         <v>218.0</v>
       </c>
-      <c r="H181" t="b">
-        <v>0</v>
+      <c r="H181" t="s">
+        <v>14</v>
       </c>
       <c r="I181" t="n">
         <v>3.0</v>
@@ -7254,8 +7254,8 @@
       <c r="J181" t="n">
         <v>1.0</v>
       </c>
-      <c r="K181" t="b">
-        <v>0</v>
+      <c r="K181" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="182">
@@ -7280,8 +7280,8 @@
       <c r="G182" t="n">
         <v>218.0</v>
       </c>
-      <c r="H182" t="b">
-        <v>0</v>
+      <c r="H182" t="s">
+        <v>14</v>
       </c>
       <c r="I182" t="n">
         <v>3.0</v>
@@ -7289,8 +7289,8 @@
       <c r="J182" t="n">
         <v>1.0</v>
       </c>
-      <c r="K182" t="b">
-        <v>0</v>
+      <c r="K182" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="183">
@@ -7315,8 +7315,8 @@
       <c r="G183" t="n">
         <v>218.0</v>
       </c>
-      <c r="H183" t="b">
-        <v>0</v>
+      <c r="H183" t="s">
+        <v>14</v>
       </c>
       <c r="I183" t="n">
         <v>3.0</v>
@@ -7324,8 +7324,8 @@
       <c r="J183" t="n">
         <v>1.0</v>
       </c>
-      <c r="K183" t="b">
-        <v>0</v>
+      <c r="K183" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="184">
@@ -7350,8 +7350,8 @@
       <c r="G184" t="n">
         <v>218.0</v>
       </c>
-      <c r="H184" t="b">
-        <v>0</v>
+      <c r="H184" t="s">
+        <v>14</v>
       </c>
       <c r="I184" t="n">
         <v>3.0</v>
@@ -7359,8 +7359,8 @@
       <c r="J184" t="n">
         <v>1.0</v>
       </c>
-      <c r="K184" t="b">
-        <v>0</v>
+      <c r="K184" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="185">
@@ -7385,8 +7385,8 @@
       <c r="G185" t="n">
         <v>218.0</v>
       </c>
-      <c r="H185" t="b">
-        <v>0</v>
+      <c r="H185" t="s">
+        <v>14</v>
       </c>
       <c r="I185" t="n">
         <v>3.0</v>
@@ -7394,8 +7394,8 @@
       <c r="J185" t="n">
         <v>1.0</v>
       </c>
-      <c r="K185" t="b">
-        <v>0</v>
+      <c r="K185" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="186">
@@ -7420,8 +7420,8 @@
       <c r="G186" t="n">
         <v>218.0</v>
       </c>
-      <c r="H186" t="b">
-        <v>0</v>
+      <c r="H186" t="s">
+        <v>14</v>
       </c>
       <c r="I186" t="n">
         <v>27.0</v>
@@ -7429,8 +7429,8 @@
       <c r="J186" t="n">
         <v>3.0</v>
       </c>
-      <c r="K186" t="b">
-        <v>0</v>
+      <c r="K186" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="187">
@@ -7455,8 +7455,8 @@
       <c r="G187" t="n">
         <v>218.0</v>
       </c>
-      <c r="H187" t="b">
-        <v>0</v>
+      <c r="H187" t="s">
+        <v>14</v>
       </c>
       <c r="I187" t="n">
         <v>12.0</v>
@@ -7464,8 +7464,8 @@
       <c r="J187" t="n">
         <v>3.0</v>
       </c>
-      <c r="K187" t="b">
-        <v>0</v>
+      <c r="K187" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="188">
@@ -7490,8 +7490,8 @@
       <c r="G188" t="n">
         <v>218.0</v>
       </c>
-      <c r="H188" t="b">
-        <v>0</v>
+      <c r="H188" t="s">
+        <v>14</v>
       </c>
       <c r="I188" t="n">
         <v>30.0</v>
@@ -7499,8 +7499,8 @@
       <c r="J188" t="n">
         <v>4.0</v>
       </c>
-      <c r="K188" t="b">
-        <v>0</v>
+      <c r="K188" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="189">
@@ -7525,8 +7525,8 @@
       <c r="G189" t="n">
         <v>218.0</v>
       </c>
-      <c r="H189" t="b">
-        <v>0</v>
+      <c r="H189" t="s">
+        <v>14</v>
       </c>
       <c r="I189" t="n">
         <v>10.0</v>
@@ -7534,8 +7534,8 @@
       <c r="J189" t="n">
         <v>3.0</v>
       </c>
-      <c r="K189" t="b">
-        <v>0</v>
+      <c r="K189" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="190">
@@ -7560,8 +7560,8 @@
       <c r="G190" t="n">
         <v>218.0</v>
       </c>
-      <c r="H190" t="b">
-        <v>0</v>
+      <c r="H190" t="s">
+        <v>14</v>
       </c>
       <c r="I190" t="n">
         <v>24.0</v>
@@ -7569,8 +7569,8 @@
       <c r="J190" t="n">
         <v>7.0</v>
       </c>
-      <c r="K190" t="b">
-        <v>0</v>
+      <c r="K190" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="191">
@@ -7595,8 +7595,8 @@
       <c r="G191" t="n">
         <v>218.0</v>
       </c>
-      <c r="H191" t="b">
-        <v>0</v>
+      <c r="H191" t="s">
+        <v>14</v>
       </c>
       <c r="I191" t="n">
         <v>242.0</v>
@@ -7604,8 +7604,8 @@
       <c r="J191" t="n">
         <v>78.0</v>
       </c>
-      <c r="K191" t="b">
-        <v>1</v>
+      <c r="K191" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="192">
@@ -7630,8 +7630,8 @@
       <c r="G192" t="n">
         <v>218.0</v>
       </c>
-      <c r="H192" t="b">
-        <v>0</v>
+      <c r="H192" t="s">
+        <v>14</v>
       </c>
       <c r="I192" t="n">
         <v>36.0</v>
@@ -7639,8 +7639,8 @@
       <c r="J192" t="n">
         <v>13.0</v>
       </c>
-      <c r="K192" t="b">
-        <v>0</v>
+      <c r="K192" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="193">
@@ -7665,8 +7665,8 @@
       <c r="G193" t="n">
         <v>218.0</v>
       </c>
-      <c r="H193" t="b">
-        <v>0</v>
+      <c r="H193" t="s">
+        <v>14</v>
       </c>
       <c r="I193" t="n">
         <v>3.0</v>
@@ -7674,8 +7674,8 @@
       <c r="J193" t="n">
         <v>1.0</v>
       </c>
-      <c r="K193" t="b">
-        <v>0</v>
+      <c r="K193" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="194">
@@ -7700,8 +7700,8 @@
       <c r="G194" t="n">
         <v>218.0</v>
       </c>
-      <c r="H194" t="b">
-        <v>0</v>
+      <c r="H194" t="s">
+        <v>14</v>
       </c>
       <c r="I194" t="n">
         <v>3.0</v>
@@ -7709,8 +7709,8 @@
       <c r="J194" t="n">
         <v>1.0</v>
       </c>
-      <c r="K194" t="b">
-        <v>0</v>
+      <c r="K194" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="195">
@@ -7735,8 +7735,8 @@
       <c r="G195" t="n">
         <v>218.0</v>
       </c>
-      <c r="H195" t="b">
-        <v>0</v>
+      <c r="H195" t="s">
+        <v>14</v>
       </c>
       <c r="I195" t="n">
         <v>3.0</v>
@@ -7744,8 +7744,8 @@
       <c r="J195" t="n">
         <v>1.0</v>
       </c>
-      <c r="K195" t="b">
-        <v>0</v>
+      <c r="K195" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="196">
@@ -7770,8 +7770,8 @@
       <c r="G196" t="n">
         <v>218.0</v>
       </c>
-      <c r="H196" t="b">
-        <v>0</v>
+      <c r="H196" t="s">
+        <v>14</v>
       </c>
       <c r="I196" t="n">
         <v>3.0</v>
@@ -7779,8 +7779,8 @@
       <c r="J196" t="n">
         <v>1.0</v>
       </c>
-      <c r="K196" t="b">
-        <v>0</v>
+      <c r="K196" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="197">
@@ -7805,8 +7805,8 @@
       <c r="G197" t="n">
         <v>218.0</v>
       </c>
-      <c r="H197" t="b">
-        <v>0</v>
+      <c r="H197" t="s">
+        <v>14</v>
       </c>
       <c r="I197" t="n">
         <v>28.0</v>
@@ -7814,8 +7814,8 @@
       <c r="J197" t="n">
         <v>13.0</v>
       </c>
-      <c r="K197" t="b">
-        <v>0</v>
+      <c r="K197" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="198">
@@ -7840,8 +7840,8 @@
       <c r="G198" t="n">
         <v>218.0</v>
       </c>
-      <c r="H198" t="b">
-        <v>0</v>
+      <c r="H198" t="s">
+        <v>14</v>
       </c>
       <c r="I198" t="n">
         <v>3.0</v>
@@ -7849,8 +7849,8 @@
       <c r="J198" t="n">
         <v>1.0</v>
       </c>
-      <c r="K198" t="b">
-        <v>0</v>
+      <c r="K198" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="199">
@@ -7875,8 +7875,8 @@
       <c r="G199" t="n">
         <v>218.0</v>
       </c>
-      <c r="H199" t="b">
-        <v>0</v>
+      <c r="H199" t="s">
+        <v>14</v>
       </c>
       <c r="I199" t="n">
         <v>3.0</v>
@@ -7884,8 +7884,8 @@
       <c r="J199" t="n">
         <v>1.0</v>
       </c>
-      <c r="K199" t="b">
-        <v>0</v>
+      <c r="K199" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="200">
@@ -7910,8 +7910,8 @@
       <c r="G200" t="n">
         <v>218.0</v>
       </c>
-      <c r="H200" t="b">
-        <v>0</v>
+      <c r="H200" t="s">
+        <v>14</v>
       </c>
       <c r="I200" t="n">
         <v>8.0</v>
@@ -7919,8 +7919,8 @@
       <c r="J200" t="n">
         <v>1.0</v>
       </c>
-      <c r="K200" t="b">
-        <v>0</v>
+      <c r="K200" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="201">
@@ -7945,8 +7945,8 @@
       <c r="G201" t="n">
         <v>218.0</v>
       </c>
-      <c r="H201" t="b">
-        <v>0</v>
+      <c r="H201" t="s">
+        <v>14</v>
       </c>
       <c r="I201" t="n">
         <v>11.0</v>
@@ -7954,8 +7954,8 @@
       <c r="J201" t="n">
         <v>1.0</v>
       </c>
-      <c r="K201" t="b">
-        <v>0</v>
+      <c r="K201" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="202">
@@ -7980,8 +7980,8 @@
       <c r="G202" t="n">
         <v>218.0</v>
       </c>
-      <c r="H202" t="b">
-        <v>0</v>
+      <c r="H202" t="s">
+        <v>14</v>
       </c>
       <c r="I202" t="n">
         <v>11.0</v>
@@ -7989,8 +7989,8 @@
       <c r="J202" t="n">
         <v>1.0</v>
       </c>
-      <c r="K202" t="b">
-        <v>0</v>
+      <c r="K202" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="203">
@@ -8015,8 +8015,8 @@
       <c r="G203" t="n">
         <v>218.0</v>
       </c>
-      <c r="H203" t="b">
-        <v>0</v>
+      <c r="H203" t="s">
+        <v>14</v>
       </c>
       <c r="I203" t="n">
         <v>3.0</v>
@@ -8024,8 +8024,8 @@
       <c r="J203" t="n">
         <v>1.0</v>
       </c>
-      <c r="K203" t="b">
-        <v>0</v>
+      <c r="K203" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="204">
@@ -8050,8 +8050,8 @@
       <c r="G204" t="n">
         <v>218.0</v>
       </c>
-      <c r="H204" t="b">
-        <v>0</v>
+      <c r="H204" t="s">
+        <v>14</v>
       </c>
       <c r="I204" t="n">
         <v>3.0</v>
@@ -8059,8 +8059,8 @@
       <c r="J204" t="n">
         <v>1.0</v>
       </c>
-      <c r="K204" t="b">
-        <v>0</v>
+      <c r="K204" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="205">
@@ -8085,8 +8085,8 @@
       <c r="G205" t="n">
         <v>218.0</v>
       </c>
-      <c r="H205" t="b">
-        <v>0</v>
+      <c r="H205" t="s">
+        <v>14</v>
       </c>
       <c r="I205" t="n">
         <v>53.0</v>
@@ -8094,8 +8094,8 @@
       <c r="J205" t="n">
         <v>11.0</v>
       </c>
-      <c r="K205" t="b">
-        <v>1</v>
+      <c r="K205" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="206">
@@ -8120,8 +8120,8 @@
       <c r="G206" t="n">
         <v>218.0</v>
       </c>
-      <c r="H206" t="b">
-        <v>0</v>
+      <c r="H206" t="s">
+        <v>14</v>
       </c>
       <c r="I206" t="n">
         <v>28.0</v>
@@ -8129,8 +8129,8 @@
       <c r="J206" t="n">
         <v>7.0</v>
       </c>
-      <c r="K206" t="b">
-        <v>0</v>
+      <c r="K206" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="207">
@@ -8155,8 +8155,8 @@
       <c r="G207" t="n">
         <v>218.0</v>
       </c>
-      <c r="H207" t="b">
-        <v>0</v>
+      <c r="H207" t="s">
+        <v>14</v>
       </c>
       <c r="I207" t="n">
         <v>46.0</v>
@@ -8164,8 +8164,8 @@
       <c r="J207" t="n">
         <v>10.0</v>
       </c>
-      <c r="K207" t="b">
-        <v>0</v>
+      <c r="K207" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="208">
@@ -8190,8 +8190,8 @@
       <c r="G208" t="n">
         <v>218.0</v>
       </c>
-      <c r="H208" t="b">
-        <v>0</v>
+      <c r="H208" t="s">
+        <v>14</v>
       </c>
       <c r="I208" t="n">
         <v>108.0</v>
@@ -8199,8 +8199,8 @@
       <c r="J208" t="n">
         <v>44.0</v>
       </c>
-      <c r="K208" t="b">
-        <v>1</v>
+      <c r="K208" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="209">
@@ -8225,8 +8225,8 @@
       <c r="G209" t="n">
         <v>218.0</v>
       </c>
-      <c r="H209" t="b">
-        <v>0</v>
+      <c r="H209" t="s">
+        <v>14</v>
       </c>
       <c r="I209" t="n">
         <v>16.0</v>
@@ -8234,8 +8234,8 @@
       <c r="J209" t="n">
         <v>4.0</v>
       </c>
-      <c r="K209" t="b">
-        <v>0</v>
+      <c r="K209" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="210">
@@ -8260,8 +8260,8 @@
       <c r="G210" t="n">
         <v>218.0</v>
       </c>
-      <c r="H210" t="b">
-        <v>0</v>
+      <c r="H210" t="s">
+        <v>14</v>
       </c>
       <c r="I210" t="n">
         <v>4.0</v>
@@ -8269,8 +8269,8 @@
       <c r="J210" t="n">
         <v>1.0</v>
       </c>
-      <c r="K210" t="b">
-        <v>0</v>
+      <c r="K210" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="211">
@@ -8295,8 +8295,8 @@
       <c r="G211" t="n">
         <v>2.0</v>
       </c>
-      <c r="H211" t="b">
-        <v>1</v>
+      <c r="H211" t="s">
+        <v>14</v>
       </c>
       <c r="I211" t="n">
         <v>6.0</v>
@@ -8304,8 +8304,8 @@
       <c r="J211" t="n">
         <v>1.0</v>
       </c>
-      <c r="K211" t="b">
-        <v>0</v>
+      <c r="K211" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="212">
@@ -8330,8 +8330,8 @@
       <c r="G212" t="n">
         <v>2.0</v>
       </c>
-      <c r="H212" t="b">
-        <v>1</v>
+      <c r="H212" t="s">
+        <v>14</v>
       </c>
       <c r="I212" t="n">
         <v>2.0</v>
@@ -8339,8 +8339,8 @@
       <c r="J212" t="n">
         <v>1.0</v>
       </c>
-      <c r="K212" t="b">
-        <v>0</v>
+      <c r="K212" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="213">
@@ -8365,8 +8365,8 @@
       <c r="G213" t="n">
         <v>4.0</v>
       </c>
-      <c r="H213" t="b">
-        <v>1</v>
+      <c r="H213" t="s">
+        <v>14</v>
       </c>
       <c r="I213" t="n">
         <v>5.0</v>
@@ -8374,8 +8374,8 @@
       <c r="J213" t="n">
         <v>1.0</v>
       </c>
-      <c r="K213" t="b">
-        <v>0</v>
+      <c r="K213" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="214">
@@ -8400,8 +8400,8 @@
       <c r="G214" t="n">
         <v>4.0</v>
       </c>
-      <c r="H214" t="b">
-        <v>1</v>
+      <c r="H214" t="s">
+        <v>14</v>
       </c>
       <c r="I214" t="n">
         <v>10.0</v>
@@ -8409,8 +8409,8 @@
       <c r="J214" t="n">
         <v>2.0</v>
       </c>
-      <c r="K214" t="b">
-        <v>0</v>
+      <c r="K214" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="215">
@@ -8435,8 +8435,8 @@
       <c r="G215" t="n">
         <v>4.0</v>
       </c>
-      <c r="H215" t="b">
-        <v>1</v>
+      <c r="H215" t="s">
+        <v>14</v>
       </c>
       <c r="I215" t="n">
         <v>5.0</v>
@@ -8444,8 +8444,8 @@
       <c r="J215" t="n">
         <v>1.0</v>
       </c>
-      <c r="K215" t="b">
-        <v>0</v>
+      <c r="K215" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="216">
@@ -8470,8 +8470,8 @@
       <c r="G216" t="n">
         <v>3.0</v>
       </c>
-      <c r="H216" t="b">
-        <v>1</v>
+      <c r="H216" t="s">
+        <v>14</v>
       </c>
       <c r="I216" t="n">
         <v>3.0</v>
@@ -8479,8 +8479,8 @@
       <c r="J216" t="n">
         <v>1.0</v>
       </c>
-      <c r="K216" t="b">
-        <v>0</v>
+      <c r="K216" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="217">
@@ -8505,8 +8505,8 @@
       <c r="G217" t="n">
         <v>3.0</v>
       </c>
-      <c r="H217" t="b">
-        <v>1</v>
+      <c r="H217" t="s">
+        <v>14</v>
       </c>
       <c r="I217" t="n">
         <v>7.0</v>
@@ -8514,8 +8514,8 @@
       <c r="J217" t="n">
         <v>2.0</v>
       </c>
-      <c r="K217" t="b">
-        <v>0</v>
+      <c r="K217" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="218">
@@ -8540,8 +8540,8 @@
       <c r="G218" t="n">
         <v>49.0</v>
       </c>
-      <c r="H218" t="b">
-        <v>1</v>
+      <c r="H218" t="s">
+        <v>14</v>
       </c>
       <c r="I218" t="n">
         <v>15.0</v>
@@ -8549,8 +8549,8 @@
       <c r="J218" t="n">
         <v>3.0</v>
       </c>
-      <c r="K218" t="b">
-        <v>0</v>
+      <c r="K218" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="219">
@@ -8575,8 +8575,8 @@
       <c r="G219" t="n">
         <v>49.0</v>
       </c>
-      <c r="H219" t="b">
-        <v>1</v>
+      <c r="H219" t="s">
+        <v>14</v>
       </c>
       <c r="I219" t="n">
         <v>102.0</v>
@@ -8584,8 +8584,8 @@
       <c r="J219" t="n">
         <v>37.0</v>
       </c>
-      <c r="K219" t="b">
-        <v>1</v>
+      <c r="K219" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="220">
@@ -8610,8 +8610,8 @@
       <c r="G220" t="n">
         <v>49.0</v>
       </c>
-      <c r="H220" t="b">
-        <v>1</v>
+      <c r="H220" t="s">
+        <v>14</v>
       </c>
       <c r="I220" t="n">
         <v>34.0</v>
@@ -8619,8 +8619,8 @@
       <c r="J220" t="n">
         <v>7.0</v>
       </c>
-      <c r="K220" t="b">
-        <v>0</v>
+      <c r="K220" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="221">
@@ -8645,8 +8645,8 @@
       <c r="G221" t="n">
         <v>49.0</v>
       </c>
-      <c r="H221" t="b">
-        <v>1</v>
+      <c r="H221" t="s">
+        <v>14</v>
       </c>
       <c r="I221" t="n">
         <v>3.0</v>
@@ -8654,8 +8654,8 @@
       <c r="J221" t="n">
         <v>1.0</v>
       </c>
-      <c r="K221" t="b">
-        <v>0</v>
+      <c r="K221" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="222">
@@ -8680,8 +8680,8 @@
       <c r="G222" t="n">
         <v>49.0</v>
       </c>
-      <c r="H222" t="b">
-        <v>1</v>
+      <c r="H222" t="s">
+        <v>14</v>
       </c>
       <c r="I222" t="n">
         <v>6.0</v>
@@ -8689,8 +8689,8 @@
       <c r="J222" t="n">
         <v>1.0</v>
       </c>
-      <c r="K222" t="b">
-        <v>0</v>
+      <c r="K222" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="223">
@@ -8715,8 +8715,8 @@
       <c r="G223" t="n">
         <v>252.0</v>
       </c>
-      <c r="H223" t="b">
-        <v>0</v>
+      <c r="H223" t="s">
+        <v>14</v>
       </c>
       <c r="I223" t="n">
         <v>15.0</v>
@@ -8724,8 +8724,8 @@
       <c r="J223" t="n">
         <v>5.0</v>
       </c>
-      <c r="K223" t="b">
-        <v>0</v>
+      <c r="K223" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="224">
@@ -8750,8 +8750,8 @@
       <c r="G224" t="n">
         <v>252.0</v>
       </c>
-      <c r="H224" t="b">
-        <v>0</v>
+      <c r="H224" t="s">
+        <v>14</v>
       </c>
       <c r="I224" t="n">
         <v>19.0</v>
@@ -8759,8 +8759,8 @@
       <c r="J224" t="n">
         <v>7.0</v>
       </c>
-      <c r="K224" t="b">
-        <v>0</v>
+      <c r="K224" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="225">
@@ -8785,8 +8785,8 @@
       <c r="G225" t="n">
         <v>252.0</v>
       </c>
-      <c r="H225" t="b">
-        <v>0</v>
+      <c r="H225" t="s">
+        <v>14</v>
       </c>
       <c r="I225" t="n">
         <v>18.0</v>
@@ -8794,8 +8794,8 @@
       <c r="J225" t="n">
         <v>8.0</v>
       </c>
-      <c r="K225" t="b">
-        <v>0</v>
+      <c r="K225" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="226">
@@ -8820,8 +8820,8 @@
       <c r="G226" t="n">
         <v>252.0</v>
       </c>
-      <c r="H226" t="b">
-        <v>0</v>
+      <c r="H226" t="s">
+        <v>14</v>
       </c>
       <c r="I226" t="n">
         <v>22.0</v>
@@ -8829,8 +8829,8 @@
       <c r="J226" t="n">
         <v>10.0</v>
       </c>
-      <c r="K226" t="b">
-        <v>0</v>
+      <c r="K226" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="227">
@@ -8855,8 +8855,8 @@
       <c r="G227" t="n">
         <v>252.0</v>
       </c>
-      <c r="H227" t="b">
-        <v>0</v>
+      <c r="H227" t="s">
+        <v>14</v>
       </c>
       <c r="I227" t="n">
         <v>22.0</v>
@@ -8864,8 +8864,8 @@
       <c r="J227" t="n">
         <v>10.0</v>
       </c>
-      <c r="K227" t="b">
-        <v>0</v>
+      <c r="K227" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="228">
@@ -8890,8 +8890,8 @@
       <c r="G228" t="n">
         <v>252.0</v>
       </c>
-      <c r="H228" t="b">
-        <v>0</v>
+      <c r="H228" t="s">
+        <v>14</v>
       </c>
       <c r="I228" t="n">
         <v>18.0</v>
@@ -8899,8 +8899,8 @@
       <c r="J228" t="n">
         <v>8.0</v>
       </c>
-      <c r="K228" t="b">
-        <v>0</v>
+      <c r="K228" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="229">
@@ -8925,8 +8925,8 @@
       <c r="G229" t="n">
         <v>252.0</v>
       </c>
-      <c r="H229" t="b">
-        <v>0</v>
+      <c r="H229" t="s">
+        <v>14</v>
       </c>
       <c r="I229" t="n">
         <v>7.0</v>
@@ -8934,8 +8934,8 @@
       <c r="J229" t="n">
         <v>2.0</v>
       </c>
-      <c r="K229" t="b">
-        <v>0</v>
+      <c r="K229" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="230">
@@ -8960,8 +8960,8 @@
       <c r="G230" t="n">
         <v>252.0</v>
       </c>
-      <c r="H230" t="b">
-        <v>0</v>
+      <c r="H230" t="s">
+        <v>14</v>
       </c>
       <c r="I230" t="n">
         <v>63.0</v>
@@ -8969,8 +8969,8 @@
       <c r="J230" t="n">
         <v>17.0</v>
       </c>
-      <c r="K230" t="b">
-        <v>1</v>
+      <c r="K230" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="231">
@@ -8995,8 +8995,8 @@
       <c r="G231" t="n">
         <v>252.0</v>
       </c>
-      <c r="H231" t="b">
-        <v>0</v>
+      <c r="H231" t="s">
+        <v>14</v>
       </c>
       <c r="I231" t="n">
         <v>37.0</v>
@@ -9004,8 +9004,8 @@
       <c r="J231" t="n">
         <v>15.0</v>
       </c>
-      <c r="K231" t="b">
-        <v>0</v>
+      <c r="K231" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="232">
@@ -9030,8 +9030,8 @@
       <c r="G232" t="n">
         <v>252.0</v>
       </c>
-      <c r="H232" t="b">
-        <v>0</v>
+      <c r="H232" t="s">
+        <v>14</v>
       </c>
       <c r="I232" t="n">
         <v>38.0</v>
@@ -9039,8 +9039,8 @@
       <c r="J232" t="n">
         <v>14.0</v>
       </c>
-      <c r="K232" t="b">
-        <v>0</v>
+      <c r="K232" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="233">
@@ -9065,8 +9065,8 @@
       <c r="G233" t="n">
         <v>252.0</v>
       </c>
-      <c r="H233" t="b">
-        <v>0</v>
+      <c r="H233" t="s">
+        <v>14</v>
       </c>
       <c r="I233" t="n">
         <v>25.0</v>
@@ -9074,8 +9074,8 @@
       <c r="J233" t="n">
         <v>7.0</v>
       </c>
-      <c r="K233" t="b">
-        <v>0</v>
+      <c r="K233" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="234">
@@ -9100,8 +9100,8 @@
       <c r="G234" t="n">
         <v>252.0</v>
       </c>
-      <c r="H234" t="b">
-        <v>0</v>
+      <c r="H234" t="s">
+        <v>14</v>
       </c>
       <c r="I234" t="n">
         <v>11.0</v>
@@ -9109,8 +9109,8 @@
       <c r="J234" t="n">
         <v>3.0</v>
       </c>
-      <c r="K234" t="b">
-        <v>0</v>
+      <c r="K234" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="235">
@@ -9135,8 +9135,8 @@
       <c r="G235" t="n">
         <v>252.0</v>
       </c>
-      <c r="H235" t="b">
-        <v>0</v>
+      <c r="H235" t="s">
+        <v>14</v>
       </c>
       <c r="I235" t="n">
         <v>8.0</v>
@@ -9144,8 +9144,8 @@
       <c r="J235" t="n">
         <v>1.0</v>
       </c>
-      <c r="K235" t="b">
-        <v>0</v>
+      <c r="K235" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="236">
@@ -9170,8 +9170,8 @@
       <c r="G236" t="n">
         <v>252.0</v>
       </c>
-      <c r="H236" t="b">
-        <v>0</v>
+      <c r="H236" t="s">
+        <v>14</v>
       </c>
       <c r="I236" t="n">
         <v>10.0</v>
@@ -9179,8 +9179,8 @@
       <c r="J236" t="n">
         <v>3.0</v>
       </c>
-      <c r="K236" t="b">
-        <v>0</v>
+      <c r="K236" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="237">
@@ -9205,8 +9205,8 @@
       <c r="G237" t="n">
         <v>252.0</v>
       </c>
-      <c r="H237" t="b">
-        <v>0</v>
+      <c r="H237" t="s">
+        <v>14</v>
       </c>
       <c r="I237" t="n">
         <v>23.0</v>
@@ -9214,8 +9214,8 @@
       <c r="J237" t="n">
         <v>4.0</v>
       </c>
-      <c r="K237" t="b">
-        <v>0</v>
+      <c r="K237" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="238">
@@ -9240,8 +9240,8 @@
       <c r="G238" t="n">
         <v>252.0</v>
       </c>
-      <c r="H238" t="b">
-        <v>0</v>
+      <c r="H238" t="s">
+        <v>14</v>
       </c>
       <c r="I238" t="n">
         <v>17.0</v>
@@ -9249,8 +9249,8 @@
       <c r="J238" t="n">
         <v>2.0</v>
       </c>
-      <c r="K238" t="b">
-        <v>0</v>
+      <c r="K238" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="239">
@@ -9275,8 +9275,8 @@
       <c r="G239" t="n">
         <v>252.0</v>
       </c>
-      <c r="H239" t="b">
-        <v>0</v>
+      <c r="H239" t="s">
+        <v>14</v>
       </c>
       <c r="I239" t="n">
         <v>10.0</v>
@@ -9284,8 +9284,8 @@
       <c r="J239" t="n">
         <v>3.0</v>
       </c>
-      <c r="K239" t="b">
-        <v>0</v>
+      <c r="K239" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="240">
@@ -9310,8 +9310,8 @@
       <c r="G240" t="n">
         <v>252.0</v>
       </c>
-      <c r="H240" t="b">
-        <v>0</v>
+      <c r="H240" t="s">
+        <v>14</v>
       </c>
       <c r="I240" t="n">
         <v>137.0</v>
@@ -9319,8 +9319,8 @@
       <c r="J240" t="n">
         <v>103.0</v>
       </c>
-      <c r="K240" t="b">
-        <v>1</v>
+      <c r="K240" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="241">
@@ -9345,8 +9345,8 @@
       <c r="G241" t="n">
         <v>252.0</v>
       </c>
-      <c r="H241" t="b">
-        <v>0</v>
+      <c r="H241" t="s">
+        <v>14</v>
       </c>
       <c r="I241" t="n">
         <v>3.0</v>
@@ -9354,8 +9354,8 @@
       <c r="J241" t="n">
         <v>1.0</v>
       </c>
-      <c r="K241" t="b">
-        <v>0</v>
+      <c r="K241" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="242">
@@ -9380,8 +9380,8 @@
       <c r="G242" t="n">
         <v>252.0</v>
       </c>
-      <c r="H242" t="b">
-        <v>0</v>
+      <c r="H242" t="s">
+        <v>14</v>
       </c>
       <c r="I242" t="n">
         <v>57.0</v>
@@ -9389,8 +9389,8 @@
       <c r="J242" t="n">
         <v>12.0</v>
       </c>
-      <c r="K242" t="b">
-        <v>1</v>
+      <c r="K242" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="243">
@@ -9415,8 +9415,8 @@
       <c r="G243" t="n">
         <v>252.0</v>
       </c>
-      <c r="H243" t="b">
-        <v>0</v>
+      <c r="H243" t="s">
+        <v>14</v>
       </c>
       <c r="I243" t="n">
         <v>11.0</v>
@@ -9424,8 +9424,8 @@
       <c r="J243" t="n">
         <v>3.0</v>
       </c>
-      <c r="K243" t="b">
-        <v>0</v>
+      <c r="K243" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="244">
@@ -9450,8 +9450,8 @@
       <c r="G244" t="n">
         <v>252.0</v>
       </c>
-      <c r="H244" t="b">
-        <v>0</v>
+      <c r="H244" t="s">
+        <v>14</v>
       </c>
       <c r="I244" t="n">
         <v>10.0</v>
@@ -9459,8 +9459,8 @@
       <c r="J244" t="n">
         <v>4.0</v>
       </c>
-      <c r="K244" t="b">
-        <v>0</v>
+      <c r="K244" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="245">
@@ -9485,8 +9485,8 @@
       <c r="G245" t="n">
         <v>252.0</v>
       </c>
-      <c r="H245" t="b">
-        <v>0</v>
+      <c r="H245" t="s">
+        <v>14</v>
       </c>
       <c r="I245" t="n">
         <v>10.0</v>
@@ -9494,8 +9494,8 @@
       <c r="J245" t="n">
         <v>4.0</v>
       </c>
-      <c r="K245" t="b">
-        <v>0</v>
+      <c r="K245" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="246">
@@ -9520,8 +9520,8 @@
       <c r="G246" t="n">
         <v>252.0</v>
       </c>
-      <c r="H246" t="b">
-        <v>0</v>
+      <c r="H246" t="s">
+        <v>14</v>
       </c>
       <c r="I246" t="n">
         <v>15.0</v>
@@ -9529,8 +9529,8 @@
       <c r="J246" t="n">
         <v>6.0</v>
       </c>
-      <c r="K246" t="b">
-        <v>0</v>
+      <c r="K246" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/CodeQualityAssessor/jasml_0.10.xlsx
+++ b/CodeQualityAssessor/jasml_0.10.xlsx
@@ -62,7 +62,7 @@
     <t>Attribute(int attribute_name_index, int attribute_length, byte[] attrInfo)</t>
   </si>
   <si>
-    <t>Attribute_Code.Opcode.ExceptionTableItem</t>
+    <t>Attribute_Code</t>
   </si>
   <si>
     <t>Attribute_Code()</t>
@@ -98,7 +98,7 @@
     <t>Attribute_Exceptions(int attrLength, int number_of_exceptions, int[] exception_index_table)</t>
   </si>
   <si>
-    <t>Attribute_InnerClasses.InnerClass</t>
+    <t>Attribute_InnerClasses</t>
   </si>
   <si>
     <t>Attribute_InnerClasses(int attrLength, int number_of_classes, InnerClass[] innerClasses)</t>
@@ -107,7 +107,7 @@
     <t>InnerClass(int inner_class_info_index, int outer_class_info_index, int inner_name_index, int inner_class_access_flags)</t>
   </si>
   <si>
-    <t>Attribute_LineNumberTable.LineNumber</t>
+    <t>Attribute_LineNumberTable</t>
   </si>
   <si>
     <t>Attribute_LineNumberTable(int attrLength, int line_number_table_length, LineNumber[] lineNumberTable)</t>
@@ -116,7 +116,7 @@
     <t>LineNumber(int start_pc, int line_number)</t>
   </si>
   <si>
-    <t>Attribute_LocalVariableTable.LocalVariable</t>
+    <t>Attribute_LocalVariableTable</t>
   </si>
   <si>
     <t>Attribute_LocalVariableTable(int attrLength, int local_variable_table_length, LocalVariable[] local_variable_table)</t>
@@ -488,7 +488,7 @@
     <t>main(String[] s) throws Exception</t>
   </si>
   <si>
-    <t>SourceCodeParser.LabeledInstructions.OpcodeWrapper</t>
+    <t>SourceCodeParser</t>
   </si>
   <si>
     <t>SourceCodeParser(File file) throws ParsingException</t>

--- a/CodeQualityAssessor/jasml_0.10.xlsx
+++ b/CodeQualityAssessor/jasml_0.10.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="283">
   <si>
     <t>MethodID</t>
   </si>
@@ -53,13 +53,13 @@
     <t>Attribute</t>
   </si>
   <si>
-    <t>Attribute(byte attrTag, int attrLength)</t>
+    <t>Attribute(byte,int)</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Attribute(int attribute_name_index, int attribute_length, byte[] attrInfo)</t>
+    <t>Attribute(int,int,byte[])</t>
   </si>
   <si>
     <t>Attribute_Code</t>
@@ -68,13 +68,13 @@
     <t>Attribute_Code()</t>
   </si>
   <si>
-    <t>Attribute_Code(int attrLength, int max_stack, int max_locals, int code_length, Opcode[] codes, int exception_table_length, ExceptionTableItem[] exception_Table, int attributes_count, Attribute[] attributes)</t>
-  </si>
-  <si>
-    <t>ExceptionTableItem(int start_pc, int end_pc, int handler_pc, int catch_type)</t>
-  </si>
-  <si>
-    <t>Opcode(int offset, byte opcode, byte[][] operands)</t>
+    <t>Attribute_Code(int,int,int,int,Opcode[],int,ExceptionTableItem[],int,Attribute[])</t>
+  </si>
+  <si>
+    <t>ExceptionTableItem(int,int,int,int)</t>
+  </si>
+  <si>
+    <t>Opcode(int,byte,byte[][])</t>
   </si>
   <si>
     <t>Opcode()</t>
@@ -83,7 +83,7 @@
     <t>Attribute_ConstantValue</t>
   </si>
   <si>
-    <t>Attribute_ConstantValue(int attrLength, int constant_value_index)</t>
+    <t>Attribute_ConstantValue(int,int)</t>
   </si>
   <si>
     <t>Attribute_Deprecated</t>
@@ -95,40 +95,40 @@
     <t>Attribute_Exceptions</t>
   </si>
   <si>
-    <t>Attribute_Exceptions(int attrLength, int number_of_exceptions, int[] exception_index_table)</t>
+    <t>Attribute_Exceptions(int,int,int[])</t>
   </si>
   <si>
     <t>Attribute_InnerClasses</t>
   </si>
   <si>
-    <t>Attribute_InnerClasses(int attrLength, int number_of_classes, InnerClass[] innerClasses)</t>
-  </si>
-  <si>
-    <t>InnerClass(int inner_class_info_index, int outer_class_info_index, int inner_name_index, int inner_class_access_flags)</t>
+    <t>Attribute_InnerClasses(int,int,InnerClass[])</t>
+  </si>
+  <si>
+    <t>InnerClass(int,int,int,int)</t>
   </si>
   <si>
     <t>Attribute_LineNumberTable</t>
   </si>
   <si>
-    <t>Attribute_LineNumberTable(int attrLength, int line_number_table_length, LineNumber[] lineNumberTable)</t>
-  </si>
-  <si>
-    <t>LineNumber(int start_pc, int line_number)</t>
+    <t>Attribute_LineNumberTable(int,int,LineNumber[])</t>
+  </si>
+  <si>
+    <t>LineNumber(int,int)</t>
   </si>
   <si>
     <t>Attribute_LocalVariableTable</t>
   </si>
   <si>
-    <t>Attribute_LocalVariableTable(int attrLength, int local_variable_table_length, LocalVariable[] local_variable_table)</t>
-  </si>
-  <si>
-    <t>LocalVariable(int start_pc, int length, int name_index, int descriptor_index, int index)</t>
+    <t>Attribute_LocalVariableTable(int,int,LocalVariable[])</t>
+  </si>
+  <si>
+    <t>LocalVariable(int,int,int,int,int)</t>
   </si>
   <si>
     <t>Attribute_SourceFile</t>
   </si>
   <si>
-    <t>Attribute_SourceFile(int attrLength, int sourcefile_index)</t>
+    <t>Attribute_SourceFile(int,int)</t>
   </si>
   <si>
     <t>Attribute_Synthetic</t>
@@ -140,10 +140,10 @@
     <t>ConstantPool</t>
   </si>
   <si>
-    <t>ConstantPool(ConstantPoolItem[] items)</t>
-  </si>
-  <si>
-    <t>getConstant(int index)</t>
+    <t>ConstantPool(ConstantPoolItem[])</t>
+  </si>
+  <si>
+    <t>getConstant(int)</t>
   </si>
   <si>
     <t>getConstantPoolCount()</t>
@@ -155,49 +155,49 @@
     <t>ConstantPoolItem</t>
   </si>
   <si>
-    <t>ConstantPoolItem(byte tag)</t>
+    <t>ConstantPoolItem(byte)</t>
   </si>
   <si>
     <t>Constant_Class</t>
   </si>
   <si>
-    <t>Constant_Class(int name_index)</t>
+    <t>Constant_Class(int)</t>
   </si>
   <si>
     <t>Constant_Double</t>
   </si>
   <si>
-    <t>Constant_Double(double value)</t>
+    <t>Constant_Double(double)</t>
   </si>
   <si>
     <t>Constant_Fieldref</t>
   </si>
   <si>
-    <t>Constant_Fieldref(int class_index, int name_and_type_index)</t>
+    <t>Constant_Fieldref(int,int)</t>
   </si>
   <si>
     <t>Constant_Float</t>
   </si>
   <si>
-    <t>Constant_Float(float value)</t>
+    <t>Constant_Float(float)</t>
   </si>
   <si>
     <t>Constant_Integer</t>
   </si>
   <si>
-    <t>Constant_Integer(int value)</t>
+    <t>Constant_Integer(int)</t>
   </si>
   <si>
     <t>Constant_InterfaceMethodref</t>
   </si>
   <si>
-    <t>Constant_InterfaceMethodref(int class_index, int name_and_type_index)</t>
+    <t>Constant_InterfaceMethodref(int,int)</t>
   </si>
   <si>
     <t>Constant_Long</t>
   </si>
   <si>
-    <t>Constant_Long(long value)</t>
+    <t>Constant_Long(long)</t>
   </si>
   <si>
     <t>getValue()</t>
@@ -206,37 +206,37 @@
     <t>Constant_Methodref</t>
   </si>
   <si>
-    <t>Constant_Methodref(int class_index, int name_and_type_index)</t>
+    <t>Constant_Methodref(int,int)</t>
   </si>
   <si>
     <t>Constant_NameAndType</t>
   </si>
   <si>
-    <t>Constant_NameAndType(int name_index, int descriptor_index)</t>
+    <t>Constant_NameAndType(int,int)</t>
   </si>
   <si>
     <t>Constant_String</t>
   </si>
   <si>
-    <t>Constant_String(int string_index)</t>
+    <t>Constant_String(int)</t>
   </si>
   <si>
     <t>Constant_Utf8</t>
   </si>
   <si>
-    <t>Constant_Utf8(String bytes)</t>
+    <t>Constant_Utf8(String)</t>
   </si>
   <si>
     <t>Field</t>
   </si>
   <si>
-    <t>Field(int access_flags, int name_index, int descriptor_index, int attributes_count, Attribute[] attributes)</t>
+    <t>Field(int,int,int,int,Attribute[])</t>
   </si>
   <si>
     <t>Method</t>
   </si>
   <si>
-    <t>Method(int access_flags, int name_index, int descriptor_index, int attributes_count, Attribute[] attributes)</t>
+    <t>Method(int,int,int,int,Attribute[])</t>
   </si>
   <si>
     <t>com.jasml.compiler</t>
@@ -251,139 +251,139 @@
     <t>getConstantPool()</t>
   </si>
   <si>
-    <t>addClass(String className)</t>
-  </si>
-  <si>
-    <t>addDouble(double var)</t>
-  </si>
-  <si>
-    <t>addFieldref(String name, String className, String type)</t>
-  </si>
-  <si>
-    <t>addFloat(float var)</t>
-  </si>
-  <si>
-    <t>addInteger(int var)</t>
-  </si>
-  <si>
-    <t>addInterfaceMethodref(String name, String interfaceName, String retType, String paras)</t>
-  </si>
-  <si>
-    <t>addLong(long var)</t>
-  </si>
-  <si>
-    <t>addMethodref(String name, String className, String retType, String paras)</t>
-  </si>
-  <si>
-    <t>lookupMIFref(String s)</t>
-  </si>
-  <si>
-    <t>addFieldNameAndType(String name, String type)</t>
-  </si>
-  <si>
-    <t>addMethodNameAndType(String name, String retType, String paras)</t>
-  </si>
-  <si>
-    <t>addString(String s)</t>
-  </si>
-  <si>
-    <t>lookupString(String s)</t>
-  </si>
-  <si>
-    <t>addUtf8(String s)</t>
-  </si>
-  <si>
-    <t>lookupUtf8(String s)</t>
-  </si>
-  <si>
-    <t>lookupClass(String className)</t>
-  </si>
-  <si>
-    <t>lookupNameAndType(String nameType)</t>
-  </si>
-  <si>
-    <t>lookupDouble(double var)</t>
-  </si>
-  <si>
-    <t>lookupInt(int var)</t>
-  </si>
-  <si>
-    <t>lookupFloat(float var)</t>
-  </si>
-  <si>
-    <t>lookupLong(long var)</t>
+    <t>addClass(String)</t>
+  </si>
+  <si>
+    <t>addDouble(double)</t>
+  </si>
+  <si>
+    <t>addFieldref(String,String,String)</t>
+  </si>
+  <si>
+    <t>addFloat(float)</t>
+  </si>
+  <si>
+    <t>addInteger(int)</t>
+  </si>
+  <si>
+    <t>addInterfaceMethodref(String,String,String,String)</t>
+  </si>
+  <si>
+    <t>addLong(long)</t>
+  </si>
+  <si>
+    <t>addMethodref(String,String,String,String)</t>
+  </si>
+  <si>
+    <t>lookupMIFref(String)</t>
+  </si>
+  <si>
+    <t>addFieldNameAndType(String,String)</t>
+  </si>
+  <si>
+    <t>addMethodNameAndType(String,String,String)</t>
+  </si>
+  <si>
+    <t>addString(String)</t>
+  </si>
+  <si>
+    <t>lookupString(String)</t>
+  </si>
+  <si>
+    <t>addUtf8(String)</t>
+  </si>
+  <si>
+    <t>lookupUtf8(String)</t>
+  </si>
+  <si>
+    <t>lookupClass(String)</t>
+  </si>
+  <si>
+    <t>lookupNameAndType(String)</t>
+  </si>
+  <si>
+    <t>lookupDouble(double)</t>
+  </si>
+  <si>
+    <t>lookupInt(int)</t>
+  </si>
+  <si>
+    <t>lookupFloat(float)</t>
+  </si>
+  <si>
+    <t>lookupLong(long)</t>
   </si>
   <si>
     <t>ensureCapacity()</t>
   </si>
   <si>
-    <t>main(String[] args)</t>
+    <t>main(String[])</t>
   </si>
   <si>
     <t>GrammerException</t>
   </si>
   <si>
-    <t>GrammerException(int offset, String msg)</t>
-  </si>
-  <si>
-    <t>GrammerException(int offset, int line, int column, String msg)</t>
-  </si>
-  <si>
-    <t>GrammerException(String msg, Exception e)</t>
-  </si>
-  <si>
-    <t>GrammerException(int line, int column, String msg)</t>
+    <t>GrammerException(int,String)</t>
+  </si>
+  <si>
+    <t>GrammerException(int,int,int,String)</t>
+  </si>
+  <si>
+    <t>GrammerException(String,Exception)</t>
+  </si>
+  <si>
+    <t>GrammerException(int,int,String)</t>
   </si>
   <si>
     <t>JavaClassDumpper</t>
   </si>
   <si>
-    <t>JavaClassDumpper(JavaClass clazz, File destFile)</t>
-  </si>
-  <si>
-    <t>dump() throws IOException</t>
-  </si>
-  <si>
-    <t>dumpClassHeader() throws IOException</t>
-  </si>
-  <si>
-    <t>dumpConstantPool() throws IOException</t>
-  </si>
-  <si>
-    <t>dumpClassInfo() throws IOException</t>
-  </si>
-  <si>
-    <t>dumpInterfaces() throws IOException</t>
-  </si>
-  <si>
-    <t>dumpFields() throws IOException</t>
-  </si>
-  <si>
-    <t>dumpMethods() throws IOException</t>
-  </si>
-  <si>
-    <t>dumpClassAttributes() throws IOException</t>
-  </si>
-  <si>
-    <t>dumpAttribute(Attribute attribute) throws IOException</t>
+    <t>JavaClassDumpper(JavaClass,File)</t>
+  </si>
+  <si>
+    <t>dump()</t>
+  </si>
+  <si>
+    <t>dumpClassHeader()</t>
+  </si>
+  <si>
+    <t>dumpConstantPool()</t>
+  </si>
+  <si>
+    <t>dumpClassInfo()</t>
+  </si>
+  <si>
+    <t>dumpInterfaces()</t>
+  </si>
+  <si>
+    <t>dumpFields()</t>
+  </si>
+  <si>
+    <t>dumpMethods()</t>
+  </si>
+  <si>
+    <t>dumpClassAttributes()</t>
+  </si>
+  <si>
+    <t>dumpAttribute(Attribute)</t>
   </si>
   <si>
     <t>ParsingException</t>
   </si>
   <si>
-    <t>ParsingException(int offset, int line, int column, String msg)</t>
-  </si>
-  <si>
-    <t>ParsingException(int line, int column, String msg)</t>
-  </si>
-  <si>
-    <t>ParsingException(int offset, String msg)</t>
-  </si>
-  <si>
-    <t>ParsingException(String msg, Exception e)</t>
-  </si>
-  <si>
-    <t>ParsingException(String msg)</t>
+    <t>ParsingException(int,int,int,String)</t>
+  </si>
+  <si>
+    <t>ParsingException(int,int,String)</t>
+  </si>
+  <si>
+    <t>ParsingException(int,String)</t>
+  </si>
+  <si>
+    <t>ParsingException(String,Exception)</t>
+  </si>
+  <si>
+    <t>ParsingException(String)</t>
   </si>
   <si>
     <t>getMessage()</t>
@@ -395,16 +395,16 @@
     <t>Scanner()</t>
   </si>
   <si>
-    <t>Scanner(String content) throws ParsingException</t>
-  </si>
-  <si>
-    <t>Scanner(String content, int startingOffset, int length)</t>
-  </si>
-  <si>
-    <t>Scanner(File file) throws ParsingException</t>
-  </si>
-  <si>
-    <t>partialScanner(char[] content, int offset, int length, int columnNumber, int lineNumber) throws ParsingException</t>
+    <t>Scanner(String)</t>
+  </si>
+  <si>
+    <t>Scanner(String,int,int)</t>
+  </si>
+  <si>
+    <t>Scanner(File)</t>
+  </si>
+  <si>
+    <t>partialScanner(char[],int,int,int,int)</t>
   </si>
   <si>
     <t>getContent()</t>
@@ -416,19 +416,19 @@
     <t>restore()</t>
   </si>
   <si>
-    <t>setLineNumberOn(boolean lineNumberOn)</t>
-  </si>
-  <si>
-    <t>setColumnNumberOn(boolean columnNumberOn)</t>
-  </si>
-  <si>
-    <t>nextToken() throws ParsingException</t>
-  </si>
-  <si>
-    <t>specialNumberType(String s)</t>
-  </si>
-  <si>
-    <t>isValidName(String s)</t>
+    <t>setLineNumberOn(boolean)</t>
+  </si>
+  <si>
+    <t>setColumnNumberOn(boolean)</t>
+  </si>
+  <si>
+    <t>nextToken()</t>
+  </si>
+  <si>
+    <t>specialNumberType(String)</t>
+  </si>
+  <si>
+    <t>isValidName(String)</t>
   </si>
   <si>
     <t>getOffset()</t>
@@ -467,121 +467,115 @@
     <t>unread()</t>
   </si>
   <si>
-    <t>delComment(char[] cs) throws ParsingException</t>
-  </si>
-  <si>
-    <t>isSeparatingChar(char c)</t>
-  </si>
-  <si>
-    <t>isInstruction(String s)</t>
-  </si>
-  <si>
-    <t>isAccessFlag(String s)</t>
-  </si>
-  <si>
-    <t>exception(Scanner sc, String msg) throws ParsingException</t>
-  </si>
-  <si>
-    <t>exception(int offset, int line, int column, String msg) throws ParsingException</t>
-  </si>
-  <si>
-    <t>main(String[] s) throws Exception</t>
+    <t>delComment(char[])</t>
+  </si>
+  <si>
+    <t>isSeparatingChar(char)</t>
+  </si>
+  <si>
+    <t>isInstruction(String)</t>
+  </si>
+  <si>
+    <t>isAccessFlag(String)</t>
+  </si>
+  <si>
+    <t>exception(Scanner,String)</t>
+  </si>
+  <si>
+    <t>exception(int,int,int,String)</t>
   </si>
   <si>
     <t>SourceCodeParser</t>
   </si>
   <si>
-    <t>SourceCodeParser(File file) throws ParsingException</t>
-  </si>
-  <si>
-    <t>SourceCodeParser(String content) throws ParsingException</t>
-  </si>
-  <si>
-    <t>OpcodeWrapper(Attribute_Code.Opcode op)</t>
-  </si>
-  <si>
-    <t>OpcodeWrapper(int offset, byte opcode, byte[][] operands, Object info)</t>
-  </si>
-  <si>
-    <t>LabeledInstructions(Attribute_Code.Opcode[] codes, Hashtable labels, int code_length)</t>
-  </si>
-  <si>
-    <t>parse() throws ParsingException</t>
-  </si>
-  <si>
-    <t>preprocessConstantValues() throws ParsingException</t>
-  </si>
-  <si>
-    <t>parseClass() throws ParsingException, GrammerException</t>
-  </si>
-  <si>
-    <t>parseClassSignature() throws ParsingException</t>
-  </si>
-  <si>
-    <t>parseFields() throws ParsingException, GrammerException</t>
-  </si>
-  <si>
-    <t>parseField() throws ParsingException, GrammerException</t>
-  </si>
-  <si>
-    <t>parseMethods() throws ParsingException, GrammerException</t>
-  </si>
-  <si>
-    <t>parseMethod() throws ParsingException, GrammerException</t>
-  </si>
-  <si>
-    <t>parseMethodAttributes(Method method, ArrayList attributes, LabeledInstructions li, Attribute_Code code, ArrayList codeAttributes) throws GrammerException, ParsingException</t>
-  </si>
-  <si>
-    <t>parseLineNumbers(String s)</t>
-  </si>
-  <si>
-    <t>parseMethodInstructions(Method method) throws ParsingException, GrammerException</t>
-  </si>
-  <si>
-    <t>updateLabelLinks(Hashtable labels, ArrayList toUpdate) throws GrammerException</t>
-  </si>
-  <si>
-    <t>parseMethodSignature(Method method, ArrayList attributes) throws ParsingException, GrammerException</t>
-  </si>
-  <si>
-    <t>parseLocalVariableTable(String s, Hashtable map) throws ParsingException, GrammerException</t>
-  </si>
-  <si>
-    <t>parseExceptionTable(String s, Hashtable map) throws ParsingException, GrammerException</t>
-  </si>
-  <si>
-    <t>getOffset(String label, Hashtable map, boolean countingInstructionLength) throws GrammerException</t>
-  </si>
-  <si>
-    <t>parseAttribute() throws GrammerException, ParsingException</t>
-  </si>
-  <si>
-    <t>parseInnerClasses() throws ParsingException, GrammerException</t>
-  </si>
-  <si>
-    <t>parseClassAttributes() throws GrammerException, ParsingException</t>
-  </si>
-  <si>
-    <t>parseMaxStackOrLocals(Attribute_Code code) throws ParsingException</t>
-  </si>
-  <si>
-    <t>parseMajorOrMinor() throws GrammerException, ParsingException</t>
-  </si>
-  <si>
-    <t>parseInteger(String s)</t>
-  </si>
-  <si>
-    <t>parseLong(String s)</t>
-  </si>
-  <si>
-    <t>parseFloat(String s)</t>
-  </si>
-  <si>
-    <t>parseDouble(String s)</t>
-  </si>
-  <si>
-    <t>main(String[] args) throws Exception</t>
+    <t>SourceCodeParser(File)</t>
+  </si>
+  <si>
+    <t>SourceCodeParser(String)</t>
+  </si>
+  <si>
+    <t>OpcodeWrapper(Attribute_Code.Opcode)</t>
+  </si>
+  <si>
+    <t>OpcodeWrapper(int,byte,byte[][],Object)</t>
+  </si>
+  <si>
+    <t>LabeledInstructions(Attribute_Code.Opcode[],Hashtable,int)</t>
+  </si>
+  <si>
+    <t>parse()</t>
+  </si>
+  <si>
+    <t>preprocessConstantValues()</t>
+  </si>
+  <si>
+    <t>parseClass()</t>
+  </si>
+  <si>
+    <t>parseClassSignature()</t>
+  </si>
+  <si>
+    <t>parseFields()</t>
+  </si>
+  <si>
+    <t>parseField()</t>
+  </si>
+  <si>
+    <t>parseMethods()</t>
+  </si>
+  <si>
+    <t>parseMethod()</t>
+  </si>
+  <si>
+    <t>parseMethodAttributes(Method,ArrayList,LabeledInstructions,Attribute_Code,ArrayList)</t>
+  </si>
+  <si>
+    <t>parseLineNumbers(String)</t>
+  </si>
+  <si>
+    <t>parseMethodInstructions(Method)</t>
+  </si>
+  <si>
+    <t>updateLabelLinks(Hashtable,ArrayList)</t>
+  </si>
+  <si>
+    <t>parseMethodSignature(Method,ArrayList)</t>
+  </si>
+  <si>
+    <t>parseLocalVariableTable(String,Hashtable)</t>
+  </si>
+  <si>
+    <t>parseExceptionTable(String,Hashtable)</t>
+  </si>
+  <si>
+    <t>getOffset(String,Hashtable,boolean)</t>
+  </si>
+  <si>
+    <t>parseAttribute()</t>
+  </si>
+  <si>
+    <t>parseInnerClasses()</t>
+  </si>
+  <si>
+    <t>parseClassAttributes()</t>
+  </si>
+  <si>
+    <t>parseMaxStackOrLocals(Attribute_Code)</t>
+  </si>
+  <si>
+    <t>parseMajorOrMinor()</t>
+  </si>
+  <si>
+    <t>parseInteger(String)</t>
+  </si>
+  <si>
+    <t>parseLong(String)</t>
+  </si>
+  <si>
+    <t>parseFloat(String)</t>
+  </si>
+  <si>
+    <t>parseDouble(String)</t>
   </si>
   <si>
     <t>com.jasml.decompiler</t>
@@ -590,67 +584,67 @@
     <t>JavaClassParser</t>
   </si>
   <si>
-    <t>parseClass(File classFile) throws IOException</t>
-  </si>
-  <si>
-    <t>readMagic() throws IOException</t>
-  </si>
-  <si>
-    <t>readVersion() throws IOException</t>
-  </si>
-  <si>
-    <t>readConstant_Pool_Count() throws IOException</t>
-  </si>
-  <si>
-    <t>readConstantPool() throws IOException</t>
-  </si>
-  <si>
-    <t>readAccess_flags() throws IOException</t>
-  </si>
-  <si>
-    <t>readThis_class() throws IOException</t>
-  </si>
-  <si>
-    <t>readSuper_class() throws IOException</t>
-  </si>
-  <si>
-    <t>readInterfaces() throws IOException</t>
-  </si>
-  <si>
-    <t>readFields() throws IOException</t>
-  </si>
-  <si>
-    <t>readMethods() throws IOException</t>
-  </si>
-  <si>
-    <t>readAttributes() throws IOException</t>
-  </si>
-  <si>
-    <t>readField(DataInputStream in) throws IOException</t>
-  </si>
-  <si>
-    <t>readMethod(DataInputStream in) throws IOException</t>
-  </si>
-  <si>
-    <t>readAttribute(DataInputStream in) throws IOException</t>
-  </si>
-  <si>
-    <t>readExceptionTableItem(DataInputStream in) throws IOException</t>
-  </si>
-  <si>
-    <t>readInnerClass(DataInputStream in) throws IOException</t>
-  </si>
-  <si>
-    <t>readLineNumber(DataInputStream in) throws IOException</t>
-  </si>
-  <si>
-    <t>readLocalVariable(DataInputStream in) throws IOException</t>
-  </si>
-  <si>
-    <t>parseOpcodes(byte[] bytes)</t>
-  </si>
-  <si>
-    <t>prt(Object s)</t>
+    <t>parseClass(File)</t>
+  </si>
+  <si>
+    <t>readMagic()</t>
+  </si>
+  <si>
+    <t>readVersion()</t>
+  </si>
+  <si>
+    <t>readConstant_Pool_Count()</t>
+  </si>
+  <si>
+    <t>readConstantPool()</t>
+  </si>
+  <si>
+    <t>readAccess_flags()</t>
+  </si>
+  <si>
+    <t>readThis_class()</t>
+  </si>
+  <si>
+    <t>readSuper_class()</t>
+  </si>
+  <si>
+    <t>readInterfaces()</t>
+  </si>
+  <si>
+    <t>readFields()</t>
+  </si>
+  <si>
+    <t>readMethods()</t>
+  </si>
+  <si>
+    <t>readAttributes()</t>
+  </si>
+  <si>
+    <t>readField(DataInputStream)</t>
+  </si>
+  <si>
+    <t>readMethod(DataInputStream)</t>
+  </si>
+  <si>
+    <t>readAttribute(DataInputStream)</t>
+  </si>
+  <si>
+    <t>readExceptionTableItem(DataInputStream)</t>
+  </si>
+  <si>
+    <t>readInnerClass(DataInputStream)</t>
+  </si>
+  <si>
+    <t>readLineNumber(DataInputStream)</t>
+  </si>
+  <si>
+    <t>readLocalVariable(DataInputStream)</t>
+  </si>
+  <si>
+    <t>parseOpcodes(byte[])</t>
+  </si>
+  <si>
+    <t>prt(Object)</t>
   </si>
   <si>
     <t>SourceCodeBuilder</t>
@@ -659,100 +653,100 @@
     <t>SourceCodeBuilder()</t>
   </si>
   <si>
-    <t>SourceCodeBuilder(SourceCodeBuilderConfiguration config)</t>
-  </si>
-  <si>
-    <t>toString(Attribute_ConstantValue var)</t>
-  </si>
-  <si>
-    <t>toString(Attribute_Deprecated var)</t>
-  </si>
-  <si>
-    <t>toString(Attribute_Synthetic var)</t>
-  </si>
-  <si>
-    <t>toString(Attribute_SourceFile var)</t>
-  </si>
-  <si>
-    <t>toString(Attribute_LocalVariableTable attr, Attribute_Code.Opcode[] ops)</t>
-  </si>
-  <si>
-    <t>toString(Attribute_LineNumberTable attr)</t>
-  </si>
-  <si>
-    <t>toString(Attribute_InnerClasses attr)</t>
-  </si>
-  <si>
-    <t>toString(Attribute_Exceptions attr)</t>
-  </si>
-  <si>
-    <t>getLocalVariableName(int index, int codeOffset, Attribute_LocalVariableTable.LocalVariable[] lvts)</t>
-  </si>
-  <si>
-    <t>toString(Attribute_Code code, HashSet referedLines)</t>
-  </si>
-  <si>
-    <t>toString(Attribute var)</t>
-  </si>
-  <si>
-    <t>toString(Constant_Float var)</t>
-  </si>
-  <si>
-    <t>toString(Constant_Long var)</t>
-  </si>
-  <si>
-    <t>toString(Constant_Double var)</t>
-  </si>
-  <si>
-    <t>toString(Constant_Utf8 var)</t>
-  </si>
-  <si>
-    <t>toString(ConstantPoolItem var)</t>
-  </si>
-  <si>
-    <t>toString(Constant_Integer var)</t>
-  </si>
-  <si>
-    <t>toString(Constant_Class var)</t>
-  </si>
-  <si>
-    <t>toString(Constant_Fieldref var)</t>
-  </si>
-  <si>
-    <t>toString(Constant_InterfaceMethodref var)</t>
-  </si>
-  <si>
-    <t>toString(Constant_Methodref var)</t>
-  </si>
-  <si>
-    <t>toString(Constant_NameAndType var)</t>
-  </si>
-  <si>
-    <t>toString(Constant_String var)</t>
-  </si>
-  <si>
-    <t>toString(JavaClass clazz)</t>
-  </si>
-  <si>
-    <t>toString(Field field)</t>
-  </si>
-  <si>
-    <t>toString(Method method)</t>
-  </si>
-  <si>
-    <t>calculateReferences(Method meth)</t>
-  </si>
-  <si>
-    <t>findPreviousInstruction(int offset, Attribute_Code.Opcode[] ops)</t>
-  </si>
-  <si>
-    <t>toString_Static(JavaClass clazz)</t>
+    <t>SourceCodeBuilder(SourceCodeBuilderConfiguration)</t>
+  </si>
+  <si>
+    <t>toString(Attribute_ConstantValue)</t>
+  </si>
+  <si>
+    <t>toString(Attribute_Deprecated)</t>
+  </si>
+  <si>
+    <t>toString(Attribute_Synthetic)</t>
+  </si>
+  <si>
+    <t>toString(Attribute_SourceFile)</t>
+  </si>
+  <si>
+    <t>toString(Attribute_LocalVariableTable,Attribute_Code.Opcode[])</t>
+  </si>
+  <si>
+    <t>toString(Attribute_LineNumberTable)</t>
+  </si>
+  <si>
+    <t>toString(Attribute_InnerClasses)</t>
+  </si>
+  <si>
+    <t>toString(Attribute_Exceptions)</t>
+  </si>
+  <si>
+    <t>getLocalVariableName(int,int,Attribute_LocalVariableTable.LocalVariable[])</t>
+  </si>
+  <si>
+    <t>toString(Attribute_Code,HashSet)</t>
+  </si>
+  <si>
+    <t>toString(Attribute)</t>
+  </si>
+  <si>
+    <t>toString(Constant_Float)</t>
+  </si>
+  <si>
+    <t>toString(Constant_Long)</t>
+  </si>
+  <si>
+    <t>toString(Constant_Double)</t>
+  </si>
+  <si>
+    <t>toString(Constant_Utf8)</t>
+  </si>
+  <si>
+    <t>toString(ConstantPoolItem)</t>
+  </si>
+  <si>
+    <t>toString(Constant_Integer)</t>
+  </si>
+  <si>
+    <t>toString(Constant_Class)</t>
+  </si>
+  <si>
+    <t>toString(Constant_Fieldref)</t>
+  </si>
+  <si>
+    <t>toString(Constant_InterfaceMethodref)</t>
+  </si>
+  <si>
+    <t>toString(Constant_Methodref)</t>
+  </si>
+  <si>
+    <t>toString(Constant_NameAndType)</t>
+  </si>
+  <si>
+    <t>toString(Constant_String)</t>
+  </si>
+  <si>
+    <t>toString(JavaClass)</t>
+  </si>
+  <si>
+    <t>toString(Field)</t>
+  </si>
+  <si>
+    <t>toString(Method)</t>
+  </si>
+  <si>
+    <t>calculateReferences(Method)</t>
+  </si>
+  <si>
+    <t>findPreviousInstruction(int,Attribute_Code.Opcode[])</t>
+  </si>
+  <si>
+    <t>toString_Static(JavaClass)</t>
   </si>
   <si>
     <t>SourceCodeBuilderConfiguration</t>
   </si>
   <si>
-    <t>SourceCodeBuilderConfiguration(boolean showVersion, boolean showLineNumber, boolean labelInSingleLine, boolean showInfo)</t>
+    <t>SourceCodeBuilderConfiguration(boolean,boolean,boolean,boolean)</t>
   </si>
   <si>
     <t>SourceCodeBuilderConfiguration()</t>
@@ -764,10 +758,10 @@
     <t>IntegerArray</t>
   </si>
   <si>
-    <t>IntegerArray(int size)</t>
-  </si>
-  <si>
-    <t>add(int var)</t>
+    <t>IntegerArray(int)</t>
+  </si>
+  <si>
+    <t>add(int)</t>
   </si>
   <si>
     <t>getAll()</t>
@@ -776,97 +770,97 @@
     <t>OpcodeHelper</t>
   </si>
   <si>
-    <t>getOpcodeInfo(byte opcode)</t>
-  </si>
-  <si>
-    <t>getOpcodeInfo(String opname)</t>
+    <t>getOpcodeInfo(byte)</t>
+  </si>
+  <si>
+    <t>getOpcodeInfo(String)</t>
   </si>
   <si>
     <t>OpcodeLoader</t>
   </si>
   <si>
-    <t>loadOpcodes() throws IOException, SAXException, ParserConfigurationException</t>
-  </si>
-  <si>
-    <t>processOpcode(Node node)</t>
-  </si>
-  <si>
-    <t>prt(String s)</t>
-  </si>
-  <si>
-    <t>pr(String s)</t>
+    <t>loadOpcodes()</t>
+  </si>
+  <si>
+    <t>processOpcode(Node)</t>
+  </si>
+  <si>
+    <t>prt(String)</t>
+  </si>
+  <si>
+    <t>pr(String)</t>
   </si>
   <si>
     <t>Util</t>
   </si>
   <si>
-    <t>accessFlagToString_Class(short accessFlag)</t>
-  </si>
-  <si>
-    <t>getAccessFlag_Class(String s)</t>
-  </si>
-  <si>
-    <t>accessFlagToString_Field(short accessFlag)</t>
-  </si>
-  <si>
-    <t>accessFlagToString_Method(short accessFlag)</t>
-  </si>
-  <si>
-    <t>getAccessFlag_Method(String s)</t>
-  </si>
-  <si>
-    <t>getAccessFlag_Field(String s)</t>
-  </si>
-  <si>
-    <t>hasMethodBody(short accessFlag)</t>
-  </si>
-  <si>
-    <t>methodParameterToString(String paras)</t>
-  </si>
-  <si>
-    <t>descriptorToString(String type)</t>
-  </si>
-  <si>
-    <t>toInnerType(String normalType)</t>
-  </si>
-  <si>
-    <t>toInnerClassName(String className)</t>
-  </si>
-  <si>
-    <t>toInnerParameterTypes(String paras)</t>
-  </si>
-  <si>
-    <t>getInnerMethodDescriptor(String retType, String paras)</t>
-  </si>
-  <si>
-    <t>isDigit(String s)</t>
-  </si>
-  <si>
-    <t>getBytes(int num, int dim)</t>
-  </si>
-  <si>
-    <t>constantClassToString(String s)</t>
-  </si>
-  <si>
-    <t>getPrimitiveTypeCode(String primitiveType)</t>
-  </si>
-  <si>
-    <t>toViewableString(String s)</t>
-  </si>
-  <si>
-    <t>getUnicodeChar(char c)</t>
-  </si>
-  <si>
-    <t>parseViewableString(String s)</t>
-  </si>
-  <si>
-    <t>padChar(String s, int len, char padChar)</t>
-  </si>
-  <si>
-    <t>getNum(byte[] bytes)</t>
-  </si>
-  <si>
-    <t>getSignedNum(byte[] bytes)</t>
+    <t>accessFlagToString_Class(short)</t>
+  </si>
+  <si>
+    <t>getAccessFlag_Class(String)</t>
+  </si>
+  <si>
+    <t>accessFlagToString_Field(short)</t>
+  </si>
+  <si>
+    <t>accessFlagToString_Method(short)</t>
+  </si>
+  <si>
+    <t>getAccessFlag_Method(String)</t>
+  </si>
+  <si>
+    <t>getAccessFlag_Field(String)</t>
+  </si>
+  <si>
+    <t>hasMethodBody(short)</t>
+  </si>
+  <si>
+    <t>methodParameterToString(String)</t>
+  </si>
+  <si>
+    <t>descriptorToString(String)</t>
+  </si>
+  <si>
+    <t>toInnerType(String)</t>
+  </si>
+  <si>
+    <t>toInnerClassName(String)</t>
+  </si>
+  <si>
+    <t>toInnerParameterTypes(String)</t>
+  </si>
+  <si>
+    <t>getInnerMethodDescriptor(String,String)</t>
+  </si>
+  <si>
+    <t>isDigit(String)</t>
+  </si>
+  <si>
+    <t>getBytes(int,int)</t>
+  </si>
+  <si>
+    <t>constantClassToString(String)</t>
+  </si>
+  <si>
+    <t>getPrimitiveTypeCode(String)</t>
+  </si>
+  <si>
+    <t>toViewableString(String)</t>
+  </si>
+  <si>
+    <t>getUnicodeChar(char)</t>
+  </si>
+  <si>
+    <t>parseViewableString(String)</t>
+  </si>
+  <si>
+    <t>padChar(String,int,char)</t>
+  </si>
+  <si>
+    <t>getNum(byte[])</t>
+  </si>
+  <si>
+    <t>getSignedNum(byte[])</t>
   </si>
 </sst>
 </file>
@@ -5309,7 +5303,7 @@
         <v>125</v>
       </c>
       <c r="D126" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="E126" t="n">
         <v>32.0</v>
@@ -5341,10 +5335,10 @@
         <v>75</v>
       </c>
       <c r="C127" t="s">
+        <v>157</v>
+      </c>
+      <c r="D127" t="s">
         <v>158</v>
-      </c>
-      <c r="D127" t="s">
-        <v>159</v>
       </c>
       <c r="E127" t="n">
         <v>32.0</v>
@@ -5376,10 +5370,10 @@
         <v>75</v>
       </c>
       <c r="C128" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E128" t="n">
         <v>32.0</v>
@@ -5411,10 +5405,10 @@
         <v>75</v>
       </c>
       <c r="C129" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D129" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E129" t="n">
         <v>32.0</v>
@@ -5446,10 +5440,10 @@
         <v>75</v>
       </c>
       <c r="C130" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E130" t="n">
         <v>32.0</v>
@@ -5481,10 +5475,10 @@
         <v>75</v>
       </c>
       <c r="C131" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D131" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E131" t="n">
         <v>32.0</v>
@@ -5516,10 +5510,10 @@
         <v>75</v>
       </c>
       <c r="C132" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E132" t="n">
         <v>32.0</v>
@@ -5551,10 +5545,10 @@
         <v>75</v>
       </c>
       <c r="C133" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D133" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E133" t="n">
         <v>32.0</v>
@@ -5586,10 +5580,10 @@
         <v>75</v>
       </c>
       <c r="C134" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D134" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E134" t="n">
         <v>32.0</v>
@@ -5621,10 +5615,10 @@
         <v>75</v>
       </c>
       <c r="C135" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D135" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E135" t="n">
         <v>32.0</v>
@@ -5656,10 +5650,10 @@
         <v>75</v>
       </c>
       <c r="C136" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D136" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E136" t="n">
         <v>32.0</v>
@@ -5691,10 +5685,10 @@
         <v>75</v>
       </c>
       <c r="C137" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D137" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E137" t="n">
         <v>32.0</v>
@@ -5726,10 +5720,10 @@
         <v>75</v>
       </c>
       <c r="C138" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D138" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E138" t="n">
         <v>32.0</v>
@@ -5761,10 +5755,10 @@
         <v>75</v>
       </c>
       <c r="C139" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D139" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E139" t="n">
         <v>32.0</v>
@@ -5796,10 +5790,10 @@
         <v>75</v>
       </c>
       <c r="C140" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D140" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E140" t="n">
         <v>32.0</v>
@@ -5831,10 +5825,10 @@
         <v>75</v>
       </c>
       <c r="C141" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D141" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E141" t="n">
         <v>32.0</v>
@@ -5866,10 +5860,10 @@
         <v>75</v>
       </c>
       <c r="C142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D142" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E142" t="n">
         <v>32.0</v>
@@ -5901,10 +5895,10 @@
         <v>75</v>
       </c>
       <c r="C143" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E143" t="n">
         <v>32.0</v>
@@ -5936,10 +5930,10 @@
         <v>75</v>
       </c>
       <c r="C144" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D144" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E144" t="n">
         <v>32.0</v>
@@ -5971,10 +5965,10 @@
         <v>75</v>
       </c>
       <c r="C145" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D145" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E145" t="n">
         <v>32.0</v>
@@ -6006,10 +6000,10 @@
         <v>75</v>
       </c>
       <c r="C146" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D146" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E146" t="n">
         <v>32.0</v>
@@ -6041,10 +6035,10 @@
         <v>75</v>
       </c>
       <c r="C147" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D147" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E147" t="n">
         <v>32.0</v>
@@ -6076,10 +6070,10 @@
         <v>75</v>
       </c>
       <c r="C148" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D148" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E148" t="n">
         <v>32.0</v>
@@ -6111,10 +6105,10 @@
         <v>75</v>
       </c>
       <c r="C149" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D149" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E149" t="n">
         <v>32.0</v>
@@ -6146,10 +6140,10 @@
         <v>75</v>
       </c>
       <c r="C150" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D150" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E150" t="n">
         <v>32.0</v>
@@ -6181,10 +6175,10 @@
         <v>75</v>
       </c>
       <c r="C151" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D151" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E151" t="n">
         <v>32.0</v>
@@ -6216,10 +6210,10 @@
         <v>75</v>
       </c>
       <c r="C152" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D152" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E152" t="n">
         <v>32.0</v>
@@ -6251,10 +6245,10 @@
         <v>75</v>
       </c>
       <c r="C153" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D153" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E153" t="n">
         <v>32.0</v>
@@ -6286,10 +6280,10 @@
         <v>75</v>
       </c>
       <c r="C154" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D154" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E154" t="n">
         <v>32.0</v>
@@ -6321,10 +6315,10 @@
         <v>75</v>
       </c>
       <c r="C155" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D155" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E155" t="n">
         <v>32.0</v>
@@ -6356,10 +6350,10 @@
         <v>75</v>
       </c>
       <c r="C156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D156" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E156" t="n">
         <v>32.0</v>
@@ -6391,7 +6385,7 @@
         <v>75</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D157" t="s">
         <v>155</v>
@@ -6426,10 +6420,10 @@
         <v>75</v>
       </c>
       <c r="C158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D158" t="s">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="E158" t="n">
         <v>32.0</v>
@@ -6458,13 +6452,13 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="s">
+        <v>188</v>
+      </c>
+      <c r="C159" t="s">
+        <v>189</v>
+      </c>
+      <c r="D159" t="s">
         <v>190</v>
-      </c>
-      <c r="C159" t="s">
-        <v>191</v>
-      </c>
-      <c r="D159" t="s">
-        <v>192</v>
       </c>
       <c r="E159" t="n">
         <v>21.0</v>
@@ -6493,13 +6487,13 @@
         <v>159.0</v>
       </c>
       <c r="B160" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C160" t="s">
+        <v>189</v>
+      </c>
+      <c r="D160" t="s">
         <v>191</v>
-      </c>
-      <c r="D160" t="s">
-        <v>193</v>
       </c>
       <c r="E160" t="n">
         <v>21.0</v>
@@ -6528,13 +6522,13 @@
         <v>160.0</v>
       </c>
       <c r="B161" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C161" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D161" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E161" t="n">
         <v>21.0</v>
@@ -6563,13 +6557,13 @@
         <v>161.0</v>
       </c>
       <c r="B162" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C162" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D162" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E162" t="n">
         <v>21.0</v>
@@ -6598,13 +6592,13 @@
         <v>162.0</v>
       </c>
       <c r="B163" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C163" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D163" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E163" t="n">
         <v>21.0</v>
@@ -6633,13 +6627,13 @@
         <v>163.0</v>
       </c>
       <c r="B164" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C164" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D164" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E164" t="n">
         <v>21.0</v>
@@ -6668,13 +6662,13 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C165" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D165" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E165" t="n">
         <v>21.0</v>
@@ -6703,13 +6697,13 @@
         <v>165.0</v>
       </c>
       <c r="B166" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C166" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D166" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E166" t="n">
         <v>21.0</v>
@@ -6738,13 +6732,13 @@
         <v>166.0</v>
       </c>
       <c r="B167" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C167" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D167" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E167" t="n">
         <v>21.0</v>
@@ -6773,13 +6767,13 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C168" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D168" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E168" t="n">
         <v>21.0</v>
@@ -6808,13 +6802,13 @@
         <v>168.0</v>
       </c>
       <c r="B169" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C169" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D169" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E169" t="n">
         <v>21.0</v>
@@ -6843,13 +6837,13 @@
         <v>169.0</v>
       </c>
       <c r="B170" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C170" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D170" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E170" t="n">
         <v>21.0</v>
@@ -6878,13 +6872,13 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C171" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D171" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E171" t="n">
         <v>21.0</v>
@@ -6913,13 +6907,13 @@
         <v>171.0</v>
       </c>
       <c r="B172" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C172" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D172" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E172" t="n">
         <v>21.0</v>
@@ -6948,13 +6942,13 @@
         <v>172.0</v>
       </c>
       <c r="B173" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C173" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D173" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E173" t="n">
         <v>21.0</v>
@@ -6983,13 +6977,13 @@
         <v>173.0</v>
       </c>
       <c r="B174" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C174" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D174" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E174" t="n">
         <v>21.0</v>
@@ -7018,13 +7012,13 @@
         <v>174.0</v>
       </c>
       <c r="B175" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C175" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D175" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E175" t="n">
         <v>21.0</v>
@@ -7053,13 +7047,13 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C176" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D176" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E176" t="n">
         <v>21.0</v>
@@ -7088,13 +7082,13 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C177" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D177" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E177" t="n">
         <v>21.0</v>
@@ -7123,13 +7117,13 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C178" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D178" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E178" t="n">
         <v>21.0</v>
@@ -7158,13 +7152,13 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C179" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D179" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E179" t="n">
         <v>21.0</v>
@@ -7193,13 +7187,13 @@
         <v>179.0</v>
       </c>
       <c r="B180" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C180" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D180" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E180" t="n">
         <v>31.0</v>
@@ -7228,13 +7222,13 @@
         <v>180.0</v>
       </c>
       <c r="B181" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C181" t="s">
+        <v>211</v>
+      </c>
+      <c r="D181" t="s">
         <v>213</v>
-      </c>
-      <c r="D181" t="s">
-        <v>215</v>
       </c>
       <c r="E181" t="n">
         <v>31.0</v>
@@ -7263,13 +7257,13 @@
         <v>181.0</v>
       </c>
       <c r="B182" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C182" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D182" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E182" t="n">
         <v>31.0</v>
@@ -7298,13 +7292,13 @@
         <v>182.0</v>
       </c>
       <c r="B183" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C183" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D183" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E183" t="n">
         <v>31.0</v>
@@ -7333,13 +7327,13 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C184" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D184" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E184" t="n">
         <v>31.0</v>
@@ -7368,13 +7362,13 @@
         <v>184.0</v>
       </c>
       <c r="B185" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C185" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D185" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E185" t="n">
         <v>31.0</v>
@@ -7403,13 +7397,13 @@
         <v>185.0</v>
       </c>
       <c r="B186" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D186" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E186" t="n">
         <v>31.0</v>
@@ -7438,13 +7432,13 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D187" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E187" t="n">
         <v>31.0</v>
@@ -7473,13 +7467,13 @@
         <v>187.0</v>
       </c>
       <c r="B188" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C188" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D188" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E188" t="n">
         <v>31.0</v>
@@ -7508,13 +7502,13 @@
         <v>188.0</v>
       </c>
       <c r="B189" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C189" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D189" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E189" t="n">
         <v>31.0</v>
@@ -7543,13 +7537,13 @@
         <v>189.0</v>
       </c>
       <c r="B190" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C190" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D190" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E190" t="n">
         <v>31.0</v>
@@ -7578,13 +7572,13 @@
         <v>190.0</v>
       </c>
       <c r="B191" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C191" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D191" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E191" t="n">
         <v>31.0</v>
@@ -7613,13 +7607,13 @@
         <v>191.0</v>
       </c>
       <c r="B192" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C192" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D192" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E192" t="n">
         <v>31.0</v>
@@ -7648,13 +7642,13 @@
         <v>192.0</v>
       </c>
       <c r="B193" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C193" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D193" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E193" t="n">
         <v>31.0</v>
@@ -7683,13 +7677,13 @@
         <v>193.0</v>
       </c>
       <c r="B194" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C194" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D194" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E194" t="n">
         <v>31.0</v>
@@ -7718,13 +7712,13 @@
         <v>194.0</v>
       </c>
       <c r="B195" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C195" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D195" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E195" t="n">
         <v>31.0</v>
@@ -7753,13 +7747,13 @@
         <v>195.0</v>
       </c>
       <c r="B196" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C196" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D196" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E196" t="n">
         <v>31.0</v>
@@ -7788,13 +7782,13 @@
         <v>196.0</v>
       </c>
       <c r="B197" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C197" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D197" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E197" t="n">
         <v>31.0</v>
@@ -7823,13 +7817,13 @@
         <v>197.0</v>
       </c>
       <c r="B198" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C198" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D198" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E198" t="n">
         <v>31.0</v>
@@ -7858,13 +7852,13 @@
         <v>198.0</v>
       </c>
       <c r="B199" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C199" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D199" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E199" t="n">
         <v>31.0</v>
@@ -7893,13 +7887,13 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C200" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D200" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E200" t="n">
         <v>31.0</v>
@@ -7928,13 +7922,13 @@
         <v>200.0</v>
       </c>
       <c r="B201" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C201" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D201" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E201" t="n">
         <v>31.0</v>
@@ -7963,13 +7957,13 @@
         <v>201.0</v>
       </c>
       <c r="B202" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C202" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D202" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E202" t="n">
         <v>31.0</v>
@@ -7998,13 +7992,13 @@
         <v>202.0</v>
       </c>
       <c r="B203" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C203" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D203" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E203" t="n">
         <v>31.0</v>
@@ -8033,13 +8027,13 @@
         <v>203.0</v>
       </c>
       <c r="B204" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C204" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D204" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E204" t="n">
         <v>31.0</v>
@@ -8068,13 +8062,13 @@
         <v>204.0</v>
       </c>
       <c r="B205" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C205" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D205" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E205" t="n">
         <v>31.0</v>
@@ -8103,13 +8097,13 @@
         <v>205.0</v>
       </c>
       <c r="B206" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C206" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D206" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E206" t="n">
         <v>31.0</v>
@@ -8138,13 +8132,13 @@
         <v>206.0</v>
       </c>
       <c r="B207" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C207" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D207" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E207" t="n">
         <v>31.0</v>
@@ -8173,13 +8167,13 @@
         <v>207.0</v>
       </c>
       <c r="B208" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C208" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D208" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E208" t="n">
         <v>31.0</v>
@@ -8208,13 +8202,13 @@
         <v>208.0</v>
       </c>
       <c r="B209" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C209" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D209" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E209" t="n">
         <v>31.0</v>
@@ -8243,13 +8237,13 @@
         <v>209.0</v>
       </c>
       <c r="B210" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C210" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D210" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E210" t="n">
         <v>31.0</v>
@@ -8278,13 +8272,13 @@
         <v>210.0</v>
       </c>
       <c r="B211" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C211" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D211" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E211" t="n">
         <v>2.0</v>
@@ -8313,13 +8307,13 @@
         <v>211.0</v>
       </c>
       <c r="B212" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C212" t="s">
+        <v>243</v>
+      </c>
+      <c r="D212" t="s">
         <v>245</v>
-      </c>
-      <c r="D212" t="s">
-        <v>247</v>
       </c>
       <c r="E212" t="n">
         <v>2.0</v>
@@ -8348,13 +8342,13 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="s">
+        <v>246</v>
+      </c>
+      <c r="C213" t="s">
+        <v>247</v>
+      </c>
+      <c r="D213" t="s">
         <v>248</v>
-      </c>
-      <c r="C213" t="s">
-        <v>249</v>
-      </c>
-      <c r="D213" t="s">
-        <v>250</v>
       </c>
       <c r="E213" t="n">
         <v>3.0</v>
@@ -8383,13 +8377,13 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C214" t="s">
+        <v>247</v>
+      </c>
+      <c r="D214" t="s">
         <v>249</v>
-      </c>
-      <c r="D214" t="s">
-        <v>251</v>
       </c>
       <c r="E214" t="n">
         <v>3.0</v>
@@ -8418,13 +8412,13 @@
         <v>214.0</v>
       </c>
       <c r="B215" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C215" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D215" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E215" t="n">
         <v>3.0</v>
@@ -8453,13 +8447,13 @@
         <v>215.0</v>
       </c>
       <c r="B216" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C216" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D216" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E216" t="n">
         <v>2.0</v>
@@ -8488,13 +8482,13 @@
         <v>216.0</v>
       </c>
       <c r="B217" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C217" t="s">
+        <v>251</v>
+      </c>
+      <c r="D217" t="s">
         <v>253</v>
-      </c>
-      <c r="D217" t="s">
-        <v>255</v>
       </c>
       <c r="E217" t="n">
         <v>2.0</v>
@@ -8523,13 +8517,13 @@
         <v>217.0</v>
       </c>
       <c r="B218" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C218" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D218" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E218" t="n">
         <v>5.0</v>
@@ -8558,13 +8552,13 @@
         <v>218.0</v>
       </c>
       <c r="B219" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C219" t="s">
+        <v>254</v>
+      </c>
+      <c r="D219" t="s">
         <v>256</v>
-      </c>
-      <c r="D219" t="s">
-        <v>258</v>
       </c>
       <c r="E219" t="n">
         <v>5.0</v>
@@ -8593,13 +8587,13 @@
         <v>219.0</v>
       </c>
       <c r="B220" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C220" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D220" t="s">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="E220" t="n">
         <v>5.0</v>
@@ -8628,13 +8622,13 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C221" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D221" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E221" t="n">
         <v>5.0</v>
@@ -8663,13 +8657,13 @@
         <v>221.0</v>
       </c>
       <c r="B222" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C222" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D222" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E222" t="n">
         <v>5.0</v>
@@ -8698,13 +8692,13 @@
         <v>222.0</v>
       </c>
       <c r="B223" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C223" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D223" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E223" t="n">
         <v>24.0</v>
@@ -8733,13 +8727,13 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C224" t="s">
+        <v>259</v>
+      </c>
+      <c r="D224" t="s">
         <v>261</v>
-      </c>
-      <c r="D224" t="s">
-        <v>263</v>
       </c>
       <c r="E224" t="n">
         <v>24.0</v>
@@ -8768,13 +8762,13 @@
         <v>224.0</v>
       </c>
       <c r="B225" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C225" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D225" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E225" t="n">
         <v>24.0</v>
@@ -8803,13 +8797,13 @@
         <v>225.0</v>
       </c>
       <c r="B226" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C226" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D226" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E226" t="n">
         <v>24.0</v>
@@ -8838,13 +8832,13 @@
         <v>226.0</v>
       </c>
       <c r="B227" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C227" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D227" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E227" t="n">
         <v>24.0</v>
@@ -8873,13 +8867,13 @@
         <v>227.0</v>
       </c>
       <c r="B228" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C228" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D228" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E228" t="n">
         <v>24.0</v>
@@ -8908,13 +8902,13 @@
         <v>228.0</v>
       </c>
       <c r="B229" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C229" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D229" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E229" t="n">
         <v>24.0</v>
@@ -8943,13 +8937,13 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C230" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D230" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E230" t="n">
         <v>24.0</v>
@@ -8978,13 +8972,13 @@
         <v>230.0</v>
       </c>
       <c r="B231" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C231" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D231" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E231" t="n">
         <v>24.0</v>
@@ -9013,13 +9007,13 @@
         <v>231.0</v>
       </c>
       <c r="B232" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C232" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D232" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E232" t="n">
         <v>24.0</v>
@@ -9048,13 +9042,13 @@
         <v>232.0</v>
       </c>
       <c r="B233" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C233" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D233" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E233" t="n">
         <v>24.0</v>
@@ -9083,13 +9077,13 @@
         <v>233.0</v>
       </c>
       <c r="B234" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C234" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D234" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E234" t="n">
         <v>24.0</v>
@@ -9118,13 +9112,13 @@
         <v>234.0</v>
       </c>
       <c r="B235" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C235" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D235" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E235" t="n">
         <v>24.0</v>
@@ -9153,13 +9147,13 @@
         <v>235.0</v>
       </c>
       <c r="B236" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C236" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D236" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E236" t="n">
         <v>24.0</v>
@@ -9188,13 +9182,13 @@
         <v>236.0</v>
       </c>
       <c r="B237" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C237" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D237" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E237" t="n">
         <v>24.0</v>
@@ -9223,13 +9217,13 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C238" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D238" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E238" t="n">
         <v>24.0</v>
@@ -9258,13 +9252,13 @@
         <v>238.0</v>
       </c>
       <c r="B239" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C239" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D239" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E239" t="n">
         <v>24.0</v>
@@ -9293,13 +9287,13 @@
         <v>239.0</v>
       </c>
       <c r="B240" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C240" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D240" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E240" t="n">
         <v>24.0</v>
@@ -9328,13 +9322,13 @@
         <v>240.0</v>
       </c>
       <c r="B241" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C241" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D241" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E241" t="n">
         <v>24.0</v>
@@ -9363,13 +9357,13 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C242" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D242" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E242" t="n">
         <v>24.0</v>
@@ -9398,13 +9392,13 @@
         <v>242.0</v>
       </c>
       <c r="B243" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C243" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D243" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E243" t="n">
         <v>24.0</v>
@@ -9433,13 +9427,13 @@
         <v>243.0</v>
       </c>
       <c r="B244" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C244" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D244" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E244" t="n">
         <v>24.0</v>
@@ -9468,13 +9462,13 @@
         <v>244.0</v>
       </c>
       <c r="B245" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D245" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E245" t="n">
         <v>24.0</v>
@@ -9503,10 +9497,10 @@
         <v>245.0</v>
       </c>
       <c r="B246" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C246" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D246" t="s">
         <v>101</v>
